--- a/Technology/Software/VeriSign.xlsx
+++ b/Technology/Software/VeriSign.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02D1CDBB-C0B0-F844-9DDD-DB996867496A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{591111D5-88A1-184B-B0E4-C4A5513A9DE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40960" yWindow="9800" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -1017,6 +1017,12 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1028,12 +1034,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2424,9 +2424,9 @@
     <v>Powered by Refinitiv</v>
     <v>229.72</v>
     <v>155.25</v>
-    <v>1.0028999999999999</v>
-    <v>1.1299999999999999</v>
-    <v>4.9690000000000003E-3</v>
+    <v>1.0017</v>
+    <v>2.14</v>
+    <v>9.5599999999999991E-3</v>
     <v>0</v>
     <v>0</v>
     <v>USD</v>
@@ -2436,25 +2436,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>ATTN: GENERAL COUNSEL, 12061 BLUEMONT WAY, RESTON, VA, 20190 US</v>
-    <v>229.72</v>
+    <v>228.26</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45068.8465775</v>
+    <v>45072.843874501559</v>
     <v>0</v>
-    <v>226.61</v>
-    <v>23790191256</v>
+    <v>224.31</v>
+    <v>23524750000</v>
     <v>VERISIGN, INC.</v>
     <v>VERISIGN, INC.</v>
-    <v>227</v>
-    <v>34.893799999999999</v>
-    <v>227.41</v>
-    <v>228.54</v>
-    <v>228.54</v>
+    <v>224.31</v>
+    <v>34.347499999999997</v>
+    <v>223.85</v>
+    <v>225.99</v>
+    <v>225.99</v>
     <v>104096400</v>
     <v>VRSN</v>
     <v>VERISIGN, INC. (XNAS:VRSN)</v>
-    <v>510787</v>
-    <v>412154</v>
+    <v>450381</v>
+    <v>425404</v>
     <v>1995</v>
   </rv>
   <rv s="2">
@@ -3042,10 +3042,10 @@
   <dimension ref="A1:AJ118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="X69" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="X84" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AC81" sqref="AC81"/>
+      <selection pane="bottomRight" activeCell="AC101" sqref="AC101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4648,15 +4648,15 @@
       </c>
       <c r="AH16" s="30">
         <f>AI101/AA3</f>
-        <v>16.696042708962032</v>
+        <v>16.509755070531266</v>
       </c>
       <c r="AI16" s="30">
         <f>AI101/AA28</f>
-        <v>35.307496669634908</v>
+        <v>34.913550014841199</v>
       </c>
       <c r="AJ16" s="31">
         <f>AI101/AA106</f>
-        <v>29.600835207166853</v>
+        <v>29.270561154659699</v>
       </c>
     </row>
     <row r="17" spans="1:33" ht="19" x14ac:dyDescent="0.25">
@@ -10321,10 +10321,10 @@
       <c r="AA83" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AH83" s="60" t="s">
+      <c r="AH83" s="62" t="s">
         <v>126</v>
       </c>
-      <c r="AI83" s="61"/>
+      <c r="AI83" s="63"/>
     </row>
     <row r="84" spans="1:35" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -10408,10 +10408,10 @@
       <c r="AA84" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AH84" s="62" t="s">
+      <c r="AH84" s="64" t="s">
         <v>127</v>
       </c>
-      <c r="AI84" s="63"/>
+      <c r="AI84" s="65"/>
     </row>
     <row r="85" spans="1:35" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -11241,10 +11241,10 @@
       <c r="AA93" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AH93" s="62" t="s">
+      <c r="AH93" s="64" t="s">
         <v>134</v>
       </c>
-      <c r="AI93" s="63"/>
+      <c r="AI93" s="65"/>
     </row>
     <row r="94" spans="1:35" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -11422,7 +11422,7 @@
       </c>
       <c r="AI95" s="39" cm="1">
         <f t="array" ref="AI95">_FV(A1,"Beta")</f>
-        <v>1.0028999999999999</v>
+        <v>1.0017</v>
       </c>
     </row>
     <row r="96" spans="1:35" ht="20" x14ac:dyDescent="0.25">
@@ -11601,7 +11601,7 @@
       </c>
       <c r="AI97" s="36">
         <f>(AI94)+((AI95)*(AI96-AI94))</f>
-        <v>8.4124845000000004E-2</v>
+        <v>8.4073185000000009E-2</v>
       </c>
     </row>
     <row r="98" spans="1:35" ht="19" x14ac:dyDescent="0.25">
@@ -11686,10 +11686,10 @@
       <c r="AA98" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AH98" s="62" t="s">
+      <c r="AH98" s="64" t="s">
         <v>139</v>
       </c>
-      <c r="AI98" s="63"/>
+      <c r="AI98" s="65"/>
     </row>
     <row r="99" spans="1:35" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -11868,7 +11868,7 @@
       </c>
       <c r="AI100" s="34">
         <f>AI99/AI103</f>
-        <v>6.9957842027520672E-2</v>
+        <v>7.0691408989008164E-2</v>
       </c>
     </row>
     <row r="101" spans="1:35" ht="20" x14ac:dyDescent="0.25">
@@ -11958,7 +11958,7 @@
       </c>
       <c r="AI101" s="40" cm="1">
         <f t="array" ref="AI101">_FV(A1,"Market cap",TRUE)</f>
-        <v>23790191256</v>
+        <v>23524750000</v>
       </c>
     </row>
     <row r="102" spans="1:35" ht="20" x14ac:dyDescent="0.25">
@@ -12048,7 +12048,7 @@
       </c>
       <c r="AI102" s="34">
         <f>AI101/AI103</f>
-        <v>0.93004215797247936</v>
+        <v>0.92930859101099184</v>
       </c>
     </row>
     <row r="103" spans="1:35" ht="20" x14ac:dyDescent="0.25">
@@ -12138,7 +12138,7 @@
       </c>
       <c r="AI103" s="41">
         <f>AI99+AI101</f>
-        <v>25579691256</v>
+        <v>25314250000</v>
       </c>
     </row>
     <row r="104" spans="1:35" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -12223,10 +12223,10 @@
       <c r="AA104" s="11">
         <v>379000000</v>
       </c>
-      <c r="AH104" s="62" t="s">
+      <c r="AH104" s="64" t="s">
         <v>145</v>
       </c>
-      <c r="AI104" s="63"/>
+      <c r="AI104" s="65"/>
     </row>
     <row r="105" spans="1:35" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -12344,7 +12344,7 @@
       </c>
       <c r="AI105" s="26">
         <f>(AI100*AI92)+(AI102*AI97)</f>
-        <v>8.0493109616195838E-2</v>
+        <v>8.0407019726638107E-2</v>
       </c>
     </row>
     <row r="106" spans="1:35" ht="19" x14ac:dyDescent="0.25">
@@ -12494,7 +12494,7 @@
       <c r="AE107" s="43"/>
       <c r="AF107" s="46">
         <f>AF106*(1+AI107)/(AI108-AI107)</f>
-        <v>19799933324.925854</v>
+        <v>19830697911.824829</v>
       </c>
       <c r="AG107" s="47" t="s">
         <v>148</v>
@@ -12525,7 +12525,7 @@
       </c>
       <c r="AF108" s="46">
         <f>AF107+AF106</f>
-        <v>20871894174.090225</v>
+        <v>20902658760.989201</v>
       </c>
       <c r="AG108" s="47" t="s">
         <v>144</v>
@@ -12535,14 +12535,14 @@
       </c>
       <c r="AI108" s="51">
         <f>AI105</f>
-        <v>8.0493109616195838E-2</v>
+        <v>8.0407019726638107E-2</v>
       </c>
     </row>
     <row r="109" spans="1:35" ht="19" x14ac:dyDescent="0.25">
-      <c r="AB109" s="64" t="s">
+      <c r="AB109" s="60" t="s">
         <v>151</v>
       </c>
-      <c r="AC109" s="65"/>
+      <c r="AC109" s="61"/>
     </row>
     <row r="110" spans="1:35" ht="20" x14ac:dyDescent="0.25">
       <c r="AB110" s="52" t="s">
@@ -12550,7 +12550,7 @@
       </c>
       <c r="AC110" s="40">
         <f>NPV(AI108,AB108,AC108,AD108,AE108,AF108)</f>
-        <v>17232863052.000263</v>
+        <v>17260012617.694672</v>
       </c>
     </row>
     <row r="111" spans="1:35" ht="20" x14ac:dyDescent="0.25">
@@ -12577,7 +12577,7 @@
       </c>
       <c r="AC113" s="40">
         <f>AC110+AC111-AC112</f>
-        <v>16423763052.000263</v>
+        <v>16450912617.694672</v>
       </c>
     </row>
     <row r="114" spans="28:29" ht="20" x14ac:dyDescent="0.25">
@@ -12595,7 +12595,7 @@
       </c>
       <c r="AC115" s="55">
         <f>AC113/AC114</f>
-        <v>176.31399991610473</v>
+        <v>176.60545860973116</v>
       </c>
     </row>
     <row r="116" spans="28:29" ht="20" x14ac:dyDescent="0.25">
@@ -12604,7 +12604,7 @@
       </c>
       <c r="AC116" s="56" cm="1">
         <f t="array" ref="AC116">_FV(A1,"Price")</f>
-        <v>228.54</v>
+        <v>225.99</v>
       </c>
     </row>
     <row r="117" spans="28:29" ht="20" x14ac:dyDescent="0.25">
@@ -12613,7 +12613,7 @@
       </c>
       <c r="AC117" s="58">
         <f>AC115/AC116-1</f>
-        <v>-0.22852017189067675</v>
+        <v>-0.21852533913123962</v>
       </c>
     </row>
     <row r="118" spans="28:29" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Software/VeriSign.xlsx
+++ b/Technology/Software/VeriSign.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{591111D5-88A1-184B-B0E4-C4A5513A9DE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E684F4E-7191-5744-8BD8-9CCC70745892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2423,12 +2423,10 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>229.72</v>
-    <v>155.25</v>
-    <v>1.0017</v>
-    <v>2.14</v>
-    <v>9.5599999999999991E-3</v>
-    <v>0</v>
-    <v>0</v>
+    <v>159.69</v>
+    <v>0.98970000000000002</v>
+    <v>-0.09</v>
+    <v>-4.0840000000000001E-4</v>
     <v>USD</v>
     <v>VeriSign, Inc. is a global provider of domain name registry services and Internet infrastructure. The Company enables the security, stability, and resiliency of Internet infrastructure and services, including providing root zone maintainer services, operating two global Internet root servers, and providing registration services and authoritative resolution for the .com and .net top-level domains (TLDs), which support the majority of global e-commerce. The Company operates the authoritative directory of and/or the back-end systems for all .com, .net, .cc, .gov, .edu and .name domain names, among others. Its services allow individuals and organizations to establish their online identities, while providing the secure, always-on access they need to communicate and transact reliably with large-scale online audiences. The Company also provides internationalized domain name (IDN) services that enable Internet users to access domain names in characters representing their local language.</v>
     <v>914</v>
@@ -2436,25 +2434,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>ATTN: GENERAL COUNSEL, 12061 BLUEMONT WAY, RESTON, VA, 20190 US</v>
-    <v>228.26</v>
+    <v>220.57499999999999</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45072.843874501559</v>
+    <v>45099.882654316403</v>
     <v>0</v>
-    <v>224.31</v>
-    <v>23524750000</v>
+    <v>218.69</v>
+    <v>22929314028</v>
     <v>VERISIGN, INC.</v>
     <v>VERISIGN, INC.</v>
-    <v>224.31</v>
-    <v>34.347499999999997</v>
-    <v>223.85</v>
-    <v>225.99</v>
-    <v>225.99</v>
+    <v>220.02</v>
+    <v>33.798200000000001</v>
+    <v>220.36</v>
+    <v>220.27</v>
     <v>104096400</v>
     <v>VRSN</v>
     <v>VERISIGN, INC. (XNAS:VRSN)</v>
-    <v>450381</v>
-    <v>425404</v>
+    <v>384922</v>
+    <v>487063</v>
     <v>1995</v>
   </rv>
   <rv s="2">
@@ -2486,8 +2483,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2508,7 +2503,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2525,7 +2519,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="45">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2536,16 +2530,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2611,19 +2602,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2668,9 +2653,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2678,9 +2660,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -3045,7 +3024,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="X84" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AC101" sqref="AC101"/>
+      <selection pane="bottomRight" activeCell="AC92" sqref="AC92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4648,15 +4627,15 @@
       </c>
       <c r="AH16" s="30">
         <f>AI101/AA3</f>
-        <v>16.509755070531266</v>
+        <v>16.091875940767775</v>
       </c>
       <c r="AI16" s="30">
         <f>AI101/AA28</f>
-        <v>34.913550014841199</v>
+        <v>34.029851629563666</v>
       </c>
       <c r="AJ16" s="31">
         <f>AI101/AA106</f>
-        <v>29.270561154659699</v>
+        <v>28.529692706233668</v>
       </c>
     </row>
     <row r="17" spans="1:33" ht="19" x14ac:dyDescent="0.25">
@@ -11422,7 +11401,7 @@
       </c>
       <c r="AI95" s="39" cm="1">
         <f t="array" ref="AI95">_FV(A1,"Beta")</f>
-        <v>1.0017</v>
+        <v>0.98970000000000002</v>
       </c>
     </row>
     <row r="96" spans="1:35" ht="20" x14ac:dyDescent="0.25">
@@ -11601,7 +11580,7 @@
       </c>
       <c r="AI97" s="36">
         <f>(AI94)+((AI95)*(AI96-AI94))</f>
-        <v>8.4073185000000009E-2</v>
+        <v>8.3556585000000017E-2</v>
       </c>
     </row>
     <row r="98" spans="1:35" ht="19" x14ac:dyDescent="0.25">
@@ -11868,7 +11847,7 @@
       </c>
       <c r="AI100" s="34">
         <f>AI99/AI103</f>
-        <v>7.0691408989008164E-2</v>
+        <v>7.2394249901025221E-2</v>
       </c>
     </row>
     <row r="101" spans="1:35" ht="20" x14ac:dyDescent="0.25">
@@ -11958,7 +11937,7 @@
       </c>
       <c r="AI101" s="40" cm="1">
         <f t="array" ref="AI101">_FV(A1,"Market cap",TRUE)</f>
-        <v>23524750000</v>
+        <v>22929314028</v>
       </c>
     </row>
     <row r="102" spans="1:35" ht="20" x14ac:dyDescent="0.25">
@@ -12048,7 +12027,7 @@
       </c>
       <c r="AI102" s="34">
         <f>AI101/AI103</f>
-        <v>0.92930859101099184</v>
+        <v>0.92760575009897472</v>
       </c>
     </row>
     <row r="103" spans="1:35" ht="20" x14ac:dyDescent="0.25">
@@ -12138,7 +12117,7 @@
       </c>
       <c r="AI103" s="41">
         <f>AI99+AI101</f>
-        <v>25314250000</v>
+        <v>24718814028</v>
       </c>
     </row>
     <row r="104" spans="1:35" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -12344,7 +12323,7 @@
       </c>
       <c r="AI105" s="26">
         <f>(AI100*AI92)+(AI102*AI97)</f>
-        <v>8.0407019726638107E-2</v>
+        <v>7.9839506645548078E-2</v>
       </c>
     </row>
     <row r="106" spans="1:35" ht="19" x14ac:dyDescent="0.25">
@@ -12494,7 +12473,7 @@
       <c r="AE107" s="43"/>
       <c r="AF107" s="46">
         <f>AF106*(1+AI107)/(AI108-AI107)</f>
-        <v>19830697911.824829</v>
+        <v>20035918220.330631</v>
       </c>
       <c r="AG107" s="47" t="s">
         <v>148</v>
@@ -12525,7 +12504,7 @@
       </c>
       <c r="AF108" s="46">
         <f>AF107+AF106</f>
-        <v>20902658760.989201</v>
+        <v>21107879069.495003</v>
       </c>
       <c r="AG108" s="47" t="s">
         <v>144</v>
@@ -12535,7 +12514,7 @@
       </c>
       <c r="AI108" s="51">
         <f>AI105</f>
-        <v>8.0407019726638107E-2</v>
+        <v>7.9839506645548078E-2</v>
       </c>
     </row>
     <row r="109" spans="1:35" ht="19" x14ac:dyDescent="0.25">
@@ -12550,7 +12529,7 @@
       </c>
       <c r="AC110" s="40">
         <f>NPV(AI108,AB108,AC108,AD108,AE108,AF108)</f>
-        <v>17260012617.694672</v>
+        <v>17441121322.937565</v>
       </c>
     </row>
     <row r="111" spans="1:35" ht="20" x14ac:dyDescent="0.25">
@@ -12577,7 +12556,7 @@
       </c>
       <c r="AC113" s="40">
         <f>AC110+AC111-AC112</f>
-        <v>16450912617.694672</v>
+        <v>16632021322.937565</v>
       </c>
     </row>
     <row r="114" spans="28:29" ht="20" x14ac:dyDescent="0.25">
@@ -12595,7 +12574,7 @@
       </c>
       <c r="AC115" s="55">
         <f>AC113/AC114</f>
-        <v>176.60545860973116</v>
+        <v>178.54971463314672</v>
       </c>
     </row>
     <row r="116" spans="28:29" ht="20" x14ac:dyDescent="0.25">
@@ -12604,7 +12583,7 @@
       </c>
       <c r="AC116" s="56" cm="1">
         <f t="array" ref="AC116">_FV(A1,"Price")</f>
-        <v>225.99</v>
+        <v>220.27</v>
       </c>
     </row>
     <row r="117" spans="28:29" ht="20" x14ac:dyDescent="0.25">
@@ -12613,7 +12592,7 @@
       </c>
       <c r="AC117" s="58">
         <f>AC115/AC116-1</f>
-        <v>-0.21852533913123962</v>
+        <v>-0.189405208911124</v>
       </c>
     </row>
     <row r="118" spans="28:29" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Software/VeriSign.xlsx
+++ b/Technology/Software/VeriSign.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E684F4E-7191-5744-8BD8-9CCC70745892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{362D61AB-369C-6144-B15C-7EDB4F59F558}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2423,10 +2423,10 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>229.72</v>
-    <v>159.69</v>
-    <v>0.98970000000000002</v>
-    <v>-0.09</v>
-    <v>-4.0840000000000001E-4</v>
+    <v>162.85</v>
+    <v>0.99129999999999996</v>
+    <v>1.37</v>
+    <v>6.1870000000000007E-3</v>
     <v>USD</v>
     <v>VeriSign, Inc. is a global provider of domain name registry services and Internet infrastructure. The Company enables the security, stability, and resiliency of Internet infrastructure and services, including providing root zone maintainer services, operating two global Internet root servers, and providing registration services and authoritative resolution for the .com and .net top-level domains (TLDs), which support the majority of global e-commerce. The Company operates the authoritative directory of and/or the back-end systems for all .com, .net, .cc, .gov, .edu and .name domain names, among others. Its services allow individuals and organizations to establish their online identities, while providing the secure, always-on access they need to communicate and transact reliably with large-scale online audiences. The Company also provides internationalized domain name (IDN) services that enable Internet users to access domain names in characters representing their local language.</v>
     <v>914</v>
@@ -2434,24 +2434,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>ATTN: GENERAL COUNSEL, 12061 BLUEMONT WAY, RESTON, VA, 20190 US</v>
-    <v>220.57499999999999</v>
+    <v>223.54</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45099.882654316403</v>
+    <v>45105.875006168753</v>
     <v>0</v>
-    <v>218.69</v>
-    <v>22929314028</v>
+    <v>221.28</v>
+    <v>23193718884</v>
     <v>VERISIGN, INC.</v>
     <v>VERISIGN, INC.</v>
-    <v>220.02</v>
-    <v>33.798200000000001</v>
-    <v>220.36</v>
-    <v>220.27</v>
+    <v>221.44</v>
+    <v>34.187899999999999</v>
+    <v>221.44</v>
+    <v>222.81</v>
     <v>104096400</v>
     <v>VRSN</v>
     <v>VERISIGN, INC. (XNAS:VRSN)</v>
-    <v>384922</v>
-    <v>487063</v>
+    <v>294410</v>
+    <v>506598</v>
     <v>1995</v>
   </rv>
   <rv s="2">
@@ -3021,10 +3021,10 @@
   <dimension ref="A1:AJ118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="X84" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="Z97" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AC92" sqref="AC92"/>
+      <selection pane="bottomRight" activeCell="AD102" sqref="AD102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4627,15 +4627,15 @@
       </c>
       <c r="AH16" s="30">
         <f>AI101/AA3</f>
-        <v>16.091875940767775</v>
+        <v>16.277436229910872</v>
       </c>
       <c r="AI16" s="30">
         <f>AI101/AA28</f>
-        <v>34.029851629563666</v>
+        <v>34.422260142475515</v>
       </c>
       <c r="AJ16" s="31">
         <f>AI101/AA106</f>
-        <v>28.529692706233668</v>
+        <v>28.858677222844346</v>
       </c>
     </row>
     <row r="17" spans="1:33" ht="19" x14ac:dyDescent="0.25">
@@ -11401,7 +11401,7 @@
       </c>
       <c r="AI95" s="39" cm="1">
         <f t="array" ref="AI95">_FV(A1,"Beta")</f>
-        <v>0.98970000000000002</v>
+        <v>0.99129999999999996</v>
       </c>
     </row>
     <row r="96" spans="1:35" ht="20" x14ac:dyDescent="0.25">
@@ -11580,7 +11580,7 @@
       </c>
       <c r="AI97" s="36">
         <f>(AI94)+((AI95)*(AI96-AI94))</f>
-        <v>8.3556585000000017E-2</v>
+        <v>8.362546500000001E-2</v>
       </c>
     </row>
     <row r="98" spans="1:35" ht="19" x14ac:dyDescent="0.25">
@@ -11847,7 +11847,7 @@
       </c>
       <c r="AI100" s="34">
         <f>AI99/AI103</f>
-        <v>7.2394249901025221E-2</v>
+        <v>7.1628079964749833E-2</v>
       </c>
     </row>
     <row r="101" spans="1:35" ht="20" x14ac:dyDescent="0.25">
@@ -11937,7 +11937,7 @@
       </c>
       <c r="AI101" s="40" cm="1">
         <f t="array" ref="AI101">_FV(A1,"Market cap",TRUE)</f>
-        <v>22929314028</v>
+        <v>23193718884</v>
       </c>
     </row>
     <row r="102" spans="1:35" ht="20" x14ac:dyDescent="0.25">
@@ -12027,7 +12027,7 @@
       </c>
       <c r="AI102" s="34">
         <f>AI101/AI103</f>
-        <v>0.92760575009897472</v>
+        <v>0.92837192003525015</v>
       </c>
     </row>
     <row r="103" spans="1:35" ht="20" x14ac:dyDescent="0.25">
@@ -12117,7 +12117,7 @@
       </c>
       <c r="AI103" s="41">
         <f>AI99+AI101</f>
-        <v>24718814028</v>
+        <v>24983218884</v>
       </c>
     </row>
     <row r="104" spans="1:35" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -12323,7 +12323,7 @@
       </c>
       <c r="AI105" s="26">
         <f>(AI100*AI92)+(AI102*AI97)</f>
-        <v>7.9839506645548078E-2</v>
+        <v>7.9942791852140566E-2</v>
       </c>
     </row>
     <row r="106" spans="1:35" ht="19" x14ac:dyDescent="0.25">
@@ -12473,7 +12473,7 @@
       <c r="AE107" s="43"/>
       <c r="AF107" s="46">
         <f>AF106*(1+AI107)/(AI108-AI107)</f>
-        <v>20035918220.330631</v>
+        <v>19998253335.040012</v>
       </c>
       <c r="AG107" s="47" t="s">
         <v>148</v>
@@ -12504,7 +12504,7 @@
       </c>
       <c r="AF108" s="46">
         <f>AF107+AF106</f>
-        <v>21107879069.495003</v>
+        <v>21070214184.204384</v>
       </c>
       <c r="AG108" s="47" t="s">
         <v>144</v>
@@ -12514,7 +12514,7 @@
       </c>
       <c r="AI108" s="51">
         <f>AI105</f>
-        <v>7.9839506645548078E-2</v>
+        <v>7.9942791852140566E-2</v>
       </c>
     </row>
     <row r="109" spans="1:35" ht="19" x14ac:dyDescent="0.25">
@@ -12529,7 +12529,7 @@
       </c>
       <c r="AC110" s="40">
         <f>NPV(AI108,AB108,AC108,AD108,AE108,AF108)</f>
-        <v>17441121322.937565</v>
+        <v>17407881347.192364</v>
       </c>
     </row>
     <row r="111" spans="1:35" ht="20" x14ac:dyDescent="0.25">
@@ -12556,7 +12556,7 @@
       </c>
       <c r="AC113" s="40">
         <f>AC110+AC111-AC112</f>
-        <v>16632021322.937565</v>
+        <v>16598781347.192364</v>
       </c>
     </row>
     <row r="114" spans="28:29" ht="20" x14ac:dyDescent="0.25">
@@ -12574,7 +12574,7 @@
       </c>
       <c r="AC115" s="55">
         <f>AC113/AC114</f>
-        <v>178.54971463314672</v>
+        <v>178.19287356924468</v>
       </c>
     </row>
     <row r="116" spans="28:29" ht="20" x14ac:dyDescent="0.25">
@@ -12583,7 +12583,7 @@
       </c>
       <c r="AC116" s="56" cm="1">
         <f t="array" ref="AC116">_FV(A1,"Price")</f>
-        <v>220.27</v>
+        <v>222.81</v>
       </c>
     </row>
     <row r="117" spans="28:29" ht="20" x14ac:dyDescent="0.25">
@@ -12592,7 +12592,7 @@
       </c>
       <c r="AC117" s="58">
         <f>AC115/AC116-1</f>
-        <v>-0.189405208911124</v>
+        <v>-0.20024741452697514</v>
       </c>
     </row>
     <row r="118" spans="28:29" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Software/VeriSign.xlsx
+++ b/Technology/Software/VeriSign.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{362D61AB-369C-6144-B15C-7EDB4F59F558}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7781F3B4-C259-404C-8AB6-A476EA1CB03F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2423,10 +2423,12 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>229.72</v>
-    <v>162.85</v>
-    <v>0.99129999999999996</v>
-    <v>1.37</v>
-    <v>6.1870000000000007E-3</v>
+    <v>169.24</v>
+    <v>0.98429999999999995</v>
+    <v>-0.68</v>
+    <v>-3.0480000000000004E-3</v>
+    <v>0.68</v>
+    <v>3.0570000000000003E-3</v>
     <v>USD</v>
     <v>VeriSign, Inc. is a global provider of domain name registry services and Internet infrastructure. The Company enables the security, stability, and resiliency of Internet infrastructure and services, including providing root zone maintainer services, operating two global Internet root servers, and providing registration services and authoritative resolution for the .com and .net top-level domains (TLDs), which support the majority of global e-commerce. The Company operates the authoritative directory of and/or the back-end systems for all .com, .net, .cc, .gov, .edu and .name domain names, among others. Its services allow individuals and organizations to establish their online identities, while providing the secure, always-on access they need to communicate and transact reliably with large-scale online audiences. The Company also provides internationalized domain name (IDN) services that enable Internet users to access domain names in characters representing their local language.</v>
     <v>914</v>
@@ -2434,24 +2436,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>ATTN: GENERAL COUNSEL, 12061 BLUEMONT WAY, RESTON, VA, 20190 US</v>
-    <v>223.54</v>
+    <v>223.87</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45105.875006168753</v>
+    <v>45114.875002603905</v>
     <v>0</v>
-    <v>221.28</v>
-    <v>23193718884</v>
+    <v>220.81</v>
+    <v>23156250000</v>
     <v>VERISIGN, INC.</v>
     <v>VERISIGN, INC.</v>
-    <v>221.44</v>
-    <v>34.187899999999999</v>
-    <v>221.44</v>
-    <v>222.81</v>
+    <v>222.55</v>
+    <v>34.237000000000002</v>
+    <v>223.13</v>
+    <v>222.45</v>
+    <v>223.13</v>
     <v>104096400</v>
     <v>VRSN</v>
     <v>VERISIGN, INC. (XNAS:VRSN)</v>
-    <v>294410</v>
-    <v>506598</v>
+    <v>354704</v>
+    <v>488566</v>
     <v>1995</v>
   </rv>
   <rv s="2">
@@ -2483,6 +2486,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2503,6 +2508,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2519,7 +2525,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2530,13 +2536,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2602,13 +2611,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2653,6 +2668,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2660,6 +2678,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -3021,10 +3042,10 @@
   <dimension ref="A1:AJ118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="Z97" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="Y2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AD102" sqref="AD102"/>
+      <selection pane="bottomRight" activeCell="AD23" sqref="AD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4627,15 +4648,15 @@
       </c>
       <c r="AH16" s="30">
         <f>AI101/AA3</f>
-        <v>16.277436229910872</v>
+        <v>16.251140430907434</v>
       </c>
       <c r="AI16" s="30">
         <f>AI101/AA28</f>
-        <v>34.422260142475515</v>
+        <v>34.3666518254675</v>
       </c>
       <c r="AJ16" s="31">
         <f>AI101/AA106</f>
-        <v>28.858677222844346</v>
+        <v>28.812056737588652</v>
       </c>
     </row>
     <row r="17" spans="1:33" ht="19" x14ac:dyDescent="0.25">
@@ -11401,7 +11422,7 @@
       </c>
       <c r="AI95" s="39" cm="1">
         <f t="array" ref="AI95">_FV(A1,"Beta")</f>
-        <v>0.99129999999999996</v>
+        <v>0.98429999999999995</v>
       </c>
     </row>
     <row r="96" spans="1:35" ht="20" x14ac:dyDescent="0.25">
@@ -11580,7 +11601,7 @@
       </c>
       <c r="AI97" s="36">
         <f>(AI94)+((AI95)*(AI96-AI94))</f>
-        <v>8.362546500000001E-2</v>
+        <v>8.3324115000000004E-2</v>
       </c>
     </row>
     <row r="98" spans="1:35" ht="19" x14ac:dyDescent="0.25">
@@ -11847,7 +11868,7 @@
       </c>
       <c r="AI100" s="34">
         <f>AI99/AI103</f>
-        <v>7.1628079964749833E-2</v>
+        <v>7.1735666396079492E-2</v>
       </c>
     </row>
     <row r="101" spans="1:35" ht="20" x14ac:dyDescent="0.25">
@@ -11937,7 +11958,7 @@
       </c>
       <c r="AI101" s="40" cm="1">
         <f t="array" ref="AI101">_FV(A1,"Market cap",TRUE)</f>
-        <v>23193718884</v>
+        <v>23156250000</v>
       </c>
     </row>
     <row r="102" spans="1:35" ht="20" x14ac:dyDescent="0.25">
@@ -12027,7 +12048,7 @@
       </c>
       <c r="AI102" s="34">
         <f>AI101/AI103</f>
-        <v>0.92837192003525015</v>
+        <v>0.92826433360392047</v>
       </c>
     </row>
     <row r="103" spans="1:35" ht="20" x14ac:dyDescent="0.25">
@@ -12117,7 +12138,7 @@
       </c>
       <c r="AI103" s="41">
         <f>AI99+AI101</f>
-        <v>24983218884</v>
+        <v>24945750000</v>
       </c>
     </row>
     <row r="104" spans="1:35" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -12323,7 +12344,7 @@
       </c>
       <c r="AI105" s="26">
         <f>(AI100*AI92)+(AI102*AI97)</f>
-        <v>7.9942791852140566E-2</v>
+        <v>7.9657527965887931E-2</v>
       </c>
     </row>
     <row r="106" spans="1:35" ht="19" x14ac:dyDescent="0.25">
@@ -12473,7 +12494,7 @@
       <c r="AE107" s="43"/>
       <c r="AF107" s="46">
         <f>AF106*(1+AI107)/(AI108-AI107)</f>
-        <v>19998253335.040012</v>
+        <v>20102626505.158112</v>
       </c>
       <c r="AG107" s="47" t="s">
         <v>148</v>
@@ -12504,7 +12525,7 @@
       </c>
       <c r="AF108" s="46">
         <f>AF107+AF106</f>
-        <v>21070214184.204384</v>
+        <v>21174587354.322483</v>
       </c>
       <c r="AG108" s="47" t="s">
         <v>144</v>
@@ -12514,7 +12535,7 @@
       </c>
       <c r="AI108" s="51">
         <f>AI105</f>
-        <v>7.9942791852140566E-2</v>
+        <v>7.9657527965887931E-2</v>
       </c>
     </row>
     <row r="109" spans="1:35" ht="19" x14ac:dyDescent="0.25">
@@ -12529,7 +12550,7 @@
       </c>
       <c r="AC110" s="40">
         <f>NPV(AI108,AB108,AC108,AD108,AE108,AF108)</f>
-        <v>17407881347.192364</v>
+        <v>17499993071.658035</v>
       </c>
     </row>
     <row r="111" spans="1:35" ht="20" x14ac:dyDescent="0.25">
@@ -12556,7 +12577,7 @@
       </c>
       <c r="AC113" s="40">
         <f>AC110+AC111-AC112</f>
-        <v>16598781347.192364</v>
+        <v>16690893071.658035</v>
       </c>
     </row>
     <row r="114" spans="28:29" ht="20" x14ac:dyDescent="0.25">
@@ -12574,7 +12595,7 @@
       </c>
       <c r="AC115" s="55">
         <f>AC113/AC114</f>
-        <v>178.19287356924468</v>
+        <v>179.1817204326762</v>
       </c>
     </row>
     <row r="116" spans="28:29" ht="20" x14ac:dyDescent="0.25">
@@ -12583,7 +12604,7 @@
       </c>
       <c r="AC116" s="56" cm="1">
         <f t="array" ref="AC116">_FV(A1,"Price")</f>
-        <v>222.81</v>
+        <v>222.45</v>
       </c>
     </row>
     <row r="117" spans="28:29" ht="20" x14ac:dyDescent="0.25">
@@ -12592,7 +12613,7 @@
       </c>
       <c r="AC117" s="58">
         <f>AC115/AC116-1</f>
-        <v>-0.20024741452697514</v>
+        <v>-0.19450788746830205</v>
       </c>
     </row>
     <row r="118" spans="28:29" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Software/VeriSign.xlsx
+++ b/Technology/Software/VeriSign.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7781F3B4-C259-404C-8AB6-A476EA1CB03F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A7F244B-70BF-C84E-B6C9-CAC78665B7D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -70,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="167">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -342,9 +345,6 @@
     <t>Cash at the End of Period</t>
   </si>
   <si>
-    <t>Free Cash Flow</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -510,9 +510,6 @@
     <t>WACC Calculation</t>
   </si>
   <si>
-    <t>Proj. Free Cash Flow</t>
-  </si>
-  <si>
     <t>FCF Growth Rate</t>
   </si>
   <si>
@@ -550,17 +547,46 @@
   </si>
   <si>
     <t>Shares</t>
+  </si>
+  <si>
+    <t>Forward P/S</t>
+  </si>
+  <si>
+    <t>Forward P/E</t>
+  </si>
+  <si>
+    <t>Forward P/FCF</t>
+  </si>
+  <si>
+    <t>Dividend Yield</t>
+  </si>
+  <si>
+    <t>FCF Yield</t>
+  </si>
+  <si>
+    <t>Unlevered FCF</t>
+  </si>
+  <si>
+    <t>Levered FCF</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Proj</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Forecast</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="169" formatCode="0.0%"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -729,7 +755,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -835,22 +861,13 @@
       </left>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top/>
       <bottom style="thin">
@@ -858,47 +875,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -940,101 +922,99 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="39" fontId="11" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="16" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="39" fontId="11" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="16" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="164" fontId="10" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="11" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1085,7 +1065,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="2400"/>
-              <a:t>VRSN</a:t>
+              <a:t>VeriSign</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -1124,10 +1104,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.0039800995024876E-2"/>
-          <c:y val="0.12563247993944407"/>
-          <c:w val="0.86423880597014913"/>
-          <c:h val="0.69884603390377431"/>
+          <c:x val="8.6102141680395386E-2"/>
+          <c:y val="0.156804887557005"/>
+          <c:w val="0.83877429983525531"/>
+          <c:h val="0.63304602307347457"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1181,6 +1161,93 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$AA$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Sheet 1'!$B$3:$AA$3</c:f>
@@ -1270,7 +1337,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4578-184B-BC84-7320603F556D}"/>
+              <c16:uniqueId val="{00000000-7CF2-AF48-904D-C4B4FB773DF8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1321,6 +1388,93 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$AA$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Sheet 1'!$B$19:$AA$19</c:f>
@@ -1410,7 +1564,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-4578-184B-BC84-7320603F556D}"/>
+              <c16:uniqueId val="{00000001-7CF2-AF48-904D-C4B4FB773DF8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1419,11 +1573,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$106</c:f>
+              <c:f>'Sheet 1'!$A$107</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Free Cash Flow</c:v>
+                  <c:v>Levered FCF</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1461,9 +1615,96 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$AA$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$106:$AA$106</c:f>
+              <c:f>'Sheet 1'!$B$107:$AA$107</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
                 <c:ptCount val="26"/>
@@ -1550,7 +1791,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-4578-184B-BC84-7320603F556D}"/>
+              <c16:uniqueId val="{00000002-7CF2-AF48-904D-C4B4FB773DF8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1564,11 +1805,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="1054099487"/>
-        <c:axId val="1054101215"/>
+        <c:axId val="945055471"/>
+        <c:axId val="944802639"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1054099487"/>
+        <c:axId val="945055471"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1596,7 +1837,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx2"/>
                 </a:solidFill>
@@ -1608,7 +1849,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1054101215"/>
+        <c:crossAx val="944802639"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1616,7 +1857,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1054101215"/>
+        <c:axId val="944802639"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1665,7 +1906,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1054099487"/>
+        <c:crossAx val="945055471"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1683,10 +1924,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.36256418693931913"/>
-          <c:y val="0.90443196508562229"/>
-          <c:w val="0.30405891800838331"/>
-          <c:h val="5.2242130599005211E-2"/>
+          <c:x val="0.36166965455512456"/>
+          <c:y val="0.88893569171664222"/>
+          <c:w val="0.27929660522253497"/>
+          <c:h val="6.2376588490769339E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2268,20 +2509,20 @@
       <xdr:col>29</xdr:col>
       <xdr:colOff>31749</xdr:colOff>
       <xdr:row>108</xdr:row>
-      <xdr:rowOff>17463</xdr:rowOff>
+      <xdr:rowOff>17462</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>1587499</xdr:colOff>
-      <xdr:row>130</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>47624</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>15874</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB1AD89E-9F3E-E9BF-793E-687979413A27}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0BBFB35-EA74-D7C0-5B8B-39E0AB3BD3C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2300,6 +2541,60 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Treasuries"/>
+      <sheetName val="Hardware"/>
+      <sheetName val="Software"/>
+      <sheetName val="Consumer"/>
+      <sheetName val="Financial Services"/>
+      <sheetName val="Healthcare"/>
+      <sheetName val="Industrials"/>
+      <sheetName val="Real Estate"/>
+      <sheetName val="Fashion + Beauty"/>
+      <sheetName val="My Stocks"/>
+      <sheetName val="Profitable Software"/>
+      <sheetName val="Compounders"/>
+      <sheetName val="GARP"/>
+      <sheetName val="Value"/>
+      <sheetName val="Aggressive Growth"/>
+      <sheetName val="Other"/>
+      <sheetName val="Short List"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="8">
+          <cell r="C8">
+            <v>3.9120000000000002E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3042,10 +3337,10 @@
   <dimension ref="A1:AJ118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="Y2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="Y3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AD23" sqref="AD23"/>
+      <selection pane="bottomRight" activeCell="AC16" sqref="AC16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3137,19 +3432,19 @@
       <c r="AA1" s="8">
         <v>2022</v>
       </c>
-      <c r="AB1" s="27">
+      <c r="AB1" s="23">
         <v>2023</v>
       </c>
-      <c r="AC1" s="27">
+      <c r="AC1" s="23">
         <v>2024</v>
       </c>
-      <c r="AD1" s="27">
+      <c r="AD1" s="23">
         <v>2025</v>
       </c>
-      <c r="AE1" s="27">
+      <c r="AE1" s="23">
         <v>2026</v>
       </c>
-      <c r="AF1" s="27">
+      <c r="AF1" s="23">
         <v>2027</v>
       </c>
     </row>
@@ -3158,91 +3453,91 @@
         <v>0</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AA2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AB2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AC2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AD2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AE2" s="9"/>
       <c r="AF2" s="9"/>
@@ -3329,150 +3624,150 @@
       <c r="AA3" s="1">
         <v>1424900000</v>
       </c>
-      <c r="AB3" s="28">
-        <v>1499000000</v>
-      </c>
-      <c r="AC3" s="28">
-        <v>1633000000</v>
-      </c>
-      <c r="AD3" s="28">
+      <c r="AB3" s="24">
+        <v>1494000000</v>
+      </c>
+      <c r="AC3" s="24">
+        <v>1632000000</v>
+      </c>
+      <c r="AD3" s="24">
         <v>1745000000</v>
       </c>
-      <c r="AE3" s="28">
+      <c r="AE3" s="24">
         <v>1802000000</v>
       </c>
-      <c r="AF3" s="28">
+      <c r="AF3" s="24">
         <v>1899000000</v>
       </c>
       <c r="AG3" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="AH3" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="AH3" s="19" t="s">
+      <c r="AI3" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="AI3" s="19" t="s">
+      <c r="AJ3" s="19" t="s">
         <v>111</v>
-      </c>
-      <c r="AJ3" s="19" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:36" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="15">
+      <c r="C4" s="67">
         <f>(C3/B3)-1</f>
         <v>3.1382978723404253</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="67">
         <f>(D3/C3)-1</f>
         <v>1.1793316195372752</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="67">
         <f>(E3/D3)-1</f>
         <v>4.6002406341417386</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="67">
         <f t="shared" ref="F4:AF4" si="0">(F3/E3)-1</f>
         <v>1.0716816284232653</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="67">
         <f t="shared" si="0"/>
         <v>0.24208287411902019</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="67">
         <f t="shared" si="0"/>
         <v>-0.13660667218917089</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4" s="67">
         <f t="shared" si="0"/>
         <v>0.10587515880088749</v>
       </c>
-      <c r="J4" s="16">
+      <c r="J4" s="67">
         <f t="shared" si="0"/>
         <v>0.37981662387318837</v>
       </c>
-      <c r="K4" s="16">
+      <c r="K4" s="67">
         <f t="shared" si="0"/>
         <v>-2.1276873352743197E-2</v>
       </c>
-      <c r="L4" s="16">
+      <c r="L4" s="67">
         <f t="shared" si="0"/>
         <v>-5.0125408744903233E-2</v>
       </c>
-      <c r="M4" s="16">
+      <c r="M4" s="67">
         <f t="shared" si="0"/>
         <v>-0.35725317769495069</v>
       </c>
-      <c r="N4" s="16">
+      <c r="N4" s="67">
         <f t="shared" si="0"/>
         <v>7.1624719907251055E-2</v>
       </c>
-      <c r="O4" s="16">
+      <c r="O4" s="67">
         <f t="shared" si="0"/>
         <v>-0.3396415164090707</v>
       </c>
-      <c r="P4" s="16">
+      <c r="P4" s="67">
         <f t="shared" si="0"/>
         <v>0.13429761173590693</v>
       </c>
-      <c r="Q4" s="16">
+      <c r="Q4" s="67">
         <f t="shared" si="0"/>
         <v>0.1316281033915474</v>
       </c>
-      <c r="R4" s="16">
+      <c r="R4" s="67">
         <f t="shared" si="0"/>
         <v>0.10473424665061026</v>
       </c>
-      <c r="S4" s="16">
+      <c r="S4" s="67">
         <f t="shared" si="0"/>
         <v>4.6659005872009551E-2</v>
       </c>
-      <c r="T4" s="16">
+      <c r="T4" s="67">
         <f t="shared" si="0"/>
         <v>4.8755738196664344E-2</v>
       </c>
-      <c r="U4" s="16">
+      <c r="U4" s="67">
         <f t="shared" si="0"/>
         <v>7.8160900010006085E-2</v>
       </c>
-      <c r="V4" s="16">
+      <c r="V4" s="67">
         <f t="shared" si="0"/>
         <v>2.007412226058003E-2</v>
       </c>
-      <c r="W4" s="16">
+      <c r="W4" s="67">
         <f t="shared" si="0"/>
         <v>4.2806809745128183E-2</v>
       </c>
-      <c r="X4" s="16">
+      <c r="X4" s="67">
         <f t="shared" si="0"/>
         <v>1.3738622137684064E-2</v>
       </c>
-      <c r="Y4" s="16">
+      <c r="Y4" s="67">
         <f t="shared" si="0"/>
         <v>2.7110544216306209E-2</v>
       </c>
-      <c r="Z4" s="16">
+      <c r="Z4" s="67">
         <f t="shared" si="0"/>
         <v>4.9424055295750779E-2</v>
       </c>
-      <c r="AA4" s="16">
+      <c r="AA4" s="67">
         <f t="shared" si="0"/>
         <v>7.3309550639662158E-2</v>
       </c>
       <c r="AB4" s="16">
         <f t="shared" si="0"/>
-        <v>5.2003649378903782E-2</v>
+        <v>4.8494631202189664E-2</v>
       </c>
       <c r="AC4" s="16">
         <f t="shared" si="0"/>
-        <v>8.9392928619079326E-2</v>
+        <v>9.2369477911646625E-2</v>
       </c>
       <c r="AD4" s="16">
         <f t="shared" si="0"/>
-        <v>6.8585425597060601E-2</v>
+        <v>6.924019607843146E-2</v>
       </c>
       <c r="AE4" s="16">
         <f t="shared" si="0"/>
@@ -3495,7 +3790,7 @@
         <v>5.0836650414215291E-2</v>
       </c>
       <c r="AJ4" s="17">
-        <f>(AA105+Z105+Y105)/3</f>
+        <f>(AA106+Z106+Y106)/3</f>
         <v>4.2081316306017379E-2</v>
       </c>
     </row>
@@ -3665,16 +3960,16 @@
         <v>1224200000</v>
       </c>
       <c r="AG6" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH6" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="AH6" s="19" t="s">
+      <c r="AI6" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="AI6" s="19" t="s">
+      <c r="AJ6" s="19" t="s">
         <v>115</v>
-      </c>
-      <c r="AJ6" s="19" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:36" ht="19" x14ac:dyDescent="0.25">
@@ -3772,7 +4067,7 @@
         <v>0.47289999999999999</v>
       </c>
       <c r="AJ7" s="20">
-        <f>AA106/AA3</f>
+        <f>AA107/AA3</f>
         <v>0.56403958172503332</v>
       </c>
     </row>
@@ -3861,7 +4156,7 @@
     </row>
     <row r="9" spans="1:36" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B9" s="15">
         <f>B8/B3</f>
@@ -3968,16 +4263,16 @@
         <v>6.0144571548880622E-2</v>
       </c>
       <c r="AG9" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="AH9" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="AH9" s="19" t="s">
+      <c r="AI9" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="AI9" s="19" t="s">
+      <c r="AJ9" s="19" t="s">
         <v>98</v>
-      </c>
-      <c r="AJ9" s="19" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:36" ht="19" x14ac:dyDescent="0.25">
@@ -3985,7 +4280,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C10" s="1">
         <v>30600000</v>
@@ -4060,7 +4355,7 @@
         <v>148434000</v>
       </c>
       <c r="AA10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AG10" s="17">
         <f>AA9</f>
@@ -4084,40 +4379,40 @@
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N11" s="1">
         <v>177029000</v>
@@ -4159,7 +4454,7 @@
         <v>39877000</v>
       </c>
       <c r="AA11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:36" ht="20" x14ac:dyDescent="0.25">
@@ -4167,7 +4462,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C12" s="1">
         <v>30600000</v>
@@ -4245,21 +4540,21 @@
         <v>195400000</v>
       </c>
       <c r="AG12" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="AH12" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="AH12" s="19" t="s">
+      <c r="AI12" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="AI12" s="19" t="s">
+      <c r="AJ12" s="19" t="s">
         <v>119</v>
-      </c>
-      <c r="AJ12" s="19" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:36" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B13" s="15" t="e">
         <f>B12/B3</f>
@@ -4426,43 +4721,43 @@
         <v>12199000</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y14" s="1">
         <v>36790000</v>
       </c>
       <c r="Z14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:36" ht="20" x14ac:dyDescent="0.25">
@@ -4548,16 +4843,16 @@
         <v>281100000</v>
       </c>
       <c r="AG15" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="AH15" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="AH15" s="19" t="s">
+      <c r="AI15" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="AI15" s="19" t="s">
+      <c r="AJ15" s="19" t="s">
         <v>123</v>
-      </c>
-      <c r="AJ15" s="19" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:36" ht="19" x14ac:dyDescent="0.25">
@@ -4642,7 +4937,7 @@
       <c r="AA16" s="1">
         <v>481800000</v>
       </c>
-      <c r="AG16" s="29">
+      <c r="AG16" s="25">
         <f>(AA35+Z35+Y35+X35+W35)/5</f>
         <v>-2.7498803063314627E-2</v>
       </c>
@@ -4655,49 +4950,49 @@
         <v>34.3666518254675</v>
       </c>
       <c r="AJ16" s="31">
-        <f>AI101/AA106</f>
+        <f>AI101/AA107</f>
         <v>28.812056737588652</v>
       </c>
     </row>
-    <row r="17" spans="1:33" ht="19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:36" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N17" s="1">
         <v>47351000</v>
@@ -4742,7 +5037,7 @@
         <v>75300000</v>
       </c>
     </row>
-    <row r="18" spans="1:33" ht="20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:36" ht="20" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>13</v>
       </c>
@@ -4825,10 +5120,19 @@
         <v>46900000</v>
       </c>
       <c r="AG18" s="18" t="s">
-        <v>125</v>
+        <v>124</v>
+      </c>
+      <c r="AH18" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="AI18" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="AJ18" s="19" t="s">
+        <v>160</v>
       </c>
     </row>
-    <row r="19" spans="1:33" ht="19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:36" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>14</v>
       </c>
@@ -4910,14 +5214,41 @@
       <c r="AA19" s="10">
         <v>1002400000</v>
       </c>
-      <c r="AG19" s="32">
+      <c r="AB19" s="34">
+        <v>1085000000</v>
+      </c>
+      <c r="AC19" s="34">
+        <v>1201000000</v>
+      </c>
+      <c r="AD19" s="34">
+        <v>1281000000</v>
+      </c>
+      <c r="AE19" s="34">
+        <v>1296000000</v>
+      </c>
+      <c r="AF19" s="34">
+        <v>1387000000</v>
+      </c>
+      <c r="AG19" s="26">
         <f>AA40-AA56-AA61</f>
         <v>-809100000</v>
       </c>
+      <c r="AH19" s="30">
+        <f>AI101/AB3</f>
+        <v>15.499497991967871</v>
+      </c>
+      <c r="AI19" s="30">
+        <f>AI101/AB28</f>
+        <v>33.608490566037737</v>
+      </c>
+      <c r="AJ19" s="31">
+        <f>AI101/AB105</f>
+        <v>27.422113146422568</v>
+      </c>
     </row>
-    <row r="20" spans="1:33" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:36" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="15">
@@ -4933,7 +5264,7 @@
         <v>10.01111229832247</v>
       </c>
       <c r="F20" s="15">
-        <f t="shared" ref="F20:AA20" si="3">(F19/E19)-1</f>
+        <f t="shared" ref="F20:AF20" si="3">(F19/E19)-1</f>
         <v>0.9644648869998933</v>
       </c>
       <c r="G20" s="15">
@@ -5020,8 +5351,28 @@
         <f t="shared" si="3"/>
         <v>9.7421322642306851E-2</v>
       </c>
+      <c r="AB20" s="16">
+        <f t="shared" si="3"/>
+        <v>8.2402234636871574E-2</v>
+      </c>
+      <c r="AC20" s="16">
+        <f t="shared" si="3"/>
+        <v>0.10691244239631326</v>
+      </c>
+      <c r="AD20" s="16">
+        <f t="shared" si="3"/>
+        <v>6.6611157368859253E-2</v>
+      </c>
+      <c r="AE20" s="16">
+        <f t="shared" si="3"/>
+        <v>1.1709601873536313E-2</v>
+      </c>
+      <c r="AF20" s="16">
+        <f t="shared" si="3"/>
+        <v>7.0216049382715973E-2</v>
+      </c>
     </row>
-    <row r="21" spans="1:33" ht="19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:36" ht="20" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
@@ -5103,8 +5454,34 @@
       <c r="AA21" s="2">
         <v>0.70350000000000001</v>
       </c>
+      <c r="AB21" s="35">
+        <f>AB19/AB3</f>
+        <v>0.72623828647925037</v>
+      </c>
+      <c r="AC21" s="35">
+        <f t="shared" ref="AC21:AF21" si="4">AC19/AC3</f>
+        <v>0.73590686274509809</v>
+      </c>
+      <c r="AD21" s="35">
+        <f t="shared" si="4"/>
+        <v>0.73409742120343835</v>
+      </c>
+      <c r="AE21" s="35">
+        <f t="shared" si="4"/>
+        <v>0.71920088790233072</v>
+      </c>
+      <c r="AF21" s="35">
+        <f t="shared" si="4"/>
+        <v>0.73038441284886779</v>
+      </c>
+      <c r="AI21" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="AJ21" s="19" t="s">
+        <v>162</v>
+      </c>
     </row>
-    <row r="22" spans="1:33" ht="19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:36" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>16</v>
       </c>
@@ -5186,8 +5563,16 @@
       <c r="AA22" s="10">
         <v>943100000</v>
       </c>
+      <c r="AI22" s="32">
+        <f>(-1*AA98)/AI101</f>
+        <v>0</v>
+      </c>
+      <c r="AJ22" s="33">
+        <f>AA107/AI101</f>
+        <v>3.4707692307692307E-2</v>
+      </c>
     </row>
-    <row r="23" spans="1:33" ht="19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:36" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>17</v>
       </c>
@@ -5270,7 +5655,7 @@
         <v>0.66190000000000004</v>
       </c>
     </row>
-    <row r="24" spans="1:33" ht="19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:36" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>18</v>
       </c>
@@ -5353,21 +5738,21 @@
         <v>-62900000</v>
       </c>
     </row>
-    <row r="25" spans="1:33" ht="19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:36" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F25" s="10">
         <v>-13433874000</v>
@@ -5436,21 +5821,21 @@
         <v>880200000</v>
       </c>
     </row>
-    <row r="26" spans="1:33" ht="19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:36" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F26" s="2">
         <v>-13.6584</v>
@@ -5519,21 +5904,21 @@
         <v>0.61770000000000003</v>
       </c>
     </row>
-    <row r="27" spans="1:33" ht="19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:36" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F27" s="1">
         <v>-77922000</v>
@@ -5602,7 +5987,7 @@
         <v>206400000</v>
       </c>
     </row>
-    <row r="28" spans="1:33" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:36" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>22</v>
       </c>
@@ -5684,10 +6069,25 @@
       <c r="AA28" s="11">
         <v>673800000</v>
       </c>
+      <c r="AB28" s="36">
+        <v>689000000</v>
+      </c>
+      <c r="AC28" s="36">
+        <v>831000000</v>
+      </c>
+      <c r="AD28" s="36">
+        <v>885000000</v>
+      </c>
+      <c r="AE28" s="36">
+        <v>921000000</v>
+      </c>
+      <c r="AF28" s="36">
+        <v>985000000</v>
+      </c>
     </row>
-    <row r="29" spans="1:33" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:36" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="15">
@@ -5703,95 +6103,115 @@
         <v>-788.73046776232616</v>
       </c>
       <c r="F29" s="15">
-        <f t="shared" ref="F29:AA29" si="4">(F28/E28)-1</f>
+        <f t="shared" ref="F29:AF29" si="5">(F28/E28)-1</f>
         <v>3.2869727046349926</v>
       </c>
       <c r="G29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.6285328818192818</v>
       </c>
       <c r="H29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.9476187376002686</v>
       </c>
       <c r="I29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-1.7165834869304561</v>
       </c>
       <c r="J29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.1826339105920258</v>
       </c>
       <c r="K29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-6.7524313525774926E-2</v>
       </c>
       <c r="L29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-1.3680645884727518</v>
       </c>
       <c r="M29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.6859256498114723</v>
       </c>
       <c r="N29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-1.6553462577263458</v>
       </c>
       <c r="O29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.3840637255500847</v>
       </c>
       <c r="P29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.82804250951000458</v>
       </c>
       <c r="Q29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.239693192713327</v>
       </c>
       <c r="R29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.70123612638736121</v>
       </c>
       <c r="S29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.3474882909358068</v>
       </c>
       <c r="T29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.6229240556212368E-2</v>
       </c>
       <c r="U29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.174314298201665</v>
       </c>
       <c r="V29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.7678857129889165E-2</v>
       </c>
       <c r="W29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.2739016901112743</v>
       </c>
       <c r="X29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.1176932096571814E-2</v>
       </c>
       <c r="Y29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.33086612912972257</v>
       </c>
       <c r="Z29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-3.6886050598364473E-2</v>
       </c>
       <c r="AA29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.14147012728871222</v>
       </c>
+      <c r="AB29" s="16">
+        <f t="shared" si="5"/>
+        <v>2.255862273671716E-2</v>
+      </c>
+      <c r="AC29" s="16">
+        <f t="shared" si="5"/>
+        <v>0.20609579100145137</v>
+      </c>
+      <c r="AD29" s="16">
+        <f t="shared" si="5"/>
+        <v>6.498194945848379E-2</v>
+      </c>
+      <c r="AE29" s="16">
+        <f t="shared" si="5"/>
+        <v>4.067796610169494E-2</v>
+      </c>
+      <c r="AF29" s="16">
+        <f t="shared" si="5"/>
+        <v>6.9489685124864309E-2</v>
+      </c>
     </row>
-    <row r="30" spans="1:33" ht="19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:36" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>23</v>
       </c>
@@ -5873,8 +6293,28 @@
       <c r="AA30" s="2">
         <v>0.47289999999999999</v>
       </c>
+      <c r="AB30" s="37">
+        <f>AB28/AB3</f>
+        <v>0.46117804551539493</v>
+      </c>
+      <c r="AC30" s="37">
+        <f t="shared" ref="AC30:AF30" si="6">AC28/AC3</f>
+        <v>0.5091911764705882</v>
+      </c>
+      <c r="AD30" s="37">
+        <f t="shared" si="6"/>
+        <v>0.50716332378223494</v>
+      </c>
+      <c r="AE30" s="37">
+        <f t="shared" si="6"/>
+        <v>0.51109877913429524</v>
+      </c>
+      <c r="AF30" s="37">
+        <f t="shared" si="6"/>
+        <v>0.51869404949973674</v>
+      </c>
     </row>
-    <row r="31" spans="1:33" ht="19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:36" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>24</v>
       </c>
@@ -5956,8 +6396,23 @@
       <c r="AA31" s="12">
         <v>6.24</v>
       </c>
+      <c r="AB31" s="38">
+        <v>6.66</v>
+      </c>
+      <c r="AC31" s="38">
+        <v>8.0399999999999991</v>
+      </c>
+      <c r="AD31" s="38">
+        <v>8.56</v>
+      </c>
+      <c r="AE31" s="38">
+        <v>8.91</v>
+      </c>
+      <c r="AF31" s="38">
+        <v>9.5299999999999994</v>
+      </c>
     </row>
-    <row r="32" spans="1:33" ht="19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:36" ht="19" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>25</v>
       </c>
@@ -6208,7 +6663,7 @@
     </row>
     <row r="35" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="22">
@@ -6216,99 +6671,99 @@
         <v>6.2671744684953956E-3</v>
       </c>
       <c r="D35" s="22">
-        <f t="shared" ref="D35:AA35" si="5">(D34-C34)/C34</f>
+        <f t="shared" ref="D35:AA35" si="7">(D34-C34)/C34</f>
         <v>0.37270636707708521</v>
       </c>
       <c r="E35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.38878806386877235</v>
       </c>
       <c r="F35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.27837707091204944</v>
       </c>
       <c r="G35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.16254337078209929</v>
       </c>
       <c r="H35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.3646048226182827E-2</v>
       </c>
       <c r="I35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>7.5952956877137379E-2</v>
       </c>
       <c r="J35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.5275977549691464E-2</v>
       </c>
       <c r="K35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-6.5932487250154062E-2</v>
       </c>
       <c r="L35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-3.7907824812909545E-2</v>
       </c>
       <c r="M35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-0.15609552937019103</v>
       </c>
       <c r="N35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-4.0014556185880498E-2</v>
       </c>
       <c r="O35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-7.0673763468778392E-2</v>
       </c>
       <c r="P35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-6.7488056323862206E-2</v>
       </c>
       <c r="Q35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-1.7844409690389307E-2</v>
       </c>
       <c r="R35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-4.9557986443697417E-2</v>
       </c>
       <c r="S35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-9.5586252936720892E-2</v>
       </c>
       <c r="T35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-5.5814613719436461E-2</v>
       </c>
       <c r="U35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-3.1556554487299951E-2</v>
       </c>
       <c r="V35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-3.6116522940550948E-2</v>
       </c>
       <c r="W35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-1.2232243517474633E-2</v>
       </c>
       <c r="X35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-3.0107369090419937E-2</v>
       </c>
       <c r="Y35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-3.0848631564790532E-2</v>
       </c>
       <c r="Z35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-2.716439140314663E-2</v>
       </c>
       <c r="AA35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-3.7141379740741401E-2</v>
       </c>
     </row>
@@ -6317,82 +6772,82 @@
         <v>28</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="U36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="W36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="X36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Y36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Z36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AA36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:27" ht="21" x14ac:dyDescent="0.25">
@@ -6400,82 +6855,82 @@
         <v>29</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AA37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:27" ht="19" x14ac:dyDescent="0.25">
@@ -6483,7 +6938,7 @@
         <v>30</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C38" s="1">
         <v>22800000</v>
@@ -6566,10 +7021,10 @@
         <v>31</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D39" s="1">
         <v>86098000</v>
@@ -6596,13 +7051,13 @@
         <v>198656000</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O39" s="1">
         <v>501238000</v>
@@ -6649,7 +7104,7 @@
         <v>32</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C40" s="1">
         <v>22800000</v>
@@ -6732,7 +7187,7 @@
         <v>33</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C41" s="1">
         <v>9800000</v>
@@ -6815,82 +7270,82 @@
         <v>34</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43" spans="1:27" ht="19" x14ac:dyDescent="0.25">
@@ -6898,7 +7353,7 @@
         <v>35</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C43" s="1">
         <v>21100000</v>
@@ -6981,7 +7436,7 @@
         <v>36</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C44" s="10">
         <v>53700000</v>
@@ -7064,7 +7519,7 @@
         <v>37</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C45" s="1">
         <v>9200000</v>
@@ -7147,16 +7602,16 @@
         <v>38</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F46" s="1">
         <v>5691169000</v>
@@ -7165,13 +7620,13 @@
         <v>1129602000</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K46" s="1">
         <v>1449493000</v>
@@ -7230,22 +7685,22 @@
         <v>39</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E47" s="1">
         <v>17656641000</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H47" s="1">
         <v>618036000</v>
@@ -7275,28 +7730,28 @@
         <v>1321000</v>
       </c>
       <c r="Q47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y47" s="1">
         <v>145000000</v>
@@ -7313,13 +7768,13 @@
         <v>40</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E48" s="1">
         <v>17656641000</v>
@@ -7396,82 +7851,82 @@
         <v>41</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N49" s="1">
         <v>7146000</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q49" s="1">
         <v>413000</v>
       </c>
       <c r="R49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="50" spans="1:27" ht="19" x14ac:dyDescent="0.25">
@@ -7479,31 +7934,31 @@
         <v>42</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K50" s="1">
         <v>179023000</v>
@@ -7512,16 +7967,16 @@
         <v>230695000</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N50" s="1">
         <v>12695000</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q50" s="1">
         <v>7299000</v>
@@ -7562,7 +8017,7 @@
         <v>43</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C51" s="1">
         <v>1400000</v>
@@ -7645,7 +8100,7 @@
         <v>44</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C52" s="1">
         <v>10600000</v>
@@ -7728,82 +8183,82 @@
         <v>45</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:27" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -7811,7 +8266,7 @@
         <v>46</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C54" s="11">
         <v>64300000</v>
@@ -7894,7 +8349,7 @@
         <v>47</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C55" s="1">
         <v>5500000</v>
@@ -7977,52 +8432,52 @@
         <v>48</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K56" s="1">
         <v>199000000</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R56" s="1">
         <v>624056000</v>
@@ -8040,16 +8495,16 @@
         <v>627616000</v>
       </c>
       <c r="W56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA56" s="1">
         <v>0</v>
@@ -8060,40 +8515,40 @@
         <v>49</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N57" s="1">
         <v>24571000</v>
@@ -8143,16 +8598,16 @@
         <v>50</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F58" s="1">
         <v>471329000</v>
@@ -8226,7 +8681,7 @@
         <v>51</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C59" s="1">
         <v>17100000</v>
@@ -8309,7 +8764,7 @@
         <v>52</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C60" s="10">
         <v>22600000</v>
@@ -8392,34 +8847,34 @@
         <v>53</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J61" s="1">
         <v>138051000</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L61" s="1">
         <v>1265296000</v>
@@ -8475,40 +8930,40 @@
         <v>50</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N62" s="1">
         <v>245734000</v>
@@ -8558,16 +9013,16 @@
         <v>54</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F63" s="1">
         <v>26553000</v>
@@ -8576,7 +9031,7 @@
         <v>125893000</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I63" s="1">
         <v>31319000</v>
@@ -8606,10 +9061,10 @@
         <v>386914000</v>
       </c>
       <c r="R63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T63" s="1">
         <v>294194000</v>
@@ -8630,10 +9085,10 @@
         <v>90335000</v>
       </c>
       <c r="Z63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="64" spans="1:27" ht="19" x14ac:dyDescent="0.25">
@@ -8641,13 +9096,13 @@
         <v>55</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E64" s="1">
         <v>59135000</v>
@@ -8707,10 +9162,10 @@
         <v>281487000</v>
       </c>
       <c r="X64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z64" s="1">
         <v>76148000</v>
@@ -8724,13 +9179,13 @@
         <v>56</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E65" s="1">
         <v>59135000</v>
@@ -8807,82 +9262,82 @@
         <v>57</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67" spans="1:27" ht="19" x14ac:dyDescent="0.25">
@@ -8890,7 +9345,7 @@
         <v>58</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C67" s="10">
         <v>22600000</v>
@@ -8973,10 +9428,10 @@
         <v>59</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D68" s="1">
         <v>103000</v>
@@ -9056,7 +9511,7 @@
         <v>60</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C69" s="1">
         <v>-51400000</v>
@@ -9139,7 +9594,7 @@
         <v>61</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C70" s="1">
         <v>-7100000</v>
@@ -9222,7 +9677,7 @@
         <v>62</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C71" s="1">
         <v>100200000</v>
@@ -9291,13 +9746,13 @@
         <v>14989658000</v>
       </c>
       <c r="Y71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="72" spans="1:27" ht="19" x14ac:dyDescent="0.25">
@@ -9305,7 +9760,7 @@
         <v>63</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C72" s="10">
         <v>41700000</v>
@@ -9388,7 +9843,7 @@
         <v>64</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C73" s="11">
         <v>64300000</v>
@@ -9471,82 +9926,82 @@
         <v>28</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="U74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="W74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="X74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Y74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Z74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AA74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75" spans="1:27" ht="21" x14ac:dyDescent="0.25">
@@ -9554,82 +10009,82 @@
         <v>65</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AA75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:27" ht="19" x14ac:dyDescent="0.25">
@@ -9803,16 +10258,16 @@
         <v>67</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F78" s="1">
         <v>-77922000</v>
@@ -9836,16 +10291,16 @@
         <v>-11042000</v>
       </c>
       <c r="M78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q78" s="1">
         <v>71800000</v>
@@ -9854,31 +10309,31 @@
         <v>-112688000</v>
       </c>
       <c r="S78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="79" spans="1:27" ht="19" x14ac:dyDescent="0.25">
@@ -9886,40 +10341,40 @@
         <v>68</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N79" s="1">
         <v>51166000</v>
@@ -9966,110 +10421,110 @@
     </row>
     <row r="80" spans="1:27" ht="19" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B80" s="15" t="e">
-        <f t="shared" ref="B80:AA80" si="6">B79/B3</f>
+        <f t="shared" ref="B80:AA80" si="8">B79/B3</f>
         <v>#VALUE!</v>
       </c>
       <c r="C80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="D80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="E80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="F80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="G80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="H80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="I80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="J80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="K80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="L80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="M80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="N80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4.964589241999226E-2</v>
       </c>
       <c r="O80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7.6667185833218229E-2</v>
       </c>
       <c r="P80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>5.6053410848495681E-2</v>
       </c>
       <c r="Q80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.8189452284361582E-2</v>
       </c>
       <c r="R80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.797481470582445E-2</v>
       </c>
       <c r="S80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4.3536540816558875E-2</v>
       </c>
       <c r="T80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4.3492994866741054E-2</v>
       </c>
       <c r="U80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4.381495875822012E-2</v>
       </c>
       <c r="V80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4.5410030941682868E-2</v>
       </c>
       <c r="W80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4.321427131062603E-2</v>
       </c>
       <c r="X80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4.1103842696975874E-2</v>
       </c>
       <c r="Y80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.8135191280674628E-2</v>
       </c>
       <c r="Z80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4.0253062724845884E-2</v>
       </c>
       <c r="AA80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4.1125693031089899E-2</v>
       </c>
     </row>
@@ -10161,40 +10616,40 @@
         <v>70</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N82" s="1">
         <v>25798000</v>
@@ -10221,22 +10676,22 @@
         <v>-871000</v>
       </c>
       <c r="V82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="83" spans="1:35" ht="21" x14ac:dyDescent="0.25">
@@ -10244,181 +10699,181 @@
         <v>34</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA83" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AH83" s="62" t="s">
-        <v>126</v>
-      </c>
-      <c r="AI83" s="63"/>
+        <v>91</v>
+      </c>
+      <c r="AH83" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="AI83" s="40"/>
     </row>
     <row r="84" spans="1:35" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA84" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AH84" s="64" t="s">
-        <v>127</v>
-      </c>
-      <c r="AI84" s="65"/>
+        <v>91</v>
+      </c>
+      <c r="AH84" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="AI84" s="41"/>
     </row>
     <row r="85" spans="1:35" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>71</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C85" s="1">
         <v>31100000</v>
@@ -10495,10 +10950,10 @@
       <c r="AA85" s="1">
         <v>46300000</v>
       </c>
-      <c r="AH85" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="AI85" s="24">
+      <c r="AH85" s="42" t="s">
+        <v>127</v>
+      </c>
+      <c r="AI85" s="43">
         <f>AA17</f>
         <v>75300000</v>
       </c>
@@ -10585,10 +11040,10 @@
       <c r="AA86" s="1">
         <v>-3900000</v>
       </c>
-      <c r="AH86" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="AI86" s="24">
+      <c r="AH86" s="42" t="s">
+        <v>128</v>
+      </c>
+      <c r="AI86" s="43">
         <f>AA56</f>
         <v>0</v>
       </c>
@@ -10675,10 +11130,10 @@
       <c r="AA87" s="10">
         <v>831100000</v>
       </c>
-      <c r="AH87" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="AI87" s="24">
+      <c r="AH87" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="AI87" s="43">
         <f>AA61</f>
         <v>1789500000</v>
       </c>
@@ -10765,126 +11220,126 @@
       <c r="AA88" s="1">
         <v>-27400000</v>
       </c>
-      <c r="AH88" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="AI88" s="34">
+      <c r="AH88" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="AI88" s="45">
         <f>AI85/(AI86+AI87)</f>
         <v>4.2078792958927073E-2</v>
       </c>
     </row>
     <row r="89" spans="1:35" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B89" s="15">
+        <f t="shared" ref="B89:AA89" si="9">(-1*B88)/B3</f>
+        <v>0.7021276595744681</v>
+      </c>
+      <c r="C89" s="15">
+        <f t="shared" si="9"/>
+        <v>0.11311053984575835</v>
+      </c>
+      <c r="D89" s="15">
+        <f t="shared" si="9"/>
+        <v>7.0998867604038882E-2</v>
+      </c>
+      <c r="E89" s="15">
+        <f t="shared" si="9"/>
+        <v>0.12380414772751208</v>
+      </c>
+      <c r="F89" s="15">
+        <f t="shared" si="9"/>
+        <v>0.38662354457869541</v>
+      </c>
+      <c r="G89" s="15">
+        <f t="shared" si="9"/>
+        <v>0.14425604992518426</v>
+      </c>
+      <c r="H89" s="15">
+        <f t="shared" si="9"/>
+        <v>0.10242325413830372</v>
+      </c>
+      <c r="I89" s="15">
+        <f t="shared" si="9"/>
+        <v>7.9327535138517993E-2</v>
+      </c>
+      <c r="J89" s="15">
+        <f t="shared" si="9"/>
+        <v>8.7293894851425358E-2</v>
+      </c>
+      <c r="K89" s="15">
+        <f t="shared" si="9"/>
+        <v>0.1152903445740959</v>
+      </c>
+      <c r="L89" s="15">
+        <f t="shared" si="9"/>
+        <v>0.10174304562821754</v>
+      </c>
+      <c r="M89" s="15">
+        <f t="shared" si="9"/>
+        <v>0.12373366883808949</v>
+      </c>
+      <c r="N89" s="15">
+        <f t="shared" si="9"/>
+        <v>0.11340369234411553</v>
+      </c>
+      <c r="O89" s="15">
+        <f t="shared" si="9"/>
+        <v>0.11832148556080273</v>
+      </c>
+      <c r="P89" s="15">
+        <f t="shared" si="9"/>
+        <v>0.2495666974965608</v>
+      </c>
+      <c r="Q89" s="15">
+        <f t="shared" si="9"/>
+        <v>6.0695381825840895E-2</v>
+      </c>
+      <c r="R89" s="15">
+        <f t="shared" si="9"/>
+        <v>6.7966929406364396E-2</v>
+      </c>
+      <c r="S89" s="15">
+        <f t="shared" si="9"/>
+        <v>3.8933113688810306E-2</v>
+      </c>
+      <c r="T89" s="15">
+        <f t="shared" si="9"/>
+        <v>3.8377671173135633E-2</v>
+      </c>
+      <c r="U89" s="15">
+        <f t="shared" si="9"/>
+        <v>0.14846690545253013</v>
+      </c>
+      <c r="V89" s="15">
+        <f t="shared" si="9"/>
+        <v>4.248494757938194E-2</v>
+      </c>
+      <c r="W89" s="15">
+        <f t="shared" si="9"/>
+        <v>3.0459213362645468E-2</v>
+      </c>
+      <c r="X89" s="15">
+        <f t="shared" si="9"/>
+        <v>3.2733032871869773E-2</v>
+      </c>
+      <c r="Y89" s="15">
+        <f t="shared" si="9"/>
+        <v>3.4302937744851596E-2</v>
+      </c>
+      <c r="Z89" s="15">
+        <f t="shared" si="9"/>
+        <v>3.9947242191784124E-2</v>
+      </c>
+      <c r="AA89" s="15">
+        <f t="shared" si="9"/>
+        <v>1.9229419608393573E-2</v>
+      </c>
+      <c r="AH89" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="B89" s="15">
-        <f t="shared" ref="B89:AA89" si="7">(-1*B88)/B3</f>
-        <v>0.7021276595744681</v>
-      </c>
-      <c r="C89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.11311053984575835</v>
-      </c>
-      <c r="D89" s="15">
-        <f t="shared" si="7"/>
-        <v>7.0998867604038882E-2</v>
-      </c>
-      <c r="E89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.12380414772751208</v>
-      </c>
-      <c r="F89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.38662354457869541</v>
-      </c>
-      <c r="G89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.14425604992518426</v>
-      </c>
-      <c r="H89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.10242325413830372</v>
-      </c>
-      <c r="I89" s="15">
-        <f t="shared" si="7"/>
-        <v>7.9327535138517993E-2</v>
-      </c>
-      <c r="J89" s="15">
-        <f t="shared" si="7"/>
-        <v>8.7293894851425358E-2</v>
-      </c>
-      <c r="K89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.1152903445740959</v>
-      </c>
-      <c r="L89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.10174304562821754</v>
-      </c>
-      <c r="M89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.12373366883808949</v>
-      </c>
-      <c r="N89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.11340369234411553</v>
-      </c>
-      <c r="O89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.11832148556080273</v>
-      </c>
-      <c r="P89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.2495666974965608</v>
-      </c>
-      <c r="Q89" s="15">
-        <f t="shared" si="7"/>
-        <v>6.0695381825840895E-2</v>
-      </c>
-      <c r="R89" s="15">
-        <f t="shared" si="7"/>
-        <v>6.7966929406364396E-2</v>
-      </c>
-      <c r="S89" s="15">
-        <f t="shared" si="7"/>
-        <v>3.8933113688810306E-2</v>
-      </c>
-      <c r="T89" s="15">
-        <f t="shared" si="7"/>
-        <v>3.8377671173135633E-2</v>
-      </c>
-      <c r="U89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.14846690545253013</v>
-      </c>
-      <c r="V89" s="15">
-        <f t="shared" si="7"/>
-        <v>4.248494757938194E-2</v>
-      </c>
-      <c r="W89" s="15">
-        <f t="shared" si="7"/>
-        <v>3.0459213362645468E-2</v>
-      </c>
-      <c r="X89" s="15">
-        <f t="shared" si="7"/>
-        <v>3.2733032871869773E-2</v>
-      </c>
-      <c r="Y89" s="15">
-        <f t="shared" si="7"/>
-        <v>3.4302937744851596E-2</v>
-      </c>
-      <c r="Z89" s="15">
-        <f t="shared" si="7"/>
-        <v>3.9947242191784124E-2</v>
-      </c>
-      <c r="AA89" s="15">
-        <f t="shared" si="7"/>
-        <v>1.9229419608393573E-2</v>
-      </c>
-      <c r="AH89" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="AI89" s="24">
+      <c r="AI89" s="43">
         <f>AA27</f>
         <v>206400000</v>
       </c>
@@ -10894,25 +11349,25 @@
         <v>75</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I90" s="1">
         <v>-246356000</v>
@@ -10936,25 +11391,25 @@
         <v>1162306000</v>
       </c>
       <c r="P90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W90" s="1">
         <v>52240000</v>
@@ -10966,15 +11421,15 @@
         <v>20810000</v>
       </c>
       <c r="Z90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA90" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AH90" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH90" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="AI90" s="24">
+      <c r="AI90" s="43">
         <f>AA25</f>
         <v>880200000</v>
       </c>
@@ -11061,10 +11516,10 @@
       <c r="AA91" s="1">
         <v>-1338400000</v>
       </c>
-      <c r="AH91" s="33" t="s">
-        <v>132</v>
-      </c>
-      <c r="AI91" s="34">
+      <c r="AH91" s="44" t="s">
+        <v>131</v>
+      </c>
+      <c r="AI91" s="45">
         <f>AI89/AI90</f>
         <v>0.23449216087252897</v>
       </c>
@@ -11151,10 +11606,10 @@
       <c r="AA92" s="1">
         <v>1721500000</v>
       </c>
-      <c r="AH92" s="35" t="s">
-        <v>133</v>
-      </c>
-      <c r="AI92" s="36">
+      <c r="AH92" s="44" t="s">
+        <v>132</v>
+      </c>
+      <c r="AI92" s="45">
         <f>AI88*(1-AI91)</f>
         <v>3.2211645871080503E-2</v>
       </c>
@@ -11230,21 +11685,21 @@
         <v>-160000</v>
       </c>
       <c r="X93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA93" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AH93" s="64" t="s">
-        <v>134</v>
-      </c>
-      <c r="AI93" s="65"/>
+        <v>91</v>
+      </c>
+      <c r="AH93" s="41" t="s">
+        <v>133</v>
+      </c>
+      <c r="AI93" s="41"/>
     </row>
     <row r="94" spans="1:35" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -11328,11 +11783,12 @@
       <c r="AA94" s="10">
         <v>355700000</v>
       </c>
-      <c r="AH94" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="AI94" s="37">
-        <v>4.095E-2</v>
+      <c r="AH94" s="42" t="s">
+        <v>134</v>
+      </c>
+      <c r="AI94" s="69">
+        <f>[1]Treasuries!$C$8</f>
+        <v>3.9120000000000002E-2</v>
       </c>
     </row>
     <row r="95" spans="1:35" ht="20" x14ac:dyDescent="0.25">
@@ -11340,40 +11796,40 @@
         <v>80</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N95" s="1">
         <v>-1134000</v>
@@ -11385,42 +11841,42 @@
         <v>-1067000</v>
       </c>
       <c r="Q95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R95" s="1">
         <v>-100000000</v>
       </c>
       <c r="S95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W95" s="1">
         <v>-1250009000</v>
       </c>
       <c r="X95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z95" s="1">
         <v>-750000000</v>
       </c>
       <c r="AA95" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AH95" s="38" t="s">
-        <v>136</v>
-      </c>
-      <c r="AI95" s="39" cm="1">
+        <v>91</v>
+      </c>
+      <c r="AH95" s="47" t="s">
+        <v>135</v>
+      </c>
+      <c r="AI95" s="48" cm="1">
         <f t="array" ref="AI95">_FV(A1,"Beta")</f>
         <v>0.98429999999999995</v>
       </c>
@@ -11475,42 +11931,42 @@
         <v>49983000</v>
       </c>
       <c r="Q96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA96" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AH96" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="AI96" s="37">
+        <v>91</v>
+      </c>
+      <c r="AH96" s="42" t="s">
+        <v>136</v>
+      </c>
+      <c r="AI96" s="46">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -11519,25 +11975,25 @@
         <v>82</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F97" s="1">
         <v>-69514000</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I97" s="1">
         <v>-113257000</v>
@@ -11596,12 +12052,12 @@
       <c r="AA97" s="1">
         <v>-1048100000</v>
       </c>
-      <c r="AH97" s="35" t="s">
-        <v>138</v>
-      </c>
-      <c r="AI97" s="36">
+      <c r="AH97" s="44" t="s">
+        <v>137</v>
+      </c>
+      <c r="AI97" s="45">
         <f>(AI94)+((AI95)*(AI96-AI94))</f>
-        <v>8.3324115000000004E-2</v>
+        <v>8.3295384E-2</v>
       </c>
     </row>
     <row r="98" spans="1:35" ht="19" x14ac:dyDescent="0.25">
@@ -11609,43 +12065,43 @@
         <v>83</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O98" s="1">
         <v>-518217000</v>
@@ -11654,42 +12110,42 @@
         <v>-463498000</v>
       </c>
       <c r="Q98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z98" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AA98" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AH98" s="64" t="s">
-        <v>139</v>
-      </c>
-      <c r="AI98" s="65"/>
+        <v>91</v>
+      </c>
+      <c r="AA98" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH98" s="41" t="s">
+        <v>138</v>
+      </c>
+      <c r="AI98" s="41"/>
     </row>
     <row r="99" spans="1:35" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -11773,10 +12229,10 @@
       <c r="AA99" s="1">
         <v>12300000</v>
       </c>
-      <c r="AH99" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="AI99" s="24">
+      <c r="AH99" s="42" t="s">
+        <v>139</v>
+      </c>
+      <c r="AI99" s="43">
         <f>AI86+AI87</f>
         <v>1789500000</v>
       </c>
@@ -11863,10 +12319,10 @@
       <c r="AA100" s="10">
         <v>-1035800000</v>
       </c>
-      <c r="AH100" s="33" t="s">
-        <v>141</v>
-      </c>
-      <c r="AI100" s="34">
+      <c r="AH100" s="44" t="s">
+        <v>140</v>
+      </c>
+      <c r="AI100" s="45">
         <f>AI99/AI103</f>
         <v>7.1735666396079492E-2</v>
       </c>
@@ -11876,13 +12332,13 @@
         <v>86</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E101" s="1">
         <v>525000</v>
@@ -11953,10 +12409,10 @@
       <c r="AA101" s="1">
         <v>-800000</v>
       </c>
-      <c r="AH101" s="38" t="s">
-        <v>142</v>
-      </c>
-      <c r="AI101" s="40" cm="1">
+      <c r="AH101" s="47" t="s">
+        <v>141</v>
+      </c>
+      <c r="AI101" s="49" cm="1">
         <f t="array" ref="AI101">_FV(A1,"Market cap",TRUE)</f>
         <v>23156250000</v>
       </c>
@@ -11969,7 +12425,7 @@
         <v>2600000</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D102" s="10">
         <v>47596000</v>
@@ -12043,10 +12499,10 @@
       <c r="AA102" s="10">
         <v>150200000</v>
       </c>
-      <c r="AH102" s="33" t="s">
-        <v>143</v>
-      </c>
-      <c r="AI102" s="34">
+      <c r="AH102" s="44" t="s">
+        <v>142</v>
+      </c>
+      <c r="AI102" s="45">
         <f>AI101/AI103</f>
         <v>0.92826433360392047</v>
       </c>
@@ -12133,10 +12589,10 @@
       <c r="AA103" s="1">
         <v>228800000</v>
       </c>
-      <c r="AH103" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="AI103" s="41">
+      <c r="AH103" s="44" t="s">
+        <v>143</v>
+      </c>
+      <c r="AI103" s="50">
         <f>AI99+AI101</f>
         <v>24945750000</v>
       </c>
@@ -12146,10 +12602,10 @@
         <v>89</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D104" s="11">
         <v>70382000</v>
@@ -12223,404 +12679,496 @@
       <c r="AA104" s="11">
         <v>379000000</v>
       </c>
-      <c r="AH104" s="64" t="s">
-        <v>145</v>
-      </c>
-      <c r="AI104" s="65"/>
+      <c r="AH104" s="41" t="s">
+        <v>144</v>
+      </c>
+      <c r="AI104" s="41"/>
     </row>
     <row r="105" spans="1:35" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="B105" s="1">
+        <f t="shared" ref="B105:Z105" si="10">(B22*(1-$AI$91))+B77+B88+B81</f>
+        <v>-16744648.943421949</v>
+      </c>
+      <c r="C105" s="1">
+        <f t="shared" si="10"/>
+        <v>-11527402.862985684</v>
+      </c>
+      <c r="D105" s="1">
+        <f t="shared" si="10"/>
+        <v>2508169.0524880709</v>
+      </c>
+      <c r="E105" s="1">
+        <f t="shared" si="10"/>
+        <v>813513796.18268585</v>
+      </c>
+      <c r="F105" s="1">
+        <f t="shared" si="10"/>
+        <v>2899859567.8254948</v>
+      </c>
+      <c r="G105" s="1">
+        <f t="shared" si="10"/>
+        <v>1095782297.8868442</v>
+      </c>
+      <c r="H105" s="1">
+        <f t="shared" si="10"/>
+        <v>279002835.71915472</v>
+      </c>
+      <c r="I105" s="1">
+        <f t="shared" si="10"/>
+        <v>234525816.6325835</v>
+      </c>
+      <c r="J105" s="1">
+        <f t="shared" si="10"/>
+        <v>290140939.33196998</v>
+      </c>
+      <c r="K105" s="1">
+        <f t="shared" si="10"/>
+        <v>163564961.14519429</v>
+      </c>
+      <c r="L105" s="1">
+        <f t="shared" si="10"/>
+        <v>-12184751.874573946</v>
+      </c>
+      <c r="M105" s="1">
+        <f t="shared" si="10"/>
+        <v>152065113.83776414</v>
+      </c>
+      <c r="N105" s="1">
+        <f t="shared" si="10"/>
+        <v>263356477.84594411</v>
+      </c>
+      <c r="O105" s="1">
+        <f t="shared" si="10"/>
+        <v>274167457.39604634</v>
+      </c>
+      <c r="P105" s="1">
+        <f t="shared" si="10"/>
+        <v>209682861.62235856</v>
+      </c>
+      <c r="Q105" s="1">
+        <f t="shared" si="10"/>
+        <v>416955403.54464895</v>
+      </c>
+      <c r="R105" s="1">
+        <f t="shared" si="10"/>
+        <v>456777736.87798226</v>
+      </c>
+      <c r="S105" s="1">
+        <f t="shared" si="10"/>
+        <v>591403293.115201</v>
+      </c>
+      <c r="T105" s="1">
+        <f t="shared" si="10"/>
+        <v>657953413.08793449</v>
+      </c>
+      <c r="U105" s="1">
+        <f t="shared" si="10"/>
+        <v>564483248.12542605</v>
+      </c>
+      <c r="V105" s="1">
+        <f t="shared" si="10"/>
+        <v>709882738.92297208</v>
+      </c>
+      <c r="W105" s="1">
+        <f t="shared" si="10"/>
+        <v>671664591.68370819</v>
+      </c>
+      <c r="X105" s="1">
+        <f t="shared" si="10"/>
+        <v>679673537.8323108</v>
+      </c>
+      <c r="Y105" s="1">
+        <f t="shared" si="10"/>
+        <v>463697326.51670074</v>
+      </c>
+      <c r="Z105" s="1">
+        <f t="shared" si="10"/>
+        <v>573367491.4792093</v>
+      </c>
+      <c r="AA105" s="1">
+        <f>(AA22*(1-$AI$91))+AA77+AA88+AA81</f>
+        <v>797150443.08111787</v>
+      </c>
+      <c r="AB105" s="27">
+        <f>AA105*(1+$AI$106)</f>
+        <v>844437110.89496827</v>
+      </c>
+      <c r="AC105" s="27">
+        <f t="shared" ref="AC105:AF105" si="11">AB105*(1+$AI$106)</f>
+        <v>894528806.25706267</v>
+      </c>
+      <c r="AD105" s="27">
+        <f t="shared" si="11"/>
+        <v>947591922.35833991</v>
+      </c>
+      <c r="AE105" s="27">
+        <f t="shared" si="11"/>
+        <v>1003802722.7719415</v>
+      </c>
+      <c r="AF105" s="27">
+        <f t="shared" si="11"/>
+        <v>1063347926.9606134</v>
+      </c>
+      <c r="AG105" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="AH105" s="51" t="s">
         <v>107</v>
       </c>
-      <c r="B105" s="1"/>
-      <c r="C105" s="15">
-        <f>(C106/B106)-1</f>
-        <v>-0.19801980198019797</v>
-      </c>
-      <c r="D105" s="15">
-        <f>(D106/C106)-1</f>
-        <v>-1.5337037037037038</v>
-      </c>
-      <c r="E105" s="15">
-        <f>(E106/D106)-1</f>
-        <v>14.408165625722878</v>
-      </c>
-      <c r="F105" s="15">
-        <f>(F106/E106)-1</f>
-        <v>-2.1464655942470667</v>
-      </c>
-      <c r="G105" s="15">
-        <f>(G106/F106)-1</f>
-        <v>-1.4181076533251271</v>
-      </c>
-      <c r="H105" s="15">
-        <f t="shared" ref="H105:AA105" si="8">(H106/G106)-1</f>
-        <v>2.9212941213317047</v>
-      </c>
-      <c r="I105" s="15">
-        <f t="shared" si="8"/>
-        <v>8.9454725525746293E-2</v>
-      </c>
-      <c r="J105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.35060812445474077</v>
-      </c>
-      <c r="K105" s="15">
-        <f t="shared" si="8"/>
-        <v>-0.20432944139566944</v>
-      </c>
-      <c r="L105" s="15">
-        <f t="shared" si="8"/>
-        <v>8.5462942749549686E-2</v>
-      </c>
-      <c r="M105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.14084777027430451</v>
-      </c>
-      <c r="N105" s="15">
-        <f t="shared" si="8"/>
-        <v>-0.23338493405757976</v>
-      </c>
-      <c r="O105" s="15">
-        <f t="shared" si="8"/>
-        <v>-0.5160914790794604</v>
-      </c>
-      <c r="P105" s="15">
-        <f t="shared" si="8"/>
-        <v>6.3573385605773636E-2</v>
-      </c>
-      <c r="Q105" s="15">
-        <f t="shared" si="8"/>
-        <v>2.3831584532361543</v>
-      </c>
-      <c r="R105" s="15">
-        <f t="shared" si="8"/>
-        <v>6.0246756650234046E-2</v>
-      </c>
-      <c r="S105" s="15">
-        <f t="shared" si="8"/>
-        <v>9.30687442463356E-2</v>
-      </c>
-      <c r="T105" s="15">
-        <f t="shared" si="8"/>
-        <v>8.7610528077603833E-2</v>
-      </c>
-      <c r="U105" s="15">
-        <f t="shared" si="8"/>
-        <v>-0.1840966167124517</v>
-      </c>
-      <c r="V105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.31078404815650873</v>
-      </c>
-      <c r="W105" s="15">
-        <f t="shared" si="8"/>
-        <v>1.1477783798843344E-2</v>
-      </c>
-      <c r="X105" s="15">
-        <f t="shared" si="8"/>
-        <v>7.9932199285670968E-2</v>
-      </c>
-      <c r="Y105" s="15">
-        <f t="shared" si="8"/>
-        <v>-3.7540500241039498E-2</v>
-      </c>
-      <c r="Z105" s="15">
-        <f t="shared" si="8"/>
-        <v>9.8037531232345376E-2</v>
-      </c>
-      <c r="AA105" s="15">
-        <f t="shared" si="8"/>
-        <v>6.5746917926746251E-2</v>
-      </c>
-      <c r="AB105" s="15"/>
-      <c r="AC105" s="15"/>
-      <c r="AD105" s="15"/>
-      <c r="AE105" s="15"/>
-      <c r="AF105" s="15"/>
-      <c r="AG105" s="15"/>
-      <c r="AH105" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="AI105" s="26">
+      <c r="AI105" s="52">
         <f>(AI100*AI92)+(AI102*AI97)</f>
-        <v>7.9657527965887931E-2</v>
+        <v>7.9630858003319149E-2</v>
       </c>
     </row>
     <row r="106" spans="1:35" ht="19" x14ac:dyDescent="0.25">
-      <c r="A106" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B106" s="1">
-        <v>-20200000</v>
-      </c>
-      <c r="C106" s="1">
-        <v>-16200000</v>
-      </c>
-      <c r="D106" s="1">
-        <v>8646000</v>
-      </c>
-      <c r="E106" s="1">
-        <v>133219000</v>
-      </c>
-      <c r="F106" s="1">
-        <v>-152731000</v>
-      </c>
-      <c r="G106" s="1">
-        <v>63858000</v>
-      </c>
-      <c r="H106" s="1">
-        <v>250406000</v>
-      </c>
-      <c r="I106" s="1">
-        <v>272806000</v>
-      </c>
-      <c r="J106" s="1">
-        <v>368454000</v>
-      </c>
-      <c r="K106" s="1">
-        <v>293168000</v>
-      </c>
-      <c r="L106" s="1">
-        <v>318223000</v>
-      </c>
-      <c r="M106" s="1">
-        <v>363044000</v>
-      </c>
-      <c r="N106" s="1">
-        <v>278315000</v>
-      </c>
-      <c r="O106" s="1">
-        <v>134679000</v>
-      </c>
-      <c r="P106" s="1">
-        <v>143241000</v>
-      </c>
-      <c r="Q106" s="1">
-        <v>484607000</v>
-      </c>
-      <c r="R106" s="1">
-        <v>513803000</v>
-      </c>
-      <c r="S106" s="1">
-        <v>561622000</v>
-      </c>
-      <c r="T106" s="1">
-        <v>610826000</v>
-      </c>
-      <c r="U106" s="1">
-        <v>498375000</v>
-      </c>
-      <c r="V106" s="1">
-        <v>653262000</v>
-      </c>
-      <c r="W106" s="1">
-        <v>660760000</v>
-      </c>
-      <c r="X106" s="1">
-        <v>713576000</v>
-      </c>
-      <c r="Y106" s="1">
-        <v>686788000</v>
-      </c>
-      <c r="Z106" s="1">
-        <v>754119000</v>
-      </c>
-      <c r="AA106" s="1">
-        <v>803700000</v>
-      </c>
-      <c r="AB106" s="42">
-        <f>AA106*(1+$AI$106)</f>
-        <v>851355526.33568275</v>
-      </c>
-      <c r="AC106" s="42">
-        <f t="shared" ref="AC106:AF106" si="9">AB106*(1+$AI$106)</f>
-        <v>901836795.10054421</v>
-      </c>
-      <c r="AD106" s="42">
-        <f t="shared" si="9"/>
-        <v>955311359.16599357</v>
-      </c>
-      <c r="AE106" s="42">
-        <f t="shared" si="9"/>
-        <v>1011956706.4790604</v>
-      </c>
-      <c r="AF106" s="42">
-        <f t="shared" si="9"/>
-        <v>1071960849.1643703</v>
-      </c>
-      <c r="AG106" s="43" t="s">
-        <v>146</v>
-      </c>
-      <c r="AH106" s="44" t="s">
-        <v>147</v>
-      </c>
-      <c r="AI106" s="45">
+      <c r="A106" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="B106" s="1"/>
+      <c r="C106" s="15">
+        <f>(C107/B107)-1</f>
+        <v>-0.19801980198019797</v>
+      </c>
+      <c r="D106" s="15">
+        <f>(D107/C107)-1</f>
+        <v>-1.5337037037037038</v>
+      </c>
+      <c r="E106" s="15">
+        <f>(E107/D107)-1</f>
+        <v>14.408165625722878</v>
+      </c>
+      <c r="F106" s="15">
+        <f>(F107/E107)-1</f>
+        <v>-2.1464655942470667</v>
+      </c>
+      <c r="G106" s="15">
+        <f>(G107/F107)-1</f>
+        <v>-1.4181076533251271</v>
+      </c>
+      <c r="H106" s="15">
+        <f>(H107/G107)-1</f>
+        <v>2.9212941213317047</v>
+      </c>
+      <c r="I106" s="15">
+        <f>(I107/H107)-1</f>
+        <v>8.9454725525746293E-2</v>
+      </c>
+      <c r="J106" s="15">
+        <f>(J107/I107)-1</f>
+        <v>0.35060812445474077</v>
+      </c>
+      <c r="K106" s="15">
+        <f>(K107/J107)-1</f>
+        <v>-0.20432944139566944</v>
+      </c>
+      <c r="L106" s="15">
+        <f>(L107/K107)-1</f>
+        <v>8.5462942749549686E-2</v>
+      </c>
+      <c r="M106" s="15">
+        <f>(M107/L107)-1</f>
+        <v>0.14084777027430451</v>
+      </c>
+      <c r="N106" s="15">
+        <f>(N107/M107)-1</f>
+        <v>-0.23338493405757976</v>
+      </c>
+      <c r="O106" s="15">
+        <f>(O107/N107)-1</f>
+        <v>-0.5160914790794604</v>
+      </c>
+      <c r="P106" s="15">
+        <f>(P107/O107)-1</f>
+        <v>6.3573385605773636E-2</v>
+      </c>
+      <c r="Q106" s="15">
+        <f>(Q107/P107)-1</f>
+        <v>2.3831584532361543</v>
+      </c>
+      <c r="R106" s="15">
+        <f>(R107/Q107)-1</f>
+        <v>6.0246756650234046E-2</v>
+      </c>
+      <c r="S106" s="15">
+        <f>(S107/R107)-1</f>
+        <v>9.30687442463356E-2</v>
+      </c>
+      <c r="T106" s="15">
+        <f>(T107/S107)-1</f>
+        <v>8.7610528077603833E-2</v>
+      </c>
+      <c r="U106" s="15">
+        <f>(U107/T107)-1</f>
+        <v>-0.1840966167124517</v>
+      </c>
+      <c r="V106" s="15">
+        <f>(V107/U107)-1</f>
+        <v>0.31078404815650873</v>
+      </c>
+      <c r="W106" s="15">
+        <f>(W107/V107)-1</f>
+        <v>1.1477783798843344E-2</v>
+      </c>
+      <c r="X106" s="15">
+        <f>(X107/W107)-1</f>
+        <v>7.9932199285670968E-2</v>
+      </c>
+      <c r="Y106" s="15">
+        <f>(Y107/X107)-1</f>
+        <v>-3.7540500241039498E-2</v>
+      </c>
+      <c r="Z106" s="15">
+        <f>(Z107/Y107)-1</f>
+        <v>9.8037531232345376E-2</v>
+      </c>
+      <c r="AA106" s="15">
+        <f>(AA107/Z107)-1</f>
+        <v>6.5746917926746251E-2</v>
+      </c>
+      <c r="AB106" s="66">
+        <v>885300000</v>
+      </c>
+      <c r="AC106" s="66">
+        <v>1026000000</v>
+      </c>
+      <c r="AD106" s="66">
+        <v>1063000000</v>
+      </c>
+      <c r="AE106" s="66">
+        <v>1031000000</v>
+      </c>
+      <c r="AF106" s="66">
+        <v>1131000000</v>
+      </c>
+      <c r="AG106" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="AH106" s="53" t="s">
+        <v>145</v>
+      </c>
+      <c r="AI106" s="54">
         <f>(SUM(AB4:AF4)/5)</f>
-        <v>5.9295167768673364E-2</v>
+        <v>5.9319628088118172E-2</v>
       </c>
     </row>
     <row r="107" spans="1:35" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="5"/>
-      <c r="B107" s="13"/>
-      <c r="C107" s="13"/>
-      <c r="D107" s="13"/>
-      <c r="E107" s="13"/>
-      <c r="F107" s="13"/>
-      <c r="G107" s="13"/>
-      <c r="H107" s="13"/>
-      <c r="I107" s="13"/>
-      <c r="J107" s="13"/>
-      <c r="K107" s="13"/>
-      <c r="L107" s="13"/>
-      <c r="M107" s="13"/>
-      <c r="N107" s="13"/>
-      <c r="O107" s="13"/>
-      <c r="P107" s="13"/>
-      <c r="Q107" s="13"/>
-      <c r="R107" s="13"/>
-      <c r="S107" s="13"/>
-      <c r="T107" s="13"/>
-      <c r="U107" s="13"/>
-      <c r="V107" s="13"/>
-      <c r="W107" s="13"/>
-      <c r="X107" s="13"/>
-      <c r="Y107" s="13"/>
-      <c r="Z107" s="13"/>
-      <c r="AA107" s="13"/>
-      <c r="AB107" s="43"/>
-      <c r="AC107" s="43"/>
-      <c r="AD107" s="43"/>
-      <c r="AE107" s="43"/>
-      <c r="AF107" s="46">
+      <c r="A107" s="65" t="s">
+        <v>164</v>
+      </c>
+      <c r="B107" s="1">
+        <v>-20200000</v>
+      </c>
+      <c r="C107" s="1">
+        <v>-16200000</v>
+      </c>
+      <c r="D107" s="1">
+        <v>8646000</v>
+      </c>
+      <c r="E107" s="1">
+        <v>133219000</v>
+      </c>
+      <c r="F107" s="1">
+        <v>-152731000</v>
+      </c>
+      <c r="G107" s="1">
+        <v>63858000</v>
+      </c>
+      <c r="H107" s="1">
+        <v>250406000</v>
+      </c>
+      <c r="I107" s="1">
+        <v>272806000</v>
+      </c>
+      <c r="J107" s="1">
+        <v>368454000</v>
+      </c>
+      <c r="K107" s="1">
+        <v>293168000</v>
+      </c>
+      <c r="L107" s="1">
+        <v>318223000</v>
+      </c>
+      <c r="M107" s="1">
+        <v>363044000</v>
+      </c>
+      <c r="N107" s="1">
+        <v>278315000</v>
+      </c>
+      <c r="O107" s="1">
+        <v>134679000</v>
+      </c>
+      <c r="P107" s="1">
+        <v>143241000</v>
+      </c>
+      <c r="Q107" s="1">
+        <v>484607000</v>
+      </c>
+      <c r="R107" s="1">
+        <v>513803000</v>
+      </c>
+      <c r="S107" s="1">
+        <v>561622000</v>
+      </c>
+      <c r="T107" s="1">
+        <v>610826000</v>
+      </c>
+      <c r="U107" s="1">
+        <v>498375000</v>
+      </c>
+      <c r="V107" s="1">
+        <v>653262000</v>
+      </c>
+      <c r="W107" s="1">
+        <v>660760000</v>
+      </c>
+      <c r="X107" s="1">
+        <v>713576000</v>
+      </c>
+      <c r="Y107" s="1">
+        <v>686788000</v>
+      </c>
+      <c r="Z107" s="1">
+        <v>754119000</v>
+      </c>
+      <c r="AA107" s="1">
+        <v>803700000</v>
+      </c>
+      <c r="AB107" s="28"/>
+      <c r="AC107" s="28"/>
+      <c r="AD107" s="28"/>
+      <c r="AE107" s="28"/>
+      <c r="AF107" s="68">
         <f>AF106*(1+AI107)/(AI108-AI107)</f>
-        <v>20102626505.158112</v>
-      </c>
-      <c r="AG107" s="47" t="s">
-        <v>148</v>
-      </c>
-      <c r="AH107" s="48" t="s">
-        <v>149</v>
-      </c>
-      <c r="AI107" s="49">
+        <v>21220149973.29105</v>
+      </c>
+      <c r="AG107" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="AH107" s="55" t="s">
+        <v>147</v>
+      </c>
+      <c r="AI107" s="56">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:35" ht="19" x14ac:dyDescent="0.25">
-      <c r="AB108" s="46">
-        <f t="shared" ref="AB108:AD108" si="10">AB107+AB106</f>
-        <v>851355526.33568275</v>
-      </c>
-      <c r="AC108" s="46">
-        <f t="shared" si="10"/>
-        <v>901836795.10054421</v>
-      </c>
-      <c r="AD108" s="46">
-        <f t="shared" si="10"/>
-        <v>955311359.16599357</v>
-      </c>
-      <c r="AE108" s="46">
+      <c r="AB108" s="68">
+        <f t="shared" ref="AB108:AD108" si="12">AB107+AB106</f>
+        <v>885300000</v>
+      </c>
+      <c r="AC108" s="68">
+        <f t="shared" si="12"/>
+        <v>1026000000</v>
+      </c>
+      <c r="AD108" s="68">
+        <f t="shared" si="12"/>
+        <v>1063000000</v>
+      </c>
+      <c r="AE108" s="68">
         <f>AE107+AE106</f>
-        <v>1011956706.4790604</v>
-      </c>
-      <c r="AF108" s="46">
+        <v>1031000000</v>
+      </c>
+      <c r="AF108" s="68">
         <f>AF107+AF106</f>
-        <v>21174587354.322483</v>
-      </c>
-      <c r="AG108" s="47" t="s">
-        <v>144</v>
-      </c>
-      <c r="AH108" s="50" t="s">
-        <v>150</v>
-      </c>
-      <c r="AI108" s="51">
+        <v>22351149973.29105</v>
+      </c>
+      <c r="AG108" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="AH108" s="57" t="s">
+        <v>148</v>
+      </c>
+      <c r="AI108" s="54">
         <f>AI105</f>
-        <v>7.9657527965887931E-2</v>
+        <v>7.9630858003319149E-2</v>
       </c>
     </row>
     <row r="109" spans="1:35" ht="19" x14ac:dyDescent="0.25">
-      <c r="AB109" s="60" t="s">
-        <v>151</v>
-      </c>
-      <c r="AC109" s="61"/>
+      <c r="AB109" s="58" t="s">
+        <v>149</v>
+      </c>
+      <c r="AC109" s="58"/>
     </row>
     <row r="110" spans="1:35" ht="20" x14ac:dyDescent="0.25">
-      <c r="AB110" s="52" t="s">
-        <v>152</v>
-      </c>
-      <c r="AC110" s="40">
+      <c r="AB110" s="59" t="s">
+        <v>150</v>
+      </c>
+      <c r="AC110" s="49">
         <f>NPV(AI108,AB108,AC108,AD108,AE108,AF108)</f>
-        <v>17499993071.658035</v>
+        <v>18541636666.943272</v>
       </c>
     </row>
     <row r="111" spans="1:35" ht="20" x14ac:dyDescent="0.25">
-      <c r="AB111" s="52" t="s">
-        <v>153</v>
-      </c>
-      <c r="AC111" s="40">
+      <c r="AB111" s="59" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC111" s="49">
         <f>AA40</f>
         <v>980400000</v>
       </c>
     </row>
     <row r="112" spans="1:35" ht="20" x14ac:dyDescent="0.25">
-      <c r="AB112" s="52" t="s">
-        <v>140</v>
-      </c>
-      <c r="AC112" s="40">
+      <c r="AB112" s="59" t="s">
+        <v>139</v>
+      </c>
+      <c r="AC112" s="49">
         <f>AI99</f>
         <v>1789500000</v>
       </c>
     </row>
     <row r="113" spans="28:29" ht="20" x14ac:dyDescent="0.25">
-      <c r="AB113" s="52" t="s">
-        <v>154</v>
-      </c>
-      <c r="AC113" s="40">
+      <c r="AB113" s="59" t="s">
+        <v>152</v>
+      </c>
+      <c r="AC113" s="49">
         <f>AC110+AC111-AC112</f>
-        <v>16690893071.658035</v>
+        <v>17732536666.943272</v>
       </c>
     </row>
     <row r="114" spans="28:29" ht="20" x14ac:dyDescent="0.25">
-      <c r="AB114" s="52" t="s">
-        <v>159</v>
-      </c>
-      <c r="AC114" s="53">
+      <c r="AB114" s="59" t="s">
+        <v>157</v>
+      </c>
+      <c r="AC114" s="59">
         <f>AA34*(1+(AG16*5))</f>
         <v>93150646.3458101</v>
       </c>
     </row>
     <row r="115" spans="28:29" ht="20" x14ac:dyDescent="0.25">
-      <c r="AB115" s="54" t="s">
-        <v>155</v>
-      </c>
-      <c r="AC115" s="55">
+      <c r="AB115" s="60" t="s">
+        <v>153</v>
+      </c>
+      <c r="AC115" s="61">
         <f>AC113/AC114</f>
-        <v>179.1817204326762</v>
+        <v>190.36407542588006</v>
       </c>
     </row>
     <row r="116" spans="28:29" ht="20" x14ac:dyDescent="0.25">
-      <c r="AB116" s="52" t="s">
-        <v>156</v>
-      </c>
-      <c r="AC116" s="56" cm="1">
+      <c r="AB116" s="59" t="s">
+        <v>154</v>
+      </c>
+      <c r="AC116" s="62" cm="1">
         <f t="array" ref="AC116">_FV(A1,"Price")</f>
         <v>222.45</v>
       </c>
     </row>
     <row r="117" spans="28:29" ht="20" x14ac:dyDescent="0.25">
-      <c r="AB117" s="57" t="s">
-        <v>157</v>
-      </c>
-      <c r="AC117" s="58">
+      <c r="AB117" s="60" t="s">
+        <v>155</v>
+      </c>
+      <c r="AC117" s="63">
         <f>AC115/AC116-1</f>
-        <v>-0.19450788746830205</v>
+        <v>-0.14423881579734743</v>
       </c>
     </row>
     <row r="118" spans="28:29" ht="20" x14ac:dyDescent="0.25">
-      <c r="AB118" s="57" t="s">
-        <v>158</v>
-      </c>
-      <c r="AC118" s="59" t="str">
+      <c r="AB118" s="60" t="s">
+        <v>156</v>
+      </c>
+      <c r="AC118" s="64" t="str">
         <f>IF(AC115&gt;AC116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
@@ -12689,8 +13237,9 @@
     <hyperlink ref="AA36" r:id="rId52" tooltip="https://www.sec.gov/Archives/edgar/data/1014473/000101447323000005/0001014473-23-000005-index.htm" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
     <hyperlink ref="AA74" r:id="rId53" tooltip="https://www.sec.gov/Archives/edgar/data/1014473/000101447323000005/0001014473-23-000005-index.htm" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
     <hyperlink ref="AB1" r:id="rId54" display="https://finbox.com/NASDAQGS:VRSN/explorer/revenue_proj" xr:uid="{26AF7307-BECB-0E44-8AE1-2752E05C2ACA}"/>
+    <hyperlink ref="AG106" r:id="rId55" xr:uid="{078C0F68-B5C7-1446-9E68-651EB590BB14}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId55"/>
+  <drawing r:id="rId56"/>
 </worksheet>
 </file>
--- a/Technology/Software/VeriSign.xlsx
+++ b/Technology/Software/VeriSign.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A7F244B-70BF-C84E-B6C9-CAC78665B7D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8933DD43-C093-E94E-B9FC-5C46C7170863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="168">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -561,9 +561,6 @@
     <t>Dividend Yield</t>
   </si>
   <si>
-    <t>FCF Yield</t>
-  </si>
-  <si>
     <t>Unlevered FCF</t>
   </si>
   <si>
@@ -574,6 +571,12 @@
   </si>
   <si>
     <t>Unlevered FCF Forecast</t>
+  </si>
+  <si>
+    <t>Forward FCF Yield</t>
+  </si>
+  <si>
+    <t>5Y Fwd Income CAGR</t>
   </si>
 </sst>
 </file>
@@ -588,7 +591,7 @@
     <numFmt numFmtId="168" formatCode="0.0"/>
     <numFmt numFmtId="169" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -700,6 +703,13 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -880,7 +890,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -952,60 +962,48 @@
     <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="39" fontId="11" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="11" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="16" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="16" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1014,7 +1012,37 @@
     <xf numFmtId="164" fontId="10" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="11" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="11" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1067,7 +1095,6 @@
               <a:rPr lang="en-US" sz="2400"/>
               <a:t>VeriSign</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1104,15 +1131,15 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.6102141680395386E-2"/>
-          <c:y val="0.156804887557005"/>
-          <c:w val="0.83877429983525531"/>
-          <c:h val="0.63304602307347457"/>
+          <c:x val="9.2998347107437998E-2"/>
+          <c:y val="0.14258367934805524"/>
+          <c:w val="0.8461752066115702"/>
+          <c:h val="0.64133789034608724"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+        <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -1163,10 +1190,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$1:$AA$1</c:f>
+              <c:f>'Sheet 1'!$B$1:$AF$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>1997</c:v>
                 </c:pt>
@@ -1244,16 +1271,31 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2027</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$3:$AA$3</c:f>
+              <c:f>'Sheet 1'!$B$3:$AF$3</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>9400000</c:v>
                 </c:pt>
@@ -1331,13 +1373,28 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>1424900000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1495000000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1624000000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1727000000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1792000000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1889000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7CF2-AF48-904D-C4B4FB773DF8}"/>
+              <c16:uniqueId val="{00000000-C67D-464A-A35E-9B45E545128D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1346,11 +1403,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$19</c:f>
+              <c:f>'Sheet 1'!$A$28</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>EBITDA</c:v>
+                  <c:v>Net Income</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1390,10 +1447,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$1:$AA$1</c:f>
+              <c:f>'Sheet 1'!$B$1:$AF$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>1997</c:v>
                 </c:pt>
@@ -1471,100 +1528,130 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2027</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$19:$AA$19</c:f>
+              <c:f>'Sheet 1'!$B$28:$AF$28</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>-16600000</c:v>
+                  <c:v>-19200000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-15800000</c:v>
+                  <c:v>-19700000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9359000</c:v>
+                  <c:v>3955000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>103053000</c:v>
+                  <c:v>-3115474000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>202444000</c:v>
+                  <c:v>-13355952000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>68230000</c:v>
+                  <c:v>-4961297000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>220844000</c:v>
+                  <c:v>-259879000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>382022000</c:v>
+                  <c:v>186225000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>708375000</c:v>
+                  <c:v>406461000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>369259000</c:v>
+                  <c:v>379015000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>103083000</c:v>
+                  <c:v>-139502000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-203861000</c:v>
+                  <c:v>-374692000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>459275000</c:v>
+                  <c:v>245553000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1081611000</c:v>
+                  <c:v>830967000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>400960000</c:v>
+                  <c:v>142891000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>525257000</c:v>
+                  <c:v>320032000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>592187000</c:v>
+                  <c:v>544450000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>632995000</c:v>
+                  <c:v>355260000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>656772000</c:v>
+                  <c:v>375236000</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>754904000</c:v>
+                  <c:v>440645000</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>785226000</c:v>
+                  <c:v>457248000</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>892728000</c:v>
+                  <c:v>582489000</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>895717000</c:v>
+                  <c:v>612299000</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1012947000</c:v>
+                  <c:v>814888000</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>913414000</c:v>
+                  <c:v>784830000</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1002400000</c:v>
+                  <c:v>673800000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>737000000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>850000000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>899000000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>928000000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>989000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-7CF2-AF48-904D-C4B4FB773DF8}"/>
+              <c16:uniqueId val="{00000001-C67D-464A-A35E-9B45E545128D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1617,10 +1704,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$1:$AA$1</c:f>
+              <c:f>'Sheet 1'!$B$1:$AF$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>1997</c:v>
                 </c:pt>
@@ -1698,16 +1785,31 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2027</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$107:$AA$107</c:f>
+              <c:f>'Sheet 1'!$B$107:$AF$107</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>-20200000</c:v>
                 </c:pt>
@@ -1785,13 +1887,28 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>803700000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>882000000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1011000000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1046000000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1013000000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1100000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-7CF2-AF48-904D-C4B4FB773DF8}"/>
+              <c16:uniqueId val="{00000002-C67D-464A-A35E-9B45E545128D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1803,13 +1920,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="100"/>
-        <c:overlap val="-24"/>
-        <c:axId val="945055471"/>
-        <c:axId val="944802639"/>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="2134741951"/>
+        <c:axId val="2089579391"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="945055471"/>
+        <c:axId val="2134741951"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1837,7 +1954,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx2"/>
                 </a:solidFill>
@@ -1849,7 +1966,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="944802639"/>
+        <c:crossAx val="2089579391"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1857,7 +1974,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="944802639"/>
+        <c:axId val="2089579391"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1906,7 +2023,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="945055471"/>
+        <c:crossAx val="2134741951"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1924,10 +2041,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.36166965455512456"/>
-          <c:y val="0.88893569171664222"/>
-          <c:w val="0.27929660522253497"/>
-          <c:h val="6.2376588490769339E-2"/>
+          <c:x val="0.34575440879807379"/>
+          <c:y val="0.90644546205035659"/>
+          <c:w val="0.31378033448298304"/>
+          <c:h val="5.9009733746601623E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2034,7 +2151,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="207">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="302">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -2272,7 +2389,6 @@
         <a:solidFill>
           <a:schemeClr val="tx2">
             <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2507,22 +2623,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>31749</xdr:colOff>
+      <xdr:colOff>15874</xdr:colOff>
       <xdr:row>108</xdr:row>
-      <xdr:rowOff>17462</xdr:rowOff>
+      <xdr:rowOff>223838</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>47624</xdr:colOff>
-      <xdr:row>126</xdr:row>
-      <xdr:rowOff>15874</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>1603374</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0BBFB35-EA74-D7C0-5B8B-39E0AB3BD3C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98C8ED60-6B58-A299-FBF3-CB2916180A31}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2550,18 +2666,33 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
+      <sheetName val="Technology - Software"/>
+      <sheetName val="Technology - Hardware"/>
+      <sheetName val="Healthcare"/>
+      <sheetName val="Industrials"/>
+      <sheetName val="Commodity Stocks"/>
+      <sheetName val="Full Portfolio"/>
+      <sheetName val="Growth"/>
+      <sheetName val="ROIC"/>
+      <sheetName val="Watchlist"/>
+      <sheetName val="US Treasury Bonds"/>
+      <sheetName val="Wide Moats"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="GARP HF Buys"/>
+      <sheetName val="Value HF Buys"/>
+      <sheetName val="Aggressive Growth HF Buys"/>
+      <sheetName val="Other HF Buys"/>
       <sheetName val="Treasuries"/>
       <sheetName val="Hardware"/>
       <sheetName val="Software"/>
       <sheetName val="Consumer"/>
       <sheetName val="Financial Services"/>
-      <sheetName val="Healthcare"/>
-      <sheetName val="Industrials"/>
       <sheetName val="Real Estate"/>
       <sheetName val="Fashion + Beauty"/>
       <sheetName val="My Stocks"/>
+      <sheetName val="Top 12"/>
+      <sheetName val="Still Researching"/>
       <sheetName val="Profitable Software"/>
-      <sheetName val="Compounders"/>
       <sheetName val="GARP"/>
       <sheetName val="Value"/>
       <sheetName val="Aggressive Growth"/>
@@ -2569,13 +2700,7 @@
       <sheetName val="Short List"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="8">
-          <cell r="C8">
-            <v>3.9120000000000002E-2</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
@@ -2584,14 +2709,35 @@
       <sheetData sheetId="6"/>
       <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
+      <sheetData sheetId="9">
+        <row r="8">
+          <cell r="C8">
+            <v>4.7820000000000001E-2</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="10"/>
       <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
+      <sheetData sheetId="16" refreshError="1"/>
+      <sheetData sheetId="17" refreshError="1"/>
+      <sheetData sheetId="18" refreshError="1"/>
+      <sheetData sheetId="19" refreshError="1"/>
+      <sheetData sheetId="20" refreshError="1"/>
+      <sheetData sheetId="21" refreshError="1"/>
+      <sheetData sheetId="22" refreshError="1"/>
+      <sheetData sheetId="23" refreshError="1"/>
+      <sheetData sheetId="24" refreshError="1"/>
+      <sheetData sheetId="25" refreshError="1"/>
+      <sheetData sheetId="26" refreshError="1"/>
+      <sheetData sheetId="27" refreshError="1"/>
+      <sheetData sheetId="28" refreshError="1"/>
+      <sheetData sheetId="29" refreshError="1"/>
+      <sheetData sheetId="30" refreshError="1"/>
+      <sheetData sheetId="31" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2719,11 +2865,11 @@
     <v>Powered by Refinitiv</v>
     <v>229.72</v>
     <v>169.24</v>
-    <v>0.98429999999999995</v>
-    <v>-0.68</v>
-    <v>-3.0480000000000004E-3</v>
-    <v>0.68</v>
-    <v>3.0570000000000003E-3</v>
+    <v>0.93659999999999999</v>
+    <v>0.52</v>
+    <v>2.503E-3</v>
+    <v>-0.83</v>
+    <v>-3.9849999999999998E-3</v>
     <v>USD</v>
     <v>VeriSign, Inc. is a global provider of domain name registry services and Internet infrastructure. The Company enables the security, stability, and resiliency of Internet infrastructure and services, including providing root zone maintainer services, operating two global Internet root servers, and providing registration services and authoritative resolution for the .com and .net top-level domains (TLDs), which support the majority of global e-commerce. The Company operates the authoritative directory of and/or the back-end systems for all .com, .net, .cc, .gov, .edu and .name domain names, among others. Its services allow individuals and organizations to establish their online identities, while providing the secure, always-on access they need to communicate and transact reliably with large-scale online audiences. The Company also provides internationalized domain name (IDN) services that enable Internet users to access domain names in characters representing their local language.</v>
     <v>914</v>
@@ -2731,25 +2877,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>ATTN: GENERAL COUNSEL, 12061 BLUEMONT WAY, RESTON, VA, 20190 US</v>
-    <v>223.87</v>
+    <v>208.785</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45114.875002603905</v>
+    <v>45209.94975498828</v>
     <v>0</v>
-    <v>220.81</v>
-    <v>23156250000</v>
+    <v>206.83</v>
+    <v>21428100000</v>
     <v>VERISIGN, INC.</v>
     <v>VERISIGN, INC.</v>
-    <v>222.55</v>
-    <v>34.237000000000002</v>
-    <v>223.13</v>
-    <v>222.45</v>
-    <v>223.13</v>
-    <v>104096400</v>
+    <v>207.45</v>
+    <v>30.712</v>
+    <v>207.77</v>
+    <v>208.29</v>
+    <v>207.46</v>
+    <v>103133800</v>
     <v>VRSN</v>
     <v>VERISIGN, INC. (XNAS:VRSN)</v>
-    <v>354704</v>
-    <v>488566</v>
+    <v>374913</v>
+    <v>490644</v>
     <v>1995</v>
   </rv>
   <rv s="2">
@@ -3334,13 +3480,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AJ118"/>
+  <dimension ref="A1:AJ119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="Y3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="X2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AC16" sqref="AC16"/>
+      <selection pane="bottomRight" activeCell="AD13" sqref="AD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3625,19 +3771,19 @@
         <v>1424900000</v>
       </c>
       <c r="AB3" s="24">
-        <v>1494000000</v>
+        <v>1495000000</v>
       </c>
       <c r="AC3" s="24">
-        <v>1632000000</v>
+        <v>1624000000</v>
       </c>
       <c r="AD3" s="24">
-        <v>1745000000</v>
+        <v>1727000000</v>
       </c>
       <c r="AE3" s="24">
-        <v>1802000000</v>
+        <v>1792000000</v>
       </c>
       <c r="AF3" s="24">
-        <v>1899000000</v>
+        <v>1889000000</v>
       </c>
       <c r="AG3" s="18" t="s">
         <v>108</v>
@@ -3657,125 +3803,125 @@
         <v>93</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="67">
+      <c r="C4" s="63">
         <f>(C3/B3)-1</f>
         <v>3.1382978723404253</v>
       </c>
-      <c r="D4" s="67">
+      <c r="D4" s="63">
         <f>(D3/C3)-1</f>
         <v>1.1793316195372752</v>
       </c>
-      <c r="E4" s="67">
+      <c r="E4" s="63">
         <f>(E3/D3)-1</f>
         <v>4.6002406341417386</v>
       </c>
-      <c r="F4" s="67">
+      <c r="F4" s="63">
         <f t="shared" ref="F4:AF4" si="0">(F3/E3)-1</f>
         <v>1.0716816284232653</v>
       </c>
-      <c r="G4" s="67">
+      <c r="G4" s="63">
         <f t="shared" si="0"/>
         <v>0.24208287411902019</v>
       </c>
-      <c r="H4" s="67">
+      <c r="H4" s="63">
         <f t="shared" si="0"/>
         <v>-0.13660667218917089</v>
       </c>
-      <c r="I4" s="67">
+      <c r="I4" s="63">
         <f t="shared" si="0"/>
         <v>0.10587515880088749</v>
       </c>
-      <c r="J4" s="67">
+      <c r="J4" s="63">
         <f t="shared" si="0"/>
         <v>0.37981662387318837</v>
       </c>
-      <c r="K4" s="67">
+      <c r="K4" s="63">
         <f t="shared" si="0"/>
         <v>-2.1276873352743197E-2</v>
       </c>
-      <c r="L4" s="67">
+      <c r="L4" s="63">
         <f t="shared" si="0"/>
         <v>-5.0125408744903233E-2</v>
       </c>
-      <c r="M4" s="67">
+      <c r="M4" s="63">
         <f t="shared" si="0"/>
         <v>-0.35725317769495069</v>
       </c>
-      <c r="N4" s="67">
+      <c r="N4" s="63">
         <f t="shared" si="0"/>
         <v>7.1624719907251055E-2</v>
       </c>
-      <c r="O4" s="67">
+      <c r="O4" s="63">
         <f t="shared" si="0"/>
         <v>-0.3396415164090707</v>
       </c>
-      <c r="P4" s="67">
+      <c r="P4" s="63">
         <f t="shared" si="0"/>
         <v>0.13429761173590693</v>
       </c>
-      <c r="Q4" s="67">
+      <c r="Q4" s="63">
         <f t="shared" si="0"/>
         <v>0.1316281033915474</v>
       </c>
-      <c r="R4" s="67">
+      <c r="R4" s="63">
         <f t="shared" si="0"/>
         <v>0.10473424665061026</v>
       </c>
-      <c r="S4" s="67">
+      <c r="S4" s="63">
         <f t="shared" si="0"/>
         <v>4.6659005872009551E-2</v>
       </c>
-      <c r="T4" s="67">
+      <c r="T4" s="63">
         <f t="shared" si="0"/>
         <v>4.8755738196664344E-2</v>
       </c>
-      <c r="U4" s="67">
+      <c r="U4" s="63">
         <f t="shared" si="0"/>
         <v>7.8160900010006085E-2</v>
       </c>
-      <c r="V4" s="67">
+      <c r="V4" s="63">
         <f t="shared" si="0"/>
         <v>2.007412226058003E-2</v>
       </c>
-      <c r="W4" s="67">
+      <c r="W4" s="63">
         <f t="shared" si="0"/>
         <v>4.2806809745128183E-2</v>
       </c>
-      <c r="X4" s="67">
+      <c r="X4" s="63">
         <f t="shared" si="0"/>
         <v>1.3738622137684064E-2</v>
       </c>
-      <c r="Y4" s="67">
+      <c r="Y4" s="63">
         <f t="shared" si="0"/>
         <v>2.7110544216306209E-2</v>
       </c>
-      <c r="Z4" s="67">
+      <c r="Z4" s="63">
         <f t="shared" si="0"/>
         <v>4.9424055295750779E-2</v>
       </c>
-      <c r="AA4" s="67">
+      <c r="AA4" s="63">
         <f t="shared" si="0"/>
         <v>7.3309550639662158E-2</v>
       </c>
       <c r="AB4" s="16">
         <f t="shared" si="0"/>
-        <v>4.8494631202189664E-2</v>
+        <v>4.9196434837532443E-2</v>
       </c>
       <c r="AC4" s="16">
         <f t="shared" si="0"/>
-        <v>9.2369477911646625E-2</v>
+        <v>8.6287625418060232E-2</v>
       </c>
       <c r="AD4" s="16">
         <f t="shared" si="0"/>
-        <v>6.924019607843146E-2</v>
+        <v>6.3423645320197064E-2</v>
       </c>
       <c r="AE4" s="16">
         <f t="shared" si="0"/>
-        <v>3.2664756446991294E-2</v>
+        <v>3.7637521713954847E-2</v>
       </c>
       <c r="AF4" s="16">
         <f t="shared" si="0"/>
-        <v>5.3829078801331809E-2</v>
+        <v>5.4129464285714191E-2</v>
       </c>
       <c r="AG4" s="17">
         <f>(AA4+Z4+Y4)/3</f>
@@ -3959,16 +4105,20 @@
       <c r="AA6" s="10">
         <v>1224200000</v>
       </c>
-      <c r="AG6" s="18" t="s">
+      <c r="AB6" s="34">
+        <f>AB3*AB7</f>
+        <v>1292876000</v>
+      </c>
+      <c r="AG6" s="68" t="s">
         <v>112</v>
       </c>
-      <c r="AH6" s="19" t="s">
+      <c r="AH6" s="69" t="s">
         <v>113</v>
       </c>
-      <c r="AI6" s="19" t="s">
+      <c r="AI6" s="69" t="s">
         <v>114</v>
       </c>
-      <c r="AJ6" s="19" t="s">
+      <c r="AJ6" s="69" t="s">
         <v>115</v>
       </c>
     </row>
@@ -4054,21 +4204,24 @@
       <c r="AA7" s="2">
         <v>0.85909999999999997</v>
       </c>
+      <c r="AB7" s="2">
+        <v>0.86480000000000001</v>
+      </c>
       <c r="AG7" s="17">
-        <f>AA7</f>
-        <v>0.85909999999999997</v>
+        <f>AB7</f>
+        <v>0.86480000000000001</v>
       </c>
       <c r="AH7" s="20">
-        <f>AA21</f>
-        <v>0.70350000000000001</v>
+        <f>AB21</f>
+        <v>0.73177257525083617</v>
       </c>
       <c r="AI7" s="20">
-        <f>AA30</f>
-        <v>0.47289999999999999</v>
+        <f>AB30</f>
+        <v>0.49297658862876254</v>
       </c>
       <c r="AJ7" s="20">
-        <f>AA107/AA3</f>
-        <v>0.56403958172503332</v>
+        <f>AB107/AB3</f>
+        <v>0.58996655518394647</v>
       </c>
     </row>
     <row r="8" spans="1:36" ht="19" x14ac:dyDescent="0.25">
@@ -4669,8 +4822,8 @@
         <v>0.38871581862236065</v>
       </c>
       <c r="AI13" s="20">
-        <f>AA22/(AA72+AA56+AA61)</f>
-        <v>4.1491421029476463</v>
+        <f>AA22/(AA73+AA56+AA61)</f>
+        <v>0.26770558346816542</v>
       </c>
       <c r="AJ13" s="21">
         <f>AA67/AA72</f>
@@ -4942,16 +5095,16 @@
         <v>-2.7498803063314627E-2</v>
       </c>
       <c r="AH16" s="30">
-        <f>AI101/AA3</f>
-        <v>16.251140430907434</v>
+        <f>AI102/AA3</f>
+        <v>15.038318478489719</v>
       </c>
       <c r="AI16" s="30">
-        <f>AI101/AA28</f>
-        <v>34.3666518254675</v>
+        <f>AI102/AA28</f>
+        <v>31.80186999109528</v>
       </c>
       <c r="AJ16" s="31">
-        <f>AI101/AA107</f>
-        <v>28.812056737588652</v>
+        <f>AI102/AA107</f>
+        <v>26.661814109742441</v>
       </c>
     </row>
     <row r="17" spans="1:36" ht="19" x14ac:dyDescent="0.25">
@@ -5215,35 +5368,35 @@
         <v>1002400000</v>
       </c>
       <c r="AB19" s="34">
-        <v>1085000000</v>
+        <v>1094000000</v>
       </c>
       <c r="AC19" s="34">
-        <v>1201000000</v>
+        <v>1190000000</v>
       </c>
       <c r="AD19" s="34">
-        <v>1281000000</v>
+        <v>1267000000</v>
       </c>
       <c r="AE19" s="34">
-        <v>1296000000</v>
+        <v>1266000000</v>
       </c>
       <c r="AF19" s="34">
-        <v>1387000000</v>
+        <v>1347000000</v>
       </c>
       <c r="AG19" s="26">
         <f>AA40-AA56-AA61</f>
         <v>-809100000</v>
       </c>
       <c r="AH19" s="30">
-        <f>AI101/AB3</f>
-        <v>15.499497991967871</v>
+        <f>AI102/AB3</f>
+        <v>14.333177257525083</v>
       </c>
       <c r="AI19" s="30">
-        <f>AI101/AB28</f>
-        <v>33.608490566037737</v>
+        <f>AI102/AB28</f>
+        <v>29.074762550881953</v>
       </c>
       <c r="AJ19" s="31">
-        <f>AI101/AB105</f>
-        <v>27.422113146422568</v>
+        <f>AI102/AB105</f>
+        <v>25.404012521929037</v>
       </c>
     </row>
     <row r="20" spans="1:36" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -5353,23 +5506,23 @@
       </c>
       <c r="AB20" s="16">
         <f t="shared" si="3"/>
-        <v>8.2402234636871574E-2</v>
+        <v>9.1380686352753315E-2</v>
       </c>
       <c r="AC20" s="16">
         <f t="shared" si="3"/>
-        <v>0.10691244239631326</v>
+        <v>8.7751371115173615E-2</v>
       </c>
       <c r="AD20" s="16">
         <f t="shared" si="3"/>
-        <v>6.6611157368859253E-2</v>
+        <v>6.4705882352941169E-2</v>
       </c>
       <c r="AE20" s="16">
         <f t="shared" si="3"/>
-        <v>1.1709601873536313E-2</v>
+        <v>-7.8926598263617809E-4</v>
       </c>
       <c r="AF20" s="16">
         <f t="shared" si="3"/>
-        <v>7.0216049382715973E-2</v>
+        <v>6.3981042654028375E-2</v>
       </c>
     </row>
     <row r="21" spans="1:36" ht="20" x14ac:dyDescent="0.25">
@@ -5456,29 +5609,32 @@
       </c>
       <c r="AB21" s="35">
         <f>AB19/AB3</f>
-        <v>0.72623828647925037</v>
+        <v>0.73177257525083617</v>
       </c>
       <c r="AC21" s="35">
         <f t="shared" ref="AC21:AF21" si="4">AC19/AC3</f>
-        <v>0.73590686274509809</v>
+        <v>0.73275862068965514</v>
       </c>
       <c r="AD21" s="35">
         <f t="shared" si="4"/>
-        <v>0.73409742120343835</v>
+        <v>0.73364215402431965</v>
       </c>
       <c r="AE21" s="35">
         <f t="shared" si="4"/>
-        <v>0.71920088790233072</v>
+        <v>0.7064732142857143</v>
       </c>
       <c r="AF21" s="35">
         <f t="shared" si="4"/>
-        <v>0.73038441284886779</v>
+        <v>0.71307570142932764</v>
+      </c>
+      <c r="AH21" s="67" t="s">
+        <v>167</v>
       </c>
       <c r="AI21" s="18" t="s">
         <v>161</v>
       </c>
       <c r="AJ21" s="19" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="22" spans="1:36" ht="19" x14ac:dyDescent="0.25">
@@ -5563,13 +5719,17 @@
       <c r="AA22" s="10">
         <v>943100000</v>
       </c>
+      <c r="AH22" s="17">
+        <f>SUM(AB29:AF29)/5</f>
+        <v>8.0551709672079364E-2</v>
+      </c>
       <c r="AI22" s="32">
-        <f>(-1*AA98)/AI101</f>
+        <f>(-1*AA98)/AI102</f>
         <v>0</v>
       </c>
       <c r="AJ22" s="33">
-        <f>AA107/AI101</f>
-        <v>3.4707692307692307E-2</v>
+        <f>AB107/AI102</f>
+        <v>4.1160905539921876E-2</v>
       </c>
     </row>
     <row r="23" spans="1:36" ht="19" x14ac:dyDescent="0.25">
@@ -6070,19 +6230,19 @@
         <v>673800000</v>
       </c>
       <c r="AB28" s="36">
-        <v>689000000</v>
+        <v>737000000</v>
       </c>
       <c r="AC28" s="36">
-        <v>831000000</v>
+        <v>850000000</v>
       </c>
       <c r="AD28" s="36">
-        <v>885000000</v>
+        <v>899000000</v>
       </c>
       <c r="AE28" s="36">
-        <v>921000000</v>
+        <v>928000000</v>
       </c>
       <c r="AF28" s="36">
-        <v>985000000</v>
+        <v>989000000</v>
       </c>
     </row>
     <row r="29" spans="1:36" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -6192,23 +6352,23 @@
       </c>
       <c r="AB29" s="16">
         <f t="shared" si="5"/>
-        <v>2.255862273671716E-2</v>
+        <v>9.3796378747402764E-2</v>
       </c>
       <c r="AC29" s="16">
         <f t="shared" si="5"/>
-        <v>0.20609579100145137</v>
+        <v>0.15332428765264594</v>
       </c>
       <c r="AD29" s="16">
         <f t="shared" si="5"/>
-        <v>6.498194945848379E-2</v>
+        <v>5.7647058823529385E-2</v>
       </c>
       <c r="AE29" s="16">
         <f t="shared" si="5"/>
-        <v>4.067796610169494E-2</v>
+        <v>3.2258064516129004E-2</v>
       </c>
       <c r="AF29" s="16">
         <f t="shared" si="5"/>
-        <v>6.9489685124864309E-2</v>
+        <v>6.5732758620689724E-2</v>
       </c>
     </row>
     <row r="30" spans="1:36" ht="19" x14ac:dyDescent="0.25">
@@ -6295,23 +6455,23 @@
       </c>
       <c r="AB30" s="37">
         <f>AB28/AB3</f>
-        <v>0.46117804551539493</v>
+        <v>0.49297658862876254</v>
       </c>
       <c r="AC30" s="37">
         <f t="shared" ref="AC30:AF30" si="6">AC28/AC3</f>
-        <v>0.5091911764705882</v>
+        <v>0.52339901477832518</v>
       </c>
       <c r="AD30" s="37">
         <f t="shared" si="6"/>
-        <v>0.50716332378223494</v>
+        <v>0.52055587724377528</v>
       </c>
       <c r="AE30" s="37">
         <f t="shared" si="6"/>
-        <v>0.51109877913429524</v>
+        <v>0.5178571428571429</v>
       </c>
       <c r="AF30" s="37">
         <f t="shared" si="6"/>
-        <v>0.51869404949973674</v>
+        <v>0.52355743779777664</v>
       </c>
     </row>
     <row r="31" spans="1:36" ht="19" x14ac:dyDescent="0.25">
@@ -6397,19 +6557,19 @@
         <v>6.24</v>
       </c>
       <c r="AB31" s="38">
-        <v>6.66</v>
+        <v>7.15</v>
       </c>
       <c r="AC31" s="38">
-        <v>8.0399999999999991</v>
+        <v>8.24</v>
       </c>
       <c r="AD31" s="38">
-        <v>8.56</v>
+        <v>8.7200000000000006</v>
       </c>
       <c r="AE31" s="38">
-        <v>8.91</v>
+        <v>9</v>
       </c>
       <c r="AF31" s="38">
-        <v>9.5299999999999994</v>
+        <v>9.59</v>
       </c>
     </row>
     <row r="32" spans="1:36" ht="19" x14ac:dyDescent="0.25">
@@ -10694,7 +10854,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="83" spans="1:35" ht="21" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:35" ht="19" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>34</v>
       </c>
@@ -10776,12 +10936,8 @@
       <c r="AA83" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AH83" s="39" t="s">
-        <v>125</v>
-      </c>
-      <c r="AI83" s="40"/>
     </row>
-    <row r="84" spans="1:35" ht="19" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:35" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>47</v>
       </c>
@@ -10863,12 +11019,12 @@
       <c r="AA84" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AH84" s="41" t="s">
-        <v>126</v>
-      </c>
-      <c r="AI84" s="41"/>
+      <c r="AH84" s="71" t="s">
+        <v>125</v>
+      </c>
+      <c r="AI84" s="72"/>
     </row>
-    <row r="85" spans="1:35" ht="20" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:35" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>71</v>
       </c>
@@ -10950,13 +11106,10 @@
       <c r="AA85" s="1">
         <v>46300000</v>
       </c>
-      <c r="AH85" s="42" t="s">
-        <v>127</v>
-      </c>
-      <c r="AI85" s="43">
-        <f>AA17</f>
-        <v>75300000</v>
-      </c>
+      <c r="AH85" s="73" t="s">
+        <v>126</v>
+      </c>
+      <c r="AI85" s="73"/>
     </row>
     <row r="86" spans="1:35" ht="20" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
@@ -11040,12 +11193,12 @@
       <c r="AA86" s="1">
         <v>-3900000</v>
       </c>
-      <c r="AH86" s="42" t="s">
-        <v>128</v>
-      </c>
-      <c r="AI86" s="43">
-        <f>AA56</f>
-        <v>0</v>
+      <c r="AH86" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="AI86" s="40">
+        <f>AA17</f>
+        <v>75300000</v>
       </c>
     </row>
     <row r="87" spans="1:35" ht="20" x14ac:dyDescent="0.25">
@@ -11130,12 +11283,12 @@
       <c r="AA87" s="10">
         <v>831100000</v>
       </c>
-      <c r="AH87" s="42" t="s">
-        <v>129</v>
-      </c>
-      <c r="AI87" s="43">
-        <f>AA61</f>
-        <v>1789500000</v>
+      <c r="AH87" s="39" t="s">
+        <v>128</v>
+      </c>
+      <c r="AI87" s="40">
+        <f>AA56</f>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:35" ht="20" x14ac:dyDescent="0.25">
@@ -11220,12 +11373,12 @@
       <c r="AA88" s="1">
         <v>-27400000</v>
       </c>
-      <c r="AH88" s="44" t="s">
-        <v>130</v>
-      </c>
-      <c r="AI88" s="45">
-        <f>AI85/(AI86+AI87)</f>
-        <v>4.2078792958927073E-2</v>
+      <c r="AH88" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="AI88" s="40">
+        <f>AA61</f>
+        <v>1789500000</v>
       </c>
     </row>
     <row r="89" spans="1:35" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -11336,12 +11489,12 @@
         <f t="shared" si="9"/>
         <v>1.9229419608393573E-2</v>
       </c>
-      <c r="AH89" s="42" t="s">
-        <v>105</v>
-      </c>
-      <c r="AI89" s="43">
-        <f>AA27</f>
-        <v>206400000</v>
+      <c r="AH89" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="AI89" s="42">
+        <f>AI86/(AI87+AI88)</f>
+        <v>4.2078792958927073E-2</v>
       </c>
     </row>
     <row r="90" spans="1:35" ht="20" x14ac:dyDescent="0.25">
@@ -11426,12 +11579,12 @@
       <c r="AA90" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AH90" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="AI90" s="43">
-        <f>AA25</f>
-        <v>880200000</v>
+      <c r="AH90" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="AI90" s="40">
+        <f>AA27</f>
+        <v>206400000</v>
       </c>
     </row>
     <row r="91" spans="1:35" ht="20" x14ac:dyDescent="0.25">
@@ -11516,12 +11669,12 @@
       <c r="AA91" s="1">
         <v>-1338400000</v>
       </c>
-      <c r="AH91" s="44" t="s">
-        <v>131</v>
-      </c>
-      <c r="AI91" s="45">
-        <f>AI89/AI90</f>
-        <v>0.23449216087252897</v>
+      <c r="AH91" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI91" s="40">
+        <f>AA25</f>
+        <v>880200000</v>
       </c>
     </row>
     <row r="92" spans="1:35" ht="20" x14ac:dyDescent="0.25">
@@ -11606,15 +11759,15 @@
       <c r="AA92" s="1">
         <v>1721500000</v>
       </c>
-      <c r="AH92" s="44" t="s">
-        <v>132</v>
-      </c>
-      <c r="AI92" s="45">
-        <f>AI88*(1-AI91)</f>
-        <v>3.2211645871080503E-2</v>
+      <c r="AH92" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="AI92" s="42">
+        <f>AI90/AI91</f>
+        <v>0.23449216087252897</v>
       </c>
     </row>
-    <row r="93" spans="1:35" ht="19" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:35" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>78</v>
       </c>
@@ -11697,11 +11850,14 @@
         <v>91</v>
       </c>
       <c r="AH93" s="41" t="s">
-        <v>133</v>
-      </c>
-      <c r="AI93" s="41"/>
+        <v>132</v>
+      </c>
+      <c r="AI93" s="42">
+        <f>AI89*(1-AI92)</f>
+        <v>3.2211645871080503E-2</v>
+      </c>
     </row>
-    <row r="94" spans="1:35" ht="20" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:35" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>79</v>
       </c>
@@ -11783,13 +11939,10 @@
       <c r="AA94" s="10">
         <v>355700000</v>
       </c>
-      <c r="AH94" s="42" t="s">
-        <v>134</v>
-      </c>
-      <c r="AI94" s="69">
-        <f>[1]Treasuries!$C$8</f>
-        <v>3.9120000000000002E-2</v>
-      </c>
+      <c r="AH94" s="73" t="s">
+        <v>133</v>
+      </c>
+      <c r="AI94" s="73"/>
     </row>
     <row r="95" spans="1:35" ht="20" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
@@ -11873,12 +12026,12 @@
       <c r="AA95" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AH95" s="47" t="s">
-        <v>135</v>
-      </c>
-      <c r="AI95" s="48" cm="1">
-        <f t="array" ref="AI95">_FV(A1,"Beta")</f>
-        <v>0.98429999999999995</v>
+      <c r="AH95" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="AI95" s="66">
+        <f>'[1]US Treasury Bonds'!$C$8</f>
+        <v>4.7820000000000001E-2</v>
       </c>
     </row>
     <row r="96" spans="1:35" ht="20" x14ac:dyDescent="0.25">
@@ -11963,11 +12116,12 @@
       <c r="AA96" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AH96" s="42" t="s">
-        <v>136</v>
-      </c>
-      <c r="AI96" s="46">
-        <v>8.4000000000000005E-2</v>
+      <c r="AH96" s="44" t="s">
+        <v>135</v>
+      </c>
+      <c r="AI96" s="45" cm="1">
+        <f t="array" ref="AI96">_FV(A1,"Beta")</f>
+        <v>0.93659999999999999</v>
       </c>
     </row>
     <row r="97" spans="1:35" ht="20" x14ac:dyDescent="0.25">
@@ -12052,15 +12206,14 @@
       <c r="AA97" s="1">
         <v>-1048100000</v>
       </c>
-      <c r="AH97" s="44" t="s">
-        <v>137</v>
-      </c>
-      <c r="AI97" s="45">
-        <f>(AI94)+((AI95)*(AI96-AI94))</f>
-        <v>8.3295384E-2</v>
+      <c r="AH97" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="AI97" s="43">
+        <v>8.4000000000000005E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:35" ht="19" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:35" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>83</v>
       </c>
@@ -12143,11 +12296,14 @@
         <v>0</v>
       </c>
       <c r="AH98" s="41" t="s">
-        <v>138</v>
-      </c>
-      <c r="AI98" s="41"/>
+        <v>137</v>
+      </c>
+      <c r="AI98" s="42">
+        <f>(AI95)+((AI96)*(AI97-AI95))</f>
+        <v>8.1706188000000013E-2</v>
+      </c>
     </row>
-    <row r="99" spans="1:35" ht="20" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:35" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>84</v>
       </c>
@@ -12229,13 +12385,10 @@
       <c r="AA99" s="1">
         <v>12300000</v>
       </c>
-      <c r="AH99" s="42" t="s">
-        <v>139</v>
-      </c>
-      <c r="AI99" s="43">
-        <f>AI86+AI87</f>
-        <v>1789500000</v>
-      </c>
+      <c r="AH99" s="73" t="s">
+        <v>138</v>
+      </c>
+      <c r="AI99" s="73"/>
     </row>
     <row r="100" spans="1:35" ht="20" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
@@ -12319,12 +12472,12 @@
       <c r="AA100" s="10">
         <v>-1035800000</v>
       </c>
-      <c r="AH100" s="44" t="s">
-        <v>140</v>
-      </c>
-      <c r="AI100" s="45">
-        <f>AI99/AI103</f>
-        <v>7.1735666396079492E-2</v>
+      <c r="AH100" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="AI100" s="40">
+        <f>AI87+AI88</f>
+        <v>1789500000</v>
       </c>
     </row>
     <row r="101" spans="1:35" ht="20" x14ac:dyDescent="0.25">
@@ -12409,12 +12562,12 @@
       <c r="AA101" s="1">
         <v>-800000</v>
       </c>
-      <c r="AH101" s="47" t="s">
-        <v>141</v>
-      </c>
-      <c r="AI101" s="49" cm="1">
-        <f t="array" ref="AI101">_FV(A1,"Market cap",TRUE)</f>
-        <v>23156250000</v>
+      <c r="AH101" s="41" t="s">
+        <v>140</v>
+      </c>
+      <c r="AI101" s="42">
+        <f>AI100/AI104</f>
+        <v>7.7075149886293159E-2</v>
       </c>
     </row>
     <row r="102" spans="1:35" ht="20" x14ac:dyDescent="0.25">
@@ -12500,11 +12653,11 @@
         <v>150200000</v>
       </c>
       <c r="AH102" s="44" t="s">
-        <v>142</v>
-      </c>
-      <c r="AI102" s="45">
-        <f>AI101/AI103</f>
-        <v>0.92826433360392047</v>
+        <v>141</v>
+      </c>
+      <c r="AI102" s="46" cm="1">
+        <f t="array" ref="AI102">_FV(A1,"Market cap",TRUE)</f>
+        <v>21428100000</v>
       </c>
     </row>
     <row r="103" spans="1:35" ht="20" x14ac:dyDescent="0.25">
@@ -12589,15 +12742,15 @@
       <c r="AA103" s="1">
         <v>228800000</v>
       </c>
-      <c r="AH103" s="44" t="s">
-        <v>143</v>
-      </c>
-      <c r="AI103" s="50">
-        <f>AI99+AI101</f>
-        <v>24945750000</v>
+      <c r="AH103" s="41" t="s">
+        <v>142</v>
+      </c>
+      <c r="AI103" s="42">
+        <f>AI102/AI104</f>
+        <v>0.92292485011370684</v>
       </c>
     </row>
-    <row r="104" spans="1:35" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:35" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="7" t="s">
         <v>89</v>
       </c>
@@ -12679,17 +12832,27 @@
       <c r="AA104" s="11">
         <v>379000000</v>
       </c>
+      <c r="AB104" s="75" t="s">
+        <v>164</v>
+      </c>
+      <c r="AC104" s="75"/>
+      <c r="AD104" s="75"/>
+      <c r="AE104" s="75"/>
+      <c r="AF104" s="75"/>
       <c r="AH104" s="41" t="s">
-        <v>144</v>
-      </c>
-      <c r="AI104" s="41"/>
+        <v>143</v>
+      </c>
+      <c r="AI104" s="47">
+        <f>AI100+AI102</f>
+        <v>23217600000</v>
+      </c>
     </row>
-    <row r="105" spans="1:35" ht="21" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:35" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B105" s="1">
-        <f t="shared" ref="B105:Z105" si="10">(B22*(1-$AI$91))+B77+B88+B81</f>
+        <f t="shared" ref="B105:AA105" si="10">(B22*(1-$AI$92))+B77+B88+B81</f>
         <v>-16744648.943421949</v>
       </c>
       <c r="C105" s="1">
@@ -12789,174 +12952,174 @@
         <v>573367491.4792093</v>
       </c>
       <c r="AA105" s="1">
-        <f>(AA22*(1-$AI$91))+AA77+AA88+AA81</f>
+        <f t="shared" si="10"/>
         <v>797150443.08111787</v>
       </c>
       <c r="AB105" s="27">
-        <f>AA105*(1+$AI$106)</f>
-        <v>844437110.89496827</v>
+        <f>AA105*(1+$AI$107)</f>
+        <v>843492734.91748667</v>
       </c>
       <c r="AC105" s="27">
-        <f t="shared" ref="AC105:AF105" si="11">AB105*(1+$AI$106)</f>
-        <v>894528806.25706267</v>
+        <f>AB105*(1+$AI$107)</f>
+        <v>892529133.03114283</v>
       </c>
       <c r="AD105" s="27">
-        <f t="shared" si="11"/>
-        <v>947591922.35833991</v>
+        <f>AC105*(1+$AI$107)</f>
+        <v>944416259.12433064</v>
       </c>
       <c r="AE105" s="27">
-        <f t="shared" si="11"/>
-        <v>1003802722.7719415</v>
+        <f>AD105*(1+$AI$107)</f>
+        <v>999319840.09229326</v>
       </c>
       <c r="AF105" s="27">
-        <f t="shared" si="11"/>
-        <v>1063347926.9606134</v>
-      </c>
-      <c r="AG105" s="28" t="s">
-        <v>165</v>
-      </c>
-      <c r="AH105" s="51" t="s">
-        <v>107</v>
-      </c>
-      <c r="AI105" s="52">
-        <f>(AI100*AI92)+(AI102*AI97)</f>
-        <v>7.9630858003319149E-2</v>
-      </c>
+        <f>AE105*(1+$AI$107)</f>
+        <v>1057415237.3531061</v>
+      </c>
+      <c r="AH105" s="73" t="s">
+        <v>144</v>
+      </c>
+      <c r="AI105" s="73"/>
     </row>
-    <row r="106" spans="1:35" ht="19" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:35" ht="20" x14ac:dyDescent="0.25">
       <c r="A106" s="14" t="s">
         <v>106</v>
       </c>
       <c r="B106" s="1"/>
       <c r="C106" s="15">
-        <f>(C107/B107)-1</f>
+        <f t="shared" ref="C106:AA106" si="11">(C107/B107)-1</f>
         <v>-0.19801980198019797</v>
       </c>
       <c r="D106" s="15">
-        <f>(D107/C107)-1</f>
+        <f t="shared" si="11"/>
         <v>-1.5337037037037038</v>
       </c>
       <c r="E106" s="15">
-        <f>(E107/D107)-1</f>
+        <f t="shared" si="11"/>
         <v>14.408165625722878</v>
       </c>
       <c r="F106" s="15">
-        <f>(F107/E107)-1</f>
+        <f t="shared" si="11"/>
         <v>-2.1464655942470667</v>
       </c>
       <c r="G106" s="15">
-        <f>(G107/F107)-1</f>
+        <f t="shared" si="11"/>
         <v>-1.4181076533251271</v>
       </c>
       <c r="H106" s="15">
-        <f>(H107/G107)-1</f>
+        <f t="shared" si="11"/>
         <v>2.9212941213317047</v>
       </c>
       <c r="I106" s="15">
-        <f>(I107/H107)-1</f>
+        <f t="shared" si="11"/>
         <v>8.9454725525746293E-2</v>
       </c>
       <c r="J106" s="15">
-        <f>(J107/I107)-1</f>
+        <f t="shared" si="11"/>
         <v>0.35060812445474077</v>
       </c>
       <c r="K106" s="15">
-        <f>(K107/J107)-1</f>
+        <f t="shared" si="11"/>
         <v>-0.20432944139566944</v>
       </c>
       <c r="L106" s="15">
-        <f>(L107/K107)-1</f>
+        <f t="shared" si="11"/>
         <v>8.5462942749549686E-2</v>
       </c>
       <c r="M106" s="15">
-        <f>(M107/L107)-1</f>
+        <f t="shared" si="11"/>
         <v>0.14084777027430451</v>
       </c>
       <c r="N106" s="15">
-        <f>(N107/M107)-1</f>
+        <f t="shared" si="11"/>
         <v>-0.23338493405757976</v>
       </c>
       <c r="O106" s="15">
-        <f>(O107/N107)-1</f>
+        <f t="shared" si="11"/>
         <v>-0.5160914790794604</v>
       </c>
       <c r="P106" s="15">
-        <f>(P107/O107)-1</f>
+        <f t="shared" si="11"/>
         <v>6.3573385605773636E-2</v>
       </c>
       <c r="Q106" s="15">
-        <f>(Q107/P107)-1</f>
+        <f t="shared" si="11"/>
         <v>2.3831584532361543</v>
       </c>
       <c r="R106" s="15">
-        <f>(R107/Q107)-1</f>
+        <f t="shared" si="11"/>
         <v>6.0246756650234046E-2</v>
       </c>
       <c r="S106" s="15">
-        <f>(S107/R107)-1</f>
+        <f t="shared" si="11"/>
         <v>9.30687442463356E-2</v>
       </c>
       <c r="T106" s="15">
-        <f>(T107/S107)-1</f>
+        <f t="shared" si="11"/>
         <v>8.7610528077603833E-2</v>
       </c>
       <c r="U106" s="15">
-        <f>(U107/T107)-1</f>
+        <f t="shared" si="11"/>
         <v>-0.1840966167124517</v>
       </c>
       <c r="V106" s="15">
-        <f>(V107/U107)-1</f>
+        <f t="shared" si="11"/>
         <v>0.31078404815650873</v>
       </c>
       <c r="W106" s="15">
-        <f>(W107/V107)-1</f>
+        <f t="shared" si="11"/>
         <v>1.1477783798843344E-2</v>
       </c>
       <c r="X106" s="15">
-        <f>(X107/W107)-1</f>
+        <f t="shared" si="11"/>
         <v>7.9932199285670968E-2</v>
       </c>
       <c r="Y106" s="15">
-        <f>(Y107/X107)-1</f>
+        <f t="shared" si="11"/>
         <v>-3.7540500241039498E-2</v>
       </c>
       <c r="Z106" s="15">
-        <f>(Z107/Y107)-1</f>
+        <f t="shared" si="11"/>
         <v>9.8037531232345376E-2</v>
       </c>
       <c r="AA106" s="15">
-        <f>(AA107/Z107)-1</f>
+        <f t="shared" si="11"/>
         <v>6.5746917926746251E-2</v>
       </c>
-      <c r="AB106" s="66">
-        <v>885300000</v>
-      </c>
-      <c r="AC106" s="66">
-        <v>1026000000</v>
-      </c>
-      <c r="AD106" s="66">
-        <v>1063000000</v>
-      </c>
-      <c r="AE106" s="66">
-        <v>1031000000</v>
-      </c>
-      <c r="AF106" s="66">
-        <v>1131000000</v>
-      </c>
-      <c r="AG106" s="28" t="s">
-        <v>166</v>
-      </c>
-      <c r="AH106" s="53" t="s">
-        <v>145</v>
-      </c>
-      <c r="AI106" s="54">
-        <f>(SUM(AB4:AF4)/5)</f>
-        <v>5.9319628088118172E-2</v>
+      <c r="AB106" s="65">
+        <f>(AB107/AA107)-1</f>
+        <v>9.7424412094065049E-2</v>
+      </c>
+      <c r="AC106" s="65">
+        <f>(AC107/AB107)-1</f>
+        <v>0.1462585034013606</v>
+      </c>
+      <c r="AD106" s="65">
+        <f>(AD107/AC107)-1</f>
+        <v>3.4619188921859445E-2</v>
+      </c>
+      <c r="AE106" s="65">
+        <f>(AE107/AD107)-1</f>
+        <v>-3.1548757170172137E-2</v>
+      </c>
+      <c r="AF106" s="65">
+        <f>(AF107/AE107)-1</f>
+        <v>8.5883514313919163E-2</v>
+      </c>
+      <c r="AG106" s="70">
+        <f>SUM(AB106:AF106)/5</f>
+        <v>6.6527372312206429E-2</v>
+      </c>
+      <c r="AH106" s="48" t="s">
+        <v>107</v>
+      </c>
+      <c r="AI106" s="49">
+        <f>(AI101*AI93)+(AI103*AI98)</f>
+        <v>7.7891388746860094E-2</v>
       </c>
     </row>
     <row r="107" spans="1:35" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="65" t="s">
-        <v>164</v>
+      <c r="A107" s="61" t="s">
+        <v>163</v>
       </c>
       <c r="B107" s="1">
         <v>-20200000</v>
@@ -13036,151 +13199,179 @@
       <c r="AA107" s="1">
         <v>803700000</v>
       </c>
-      <c r="AB107" s="28"/>
-      <c r="AC107" s="28"/>
-      <c r="AD107" s="28"/>
-      <c r="AE107" s="28"/>
-      <c r="AF107" s="68">
-        <f>AF106*(1+AI107)/(AI108-AI107)</f>
-        <v>21220149973.29105</v>
-      </c>
-      <c r="AG107" s="29" t="s">
-        <v>146</v>
-      </c>
-      <c r="AH107" s="55" t="s">
-        <v>147</v>
-      </c>
-      <c r="AI107" s="56">
-        <v>2.5000000000000001E-2</v>
+      <c r="AB107" s="62">
+        <v>882000000</v>
+      </c>
+      <c r="AC107" s="62">
+        <v>1011000000</v>
+      </c>
+      <c r="AD107" s="62">
+        <v>1046000000</v>
+      </c>
+      <c r="AE107" s="62">
+        <v>1013000000</v>
+      </c>
+      <c r="AF107" s="62">
+        <v>1100000000</v>
+      </c>
+      <c r="AG107" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="AH107" s="50" t="s">
+        <v>145</v>
+      </c>
+      <c r="AI107" s="51">
+        <f>(SUM(AB4:AF4)/5)</f>
+        <v>5.8134938315091755E-2</v>
       </c>
     </row>
     <row r="108" spans="1:35" ht="19" x14ac:dyDescent="0.25">
-      <c r="AB108" s="68">
-        <f t="shared" ref="AB108:AD108" si="12">AB107+AB106</f>
-        <v>885300000</v>
-      </c>
-      <c r="AC108" s="68">
-        <f t="shared" si="12"/>
-        <v>1026000000</v>
-      </c>
-      <c r="AD108" s="68">
-        <f t="shared" si="12"/>
-        <v>1063000000</v>
-      </c>
-      <c r="AE108" s="68">
-        <f>AE107+AE106</f>
-        <v>1031000000</v>
-      </c>
-      <c r="AF108" s="68">
-        <f>AF107+AF106</f>
-        <v>22351149973.29105</v>
+      <c r="AB108" s="28"/>
+      <c r="AC108" s="28"/>
+      <c r="AD108" s="28"/>
+      <c r="AE108" s="28"/>
+      <c r="AF108" s="64">
+        <f>AF107*(1+AI108)/(AI109-AI108)</f>
+        <v>21317269724.118073</v>
       </c>
       <c r="AG108" s="29" t="s">
-        <v>143</v>
-      </c>
-      <c r="AH108" s="57" t="s">
-        <v>148</v>
-      </c>
-      <c r="AI108" s="54">
-        <f>AI105</f>
-        <v>7.9630858003319149E-2</v>
+        <v>146</v>
+      </c>
+      <c r="AH108" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="AI108" s="53">
+        <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="109" spans="1:35" ht="19" x14ac:dyDescent="0.25">
-      <c r="AB109" s="58" t="s">
+      <c r="AB109" s="64">
+        <f>AB108+AB107</f>
+        <v>882000000</v>
+      </c>
+      <c r="AC109" s="64">
+        <f>AC108+AC107</f>
+        <v>1011000000</v>
+      </c>
+      <c r="AD109" s="64">
+        <f>AD108+AD107</f>
+        <v>1046000000</v>
+      </c>
+      <c r="AE109" s="64">
+        <f>AE108+AE107</f>
+        <v>1013000000</v>
+      </c>
+      <c r="AF109" s="64">
+        <f>AF108+AF107</f>
+        <v>22417269724.118073</v>
+      </c>
+      <c r="AG109" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="AH109" s="54" t="s">
+        <v>148</v>
+      </c>
+      <c r="AI109" s="51">
+        <f>AI106</f>
+        <v>7.7891388746860094E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:35" ht="19" x14ac:dyDescent="0.25">
+      <c r="AB110" s="74" t="s">
         <v>149</v>
       </c>
-      <c r="AC109" s="58"/>
-    </row>
-    <row r="110" spans="1:35" ht="20" x14ac:dyDescent="0.25">
-      <c r="AB110" s="59" t="s">
-        <v>150</v>
-      </c>
-      <c r="AC110" s="49">
-        <f>NPV(AI108,AB108,AC108,AD108,AE108,AF108)</f>
-        <v>18541636666.943272</v>
-      </c>
+      <c r="AC110" s="74"/>
     </row>
     <row r="111" spans="1:35" ht="20" x14ac:dyDescent="0.25">
-      <c r="AB111" s="59" t="s">
+      <c r="AB111" s="55" t="s">
+        <v>150</v>
+      </c>
+      <c r="AC111" s="46">
+        <f>NPV(AI109,AB109,AC109,AD109,AE109,AF109)</f>
+        <v>18680720044.722202</v>
+      </c>
+    </row>
+    <row r="112" spans="1:35" ht="20" x14ac:dyDescent="0.25">
+      <c r="AB112" s="55" t="s">
         <v>151</v>
       </c>
-      <c r="AC111" s="49">
+      <c r="AC112" s="46">
         <f>AA40</f>
         <v>980400000</v>
       </c>
     </row>
-    <row r="112" spans="1:35" ht="20" x14ac:dyDescent="0.25">
-      <c r="AB112" s="59" t="s">
+    <row r="113" spans="28:29" ht="20" x14ac:dyDescent="0.25">
+      <c r="AB113" s="55" t="s">
         <v>139</v>
       </c>
-      <c r="AC112" s="49">
-        <f>AI99</f>
+      <c r="AC113" s="46">
+        <f>AI100</f>
         <v>1789500000</v>
-      </c>
-    </row>
-    <row r="113" spans="28:29" ht="20" x14ac:dyDescent="0.25">
-      <c r="AB113" s="59" t="s">
-        <v>152</v>
-      </c>
-      <c r="AC113" s="49">
-        <f>AC110+AC111-AC112</f>
-        <v>17732536666.943272</v>
       </c>
     </row>
     <row r="114" spans="28:29" ht="20" x14ac:dyDescent="0.25">
-      <c r="AB114" s="59" t="s">
+      <c r="AB114" s="55" t="s">
+        <v>152</v>
+      </c>
+      <c r="AC114" s="46">
+        <f>AC111+AC112-AC113</f>
+        <v>17871620044.722202</v>
+      </c>
+    </row>
+    <row r="115" spans="28:29" ht="20" x14ac:dyDescent="0.25">
+      <c r="AB115" s="55" t="s">
         <v>157</v>
       </c>
-      <c r="AC114" s="59">
+      <c r="AC115" s="55">
         <f>AA34*(1+(AG16*5))</f>
         <v>93150646.3458101</v>
       </c>
     </row>
-    <row r="115" spans="28:29" ht="20" x14ac:dyDescent="0.25">
-      <c r="AB115" s="60" t="s">
+    <row r="116" spans="28:29" ht="20" x14ac:dyDescent="0.25">
+      <c r="AB116" s="56" t="s">
         <v>153</v>
       </c>
-      <c r="AC115" s="61">
-        <f>AC113/AC114</f>
-        <v>190.36407542588006</v>
-      </c>
-    </row>
-    <row r="116" spans="28:29" ht="20" x14ac:dyDescent="0.25">
-      <c r="AB116" s="59" t="s">
-        <v>154</v>
-      </c>
-      <c r="AC116" s="62" cm="1">
-        <f t="array" ref="AC116">_FV(A1,"Price")</f>
-        <v>222.45</v>
+      <c r="AC116" s="57">
+        <f>AC114/AC115</f>
+        <v>191.85717701169838</v>
       </c>
     </row>
     <row r="117" spans="28:29" ht="20" x14ac:dyDescent="0.25">
-      <c r="AB117" s="60" t="s">
-        <v>155</v>
-      </c>
-      <c r="AC117" s="63">
-        <f>AC115/AC116-1</f>
-        <v>-0.14423881579734743</v>
+      <c r="AB117" s="55" t="s">
+        <v>154</v>
+      </c>
+      <c r="AC117" s="58" cm="1">
+        <f t="array" ref="AC117">_FV(A1,"Price")</f>
+        <v>208.29</v>
       </c>
     </row>
     <row r="118" spans="28:29" ht="20" x14ac:dyDescent="0.25">
-      <c r="AB118" s="60" t="s">
+      <c r="AB118" s="56" t="s">
+        <v>155</v>
+      </c>
+      <c r="AC118" s="59">
+        <f>AC116/AC117-1</f>
+        <v>-7.889396028758755E-2</v>
+      </c>
+    </row>
+    <row r="119" spans="28:29" ht="20" x14ac:dyDescent="0.25">
+      <c r="AB119" s="56" t="s">
         <v>156</v>
       </c>
-      <c r="AC118" s="64" t="str">
-        <f>IF(AC115&gt;AC116,"BUY","SELL")</f>
+      <c r="AC119" s="60" t="str">
+        <f>IF(AC116&gt;AC117,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="AB109:AC109"/>
-    <mergeCell ref="AH83:AI83"/>
+  <mergeCells count="7">
     <mergeCell ref="AH84:AI84"/>
-    <mergeCell ref="AH93:AI93"/>
-    <mergeCell ref="AH98:AI98"/>
-    <mergeCell ref="AH104:AI104"/>
+    <mergeCell ref="AH85:AI85"/>
+    <mergeCell ref="AB110:AC110"/>
+    <mergeCell ref="AB104:AF104"/>
+    <mergeCell ref="AH105:AI105"/>
+    <mergeCell ref="AH99:AI99"/>
+    <mergeCell ref="AH94:AI94"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" tooltip="https://roic.ai/company/VRSN" display="ROIC.AI | VRSN" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -13237,7 +13428,7 @@
     <hyperlink ref="AA36" r:id="rId52" tooltip="https://www.sec.gov/Archives/edgar/data/1014473/000101447323000005/0001014473-23-000005-index.htm" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
     <hyperlink ref="AA74" r:id="rId53" tooltip="https://www.sec.gov/Archives/edgar/data/1014473/000101447323000005/0001014473-23-000005-index.htm" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
     <hyperlink ref="AB1" r:id="rId54" display="https://finbox.com/NASDAQGS:VRSN/explorer/revenue_proj" xr:uid="{26AF7307-BECB-0E44-8AE1-2752E05C2ACA}"/>
-    <hyperlink ref="AG106" r:id="rId55" xr:uid="{078C0F68-B5C7-1446-9E68-651EB590BB14}"/>
+    <hyperlink ref="AG107" r:id="rId55" xr:uid="{078C0F68-B5C7-1446-9E68-651EB590BB14}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId56"/>

--- a/Technology/Software/VeriSign.xlsx
+++ b/Technology/Software/VeriSign.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8933DD43-C093-E94E-B9FC-5C46C7170863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{035C2F75-DF09-384E-A95B-FFDBD5EC2EE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2666,38 +2666,23 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
-      <sheetName val="Technology - Software"/>
-      <sheetName val="Technology - Hardware"/>
+      <sheetName val="Software"/>
+      <sheetName val="Hardware"/>
+      <sheetName val="Consumer"/>
       <sheetName val="Healthcare"/>
       <sheetName val="Industrials"/>
-      <sheetName val="Commodity Stocks"/>
+      <sheetName val="Commodities"/>
+      <sheetName val="US Treasury Bonds"/>
       <sheetName val="Full Portfolio"/>
+      <sheetName val="Full Portfolio (Concentrated)"/>
       <sheetName val="Growth"/>
-      <sheetName val="ROIC"/>
       <sheetName val="Watchlist"/>
-      <sheetName val="US Treasury Bonds"/>
       <sheetName val="Wide Moats"/>
       <sheetName val="Sheet2"/>
       <sheetName val="GARP HF Buys"/>
       <sheetName val="Value HF Buys"/>
       <sheetName val="Aggressive Growth HF Buys"/>
       <sheetName val="Other HF Buys"/>
-      <sheetName val="Treasuries"/>
-      <sheetName val="Hardware"/>
-      <sheetName val="Software"/>
-      <sheetName val="Consumer"/>
-      <sheetName val="Financial Services"/>
-      <sheetName val="Real Estate"/>
-      <sheetName val="Fashion + Beauty"/>
-      <sheetName val="My Stocks"/>
-      <sheetName val="Top 12"/>
-      <sheetName val="Still Researching"/>
-      <sheetName val="Profitable Software"/>
-      <sheetName val="GARP"/>
-      <sheetName val="Value"/>
-      <sheetName val="Aggressive Growth"/>
-      <sheetName val="Other"/>
-      <sheetName val="Short List"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -2706,38 +2691,23 @@
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9">
+      <sheetData sheetId="6">
         <row r="8">
           <cell r="C8">
-            <v>4.7820000000000001E-2</v>
+            <v>4.9880000000000008E-2</v>
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
       <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18" refreshError="1"/>
-      <sheetData sheetId="19" refreshError="1"/>
-      <sheetData sheetId="20" refreshError="1"/>
-      <sheetData sheetId="21" refreshError="1"/>
-      <sheetData sheetId="22" refreshError="1"/>
-      <sheetData sheetId="23" refreshError="1"/>
-      <sheetData sheetId="24" refreshError="1"/>
-      <sheetData sheetId="25" refreshError="1"/>
-      <sheetData sheetId="26" refreshError="1"/>
-      <sheetData sheetId="27" refreshError="1"/>
-      <sheetData sheetId="28" refreshError="1"/>
-      <sheetData sheetId="29" refreshError="1"/>
-      <sheetData sheetId="30" refreshError="1"/>
-      <sheetData sheetId="31" refreshError="1"/>
+      <sheetData sheetId="16"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2864,12 +2834,12 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>229.72</v>
-    <v>169.24</v>
-    <v>0.93659999999999999</v>
-    <v>0.52</v>
-    <v>2.503E-3</v>
-    <v>-0.83</v>
-    <v>-3.9849999999999998E-3</v>
+    <v>174.41</v>
+    <v>0.93330000000000002</v>
+    <v>-3.54</v>
+    <v>-1.6725E-2</v>
+    <v>-0.68</v>
+    <v>-3.2669999999999999E-3</v>
     <v>USD</v>
     <v>VeriSign, Inc. is a global provider of domain name registry services and Internet infrastructure. The Company enables the security, stability, and resiliency of Internet infrastructure and services, including providing root zone maintainer services, operating two global Internet root servers, and providing registration services and authoritative resolution for the .com and .net top-level domains (TLDs), which support the majority of global e-commerce. The Company operates the authoritative directory of and/or the back-end systems for all .com, .net, .cc, .gov, .edu and .name domain names, among others. Its services allow individuals and organizations to establish their online identities, while providing the secure, always-on access they need to communicate and transact reliably with large-scale online audiences. The Company also provides internationalized domain name (IDN) services that enable Internet users to access domain names in characters representing their local language.</v>
     <v>914</v>
@@ -2877,25 +2847,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>ATTN: GENERAL COUNSEL, 12061 BLUEMONT WAY, RESTON, VA, 20190 US</v>
-    <v>208.785</v>
+    <v>212.14</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45209.94975498828</v>
+    <v>45219.897012592184</v>
     <v>0</v>
-    <v>206.83</v>
-    <v>21428100000</v>
+    <v>206.73</v>
+    <v>21829290000</v>
     <v>VERISIGN, INC.</v>
     <v>VERISIGN, INC.</v>
-    <v>207.45</v>
-    <v>30.712</v>
-    <v>207.77</v>
-    <v>208.29</v>
-    <v>207.46</v>
+    <v>212.14</v>
+    <v>31.286999999999999</v>
+    <v>211.66</v>
+    <v>208.12</v>
+    <v>207.44</v>
     <v>103133800</v>
     <v>VRSN</v>
     <v>VERISIGN, INC. (XNAS:VRSN)</v>
-    <v>374913</v>
-    <v>490644</v>
+    <v>634160</v>
+    <v>488298</v>
     <v>1995</v>
   </rv>
   <rv s="2">
@@ -3486,7 +3456,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="X2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AD13" sqref="AD13"/>
+      <selection pane="bottomRight" activeCell="AC15" sqref="AC15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5096,15 +5066,15 @@
       </c>
       <c r="AH16" s="30">
         <f>AI102/AA3</f>
-        <v>15.038318478489719</v>
+        <v>15.31987507895291</v>
       </c>
       <c r="AI16" s="30">
         <f>AI102/AA28</f>
-        <v>31.80186999109528</v>
+        <v>32.397284060552096</v>
       </c>
       <c r="AJ16" s="31">
         <f>AI102/AA107</f>
-        <v>26.661814109742441</v>
+        <v>27.160992907801418</v>
       </c>
     </row>
     <row r="17" spans="1:36" ht="19" x14ac:dyDescent="0.25">
@@ -5388,15 +5358,15 @@
       </c>
       <c r="AH19" s="30">
         <f>AI102/AB3</f>
-        <v>14.333177257525083</v>
+        <v>14.601531772575251</v>
       </c>
       <c r="AI19" s="30">
         <f>AI102/AB28</f>
-        <v>29.074762550881953</v>
+        <v>29.619118046132972</v>
       </c>
       <c r="AJ19" s="31">
         <f>AI102/AB105</f>
-        <v>25.404012521929037</v>
+        <v>25.879641989015372</v>
       </c>
     </row>
     <row r="20" spans="1:36" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -5729,7 +5699,7 @@
       </c>
       <c r="AJ22" s="33">
         <f>AB107/AI102</f>
-        <v>4.1160905539921876E-2</v>
+        <v>4.0404429095036991E-2</v>
       </c>
     </row>
     <row r="23" spans="1:36" ht="19" x14ac:dyDescent="0.25">
@@ -12031,7 +12001,7 @@
       </c>
       <c r="AI95" s="66">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.7820000000000001E-2</v>
+        <v>4.9880000000000008E-2</v>
       </c>
     </row>
     <row r="96" spans="1:35" ht="20" x14ac:dyDescent="0.25">
@@ -12121,7 +12091,7 @@
       </c>
       <c r="AI96" s="45" cm="1">
         <f t="array" ref="AI96">_FV(A1,"Beta")</f>
-        <v>0.93659999999999999</v>
+        <v>0.93330000000000002</v>
       </c>
     </row>
     <row r="97" spans="1:35" ht="20" x14ac:dyDescent="0.25">
@@ -12300,7 +12270,7 @@
       </c>
       <c r="AI98" s="42">
         <f>(AI95)+((AI96)*(AI97-AI95))</f>
-        <v>8.1706188000000013E-2</v>
+        <v>8.1724195999999999E-2</v>
       </c>
     </row>
     <row r="99" spans="1:35" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -12567,7 +12537,7 @@
       </c>
       <c r="AI101" s="42">
         <f>AI100/AI104</f>
-        <v>7.7075149886293159E-2</v>
+        <v>7.5765947366482359E-2</v>
       </c>
     </row>
     <row r="102" spans="1:35" ht="20" x14ac:dyDescent="0.25">
@@ -12657,7 +12627,7 @@
       </c>
       <c r="AI102" s="46" cm="1">
         <f t="array" ref="AI102">_FV(A1,"Market cap",TRUE)</f>
-        <v>21428100000</v>
+        <v>21829290000</v>
       </c>
     </row>
     <row r="103" spans="1:35" ht="20" x14ac:dyDescent="0.25">
@@ -12747,7 +12717,7 @@
       </c>
       <c r="AI103" s="42">
         <f>AI102/AI104</f>
-        <v>0.92292485011370684</v>
+        <v>0.92423405263351766</v>
       </c>
     </row>
     <row r="104" spans="1:35" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -12844,7 +12814,7 @@
       </c>
       <c r="AI104" s="47">
         <f>AI100+AI102</f>
-        <v>23217600000</v>
+        <v>23618790000</v>
       </c>
     </row>
     <row r="105" spans="1:35" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -13114,7 +13084,7 @@
       </c>
       <c r="AI106" s="49">
         <f>(AI101*AI93)+(AI103*AI98)</f>
-        <v>7.7891388746860094E-2</v>
+        <v>7.7972830732951956E-2</v>
       </c>
     </row>
     <row r="107" spans="1:35" ht="19" x14ac:dyDescent="0.25">
@@ -13232,7 +13202,7 @@
       <c r="AE108" s="28"/>
       <c r="AF108" s="64">
         <f>AF107*(1+AI108)/(AI109-AI108)</f>
-        <v>21317269724.118073</v>
+        <v>21284495927.430855</v>
       </c>
       <c r="AG108" s="29" t="s">
         <v>146</v>
@@ -13263,7 +13233,7 @@
       </c>
       <c r="AF109" s="64">
         <f>AF108+AF107</f>
-        <v>22417269724.118073</v>
+        <v>22384495927.430855</v>
       </c>
       <c r="AG109" s="29" t="s">
         <v>143</v>
@@ -13273,7 +13243,7 @@
       </c>
       <c r="AI109" s="51">
         <f>AI106</f>
-        <v>7.7891388746860094E-2</v>
+        <v>7.7972830732951956E-2</v>
       </c>
     </row>
     <row r="110" spans="1:35" ht="19" x14ac:dyDescent="0.25">
@@ -13288,7 +13258,7 @@
       </c>
       <c r="AC111" s="46">
         <f>NPV(AI109,AB109,AC109,AD109,AE109,AF109)</f>
-        <v>18680720044.722202</v>
+        <v>18651775822.156128</v>
       </c>
     </row>
     <row r="112" spans="1:35" ht="20" x14ac:dyDescent="0.25">
@@ -13315,7 +13285,7 @@
       </c>
       <c r="AC114" s="46">
         <f>AC111+AC112-AC113</f>
-        <v>17871620044.722202</v>
+        <v>17842675822.156128</v>
       </c>
     </row>
     <row r="115" spans="28:29" ht="20" x14ac:dyDescent="0.25">
@@ -13333,7 +13303,7 @@
       </c>
       <c r="AC116" s="57">
         <f>AC114/AC115</f>
-        <v>191.85717701169838</v>
+        <v>191.54645214073372</v>
       </c>
     </row>
     <row r="117" spans="28:29" ht="20" x14ac:dyDescent="0.25">
@@ -13342,7 +13312,7 @@
       </c>
       <c r="AC117" s="58" cm="1">
         <f t="array" ref="AC117">_FV(A1,"Price")</f>
-        <v>208.29</v>
+        <v>208.12</v>
       </c>
     </row>
     <row r="118" spans="28:29" ht="20" x14ac:dyDescent="0.25">
@@ -13351,7 +13321,7 @@
       </c>
       <c r="AC118" s="59">
         <f>AC116/AC117-1</f>
-        <v>-7.889396028758755E-2</v>
+        <v>-7.9634575529820673E-2</v>
       </c>
     </row>
     <row r="119" spans="28:29" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Software/VeriSign.xlsx
+++ b/Technology/Software/VeriSign.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{035C2F75-DF09-384E-A95B-FFDBD5EC2EE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{404F9C51-0302-FF4C-BEA0-CB246FBB22B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2669,13 +2669,15 @@
       <sheetName val="Software"/>
       <sheetName val="Hardware"/>
       <sheetName val="Consumer"/>
+      <sheetName val="Financials"/>
       <sheetName val="Healthcare"/>
       <sheetName val="Industrials"/>
       <sheetName val="Commodities"/>
       <sheetName val="US Treasury Bonds"/>
-      <sheetName val="Full Portfolio"/>
+      <sheetName val="Growth"/>
       <sheetName val="Full Portfolio (Concentrated)"/>
-      <sheetName val="Growth"/>
+      <sheetName val="Value"/>
+      <sheetName val="Concentrated"/>
       <sheetName val="Watchlist"/>
       <sheetName val="Wide Moats"/>
       <sheetName val="Sheet2"/>
@@ -2691,14 +2693,14 @@
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
-      <sheetData sheetId="6">
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.9880000000000008E-2</v>
+            <v>4.8399999999999999E-2</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
@@ -2708,6 +2710,8 @@
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3453,7 +3457,7 @@
   <dimension ref="A1:AJ119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="X2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="AC15" sqref="AC15"/>
@@ -12001,7 +12005,7 @@
       </c>
       <c r="AI95" s="66">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.9880000000000008E-2</v>
+        <v>4.8399999999999999E-2</v>
       </c>
     </row>
     <row r="96" spans="1:35" ht="20" x14ac:dyDescent="0.25">
@@ -12270,7 +12274,7 @@
       </c>
       <c r="AI98" s="42">
         <f>(AI95)+((AI96)*(AI97-AI95))</f>
-        <v>8.1724195999999999E-2</v>
+        <v>8.162548E-2</v>
       </c>
     </row>
     <row r="99" spans="1:35" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -13084,7 +13088,7 @@
       </c>
       <c r="AI106" s="49">
         <f>(AI101*AI93)+(AI103*AI98)</f>
-        <v>7.7972830732951956E-2</v>
+        <v>7.7881594044212188E-2</v>
       </c>
     </row>
     <row r="107" spans="1:35" ht="19" x14ac:dyDescent="0.25">
@@ -13202,7 +13206,7 @@
       <c r="AE108" s="28"/>
       <c r="AF108" s="64">
         <f>AF107*(1+AI108)/(AI109-AI108)</f>
-        <v>21284495927.430855</v>
+        <v>21321218098.254421</v>
       </c>
       <c r="AG108" s="29" t="s">
         <v>146</v>
@@ -13233,7 +13237,7 @@
       </c>
       <c r="AF109" s="64">
         <f>AF108+AF107</f>
-        <v>22384495927.430855</v>
+        <v>22421218098.254421</v>
       </c>
       <c r="AG109" s="29" t="s">
         <v>143</v>
@@ -13243,7 +13247,7 @@
       </c>
       <c r="AI109" s="51">
         <f>AI106</f>
-        <v>7.7972830732951956E-2</v>
+        <v>7.7881594044212188E-2</v>
       </c>
     </row>
     <row r="110" spans="1:35" ht="19" x14ac:dyDescent="0.25">
@@ -13258,7 +13262,7 @@
       </c>
       <c r="AC111" s="46">
         <f>NPV(AI109,AB109,AC109,AD109,AE109,AF109)</f>
-        <v>18651775822.156128</v>
+        <v>18684207060.975525</v>
       </c>
     </row>
     <row r="112" spans="1:35" ht="20" x14ac:dyDescent="0.25">
@@ -13285,7 +13289,7 @@
       </c>
       <c r="AC114" s="46">
         <f>AC111+AC112-AC113</f>
-        <v>17842675822.156128</v>
+        <v>17875107060.975525</v>
       </c>
     </row>
     <row r="115" spans="28:29" ht="20" x14ac:dyDescent="0.25">
@@ -13303,7 +13307,7 @@
       </c>
       <c r="AC116" s="57">
         <f>AC114/AC115</f>
-        <v>191.54645214073372</v>
+        <v>191.89461117227711</v>
       </c>
     </row>
     <row r="117" spans="28:29" ht="20" x14ac:dyDescent="0.25">
@@ -13321,7 +13325,7 @@
       </c>
       <c r="AC118" s="59">
         <f>AC116/AC117-1</f>
-        <v>-7.9634575529820673E-2</v>
+        <v>-7.796169915300255E-2</v>
       </c>
     </row>
     <row r="119" spans="28:29" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Software/VeriSign.xlsx
+++ b/Technology/Software/VeriSign.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{404F9C51-0302-FF4C-BEA0-CB246FBB22B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{246E0E17-B56B-9843-8D24-5D79DF28547E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="168">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -567,9 +567,6 @@
     <t>Levered FCF</t>
   </si>
   <si>
-    <t>Unlevered FCF Proj</t>
-  </si>
-  <si>
     <t>Unlevered FCF Forecast</t>
   </si>
   <si>
@@ -577,6 +574,9 @@
   </si>
   <si>
     <t>5Y Fwd Income CAGR</t>
+  </si>
+  <si>
+    <t>5Y Fwd FCF CAGR</t>
   </si>
 </sst>
 </file>
@@ -890,7 +890,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -940,7 +940,6 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1040,8 +1039,14 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="165" fontId="11" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1134,7 +1139,7 @@
           <c:x val="9.2998347107437998E-2"/>
           <c:y val="0.14258367934805524"/>
           <c:w val="0.8461752066115702"/>
-          <c:h val="0.64133789034608724"/>
+          <c:h val="0.6154165657831524"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -2624,14 +2629,14 @@
     <xdr:from>
       <xdr:col>29</xdr:col>
       <xdr:colOff>15874</xdr:colOff>
-      <xdr:row>108</xdr:row>
-      <xdr:rowOff>223838</xdr:rowOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>49213</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
       <xdr:colOff>1603374</xdr:colOff>
-      <xdr:row>128</xdr:row>
-      <xdr:rowOff>15875</xdr:rowOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2674,13 +2679,10 @@
       <sheetName val="Industrials"/>
       <sheetName val="Commodities"/>
       <sheetName val="US Treasury Bonds"/>
-      <sheetName val="Growth"/>
-      <sheetName val="Full Portfolio (Concentrated)"/>
-      <sheetName val="Value"/>
-      <sheetName val="Concentrated"/>
+      <sheetName val="High Growth"/>
+      <sheetName val="GARP"/>
       <sheetName val="Watchlist"/>
-      <sheetName val="Wide Moats"/>
-      <sheetName val="Sheet2"/>
+      <sheetName val="Highest Quality"/>
       <sheetName val="GARP HF Buys"/>
       <sheetName val="Value HF Buys"/>
       <sheetName val="Aggressive Growth HF Buys"/>
@@ -2697,7 +2699,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.8399999999999999E-2</v>
+            <v>4.8750000000000002E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2709,9 +2711,6 @@
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2838,12 +2837,10 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>229.72</v>
-    <v>174.41</v>
-    <v>0.93330000000000002</v>
-    <v>-3.54</v>
-    <v>-1.6725E-2</v>
-    <v>-0.68</v>
-    <v>-3.2669999999999999E-3</v>
+    <v>175.2</v>
+    <v>0.93069999999999997</v>
+    <v>5.82</v>
+    <v>2.9918E-2</v>
     <v>USD</v>
     <v>VeriSign, Inc. is a global provider of domain name registry services and Internet infrastructure. The Company enables the security, stability, and resiliency of Internet infrastructure and services, including providing root zone maintainer services, operating two global Internet root servers, and providing registration services and authoritative resolution for the .com and .net top-level domains (TLDs), which support the majority of global e-commerce. The Company operates the authoritative directory of and/or the back-end systems for all .com, .net, .cc, .gov, .edu and .name domain names, among others. Its services allow individuals and organizations to establish their online identities, while providing the secure, always-on access they need to communicate and transact reliably with large-scale online audiences. The Company also provides internationalized domain name (IDN) services that enable Internet users to access domain names in characters representing their local language.</v>
     <v>914</v>
@@ -2851,25 +2848,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>ATTN: GENERAL COUNSEL, 12061 BLUEMONT WAY, RESTON, VA, 20190 US</v>
-    <v>212.14</v>
+    <v>201.82</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45219.897012592184</v>
+    <v>45232.905274096876</v>
     <v>0</v>
-    <v>206.73</v>
-    <v>21829290000</v>
+    <v>195.39</v>
+    <v>20455735000</v>
     <v>VERISIGN, INC.</v>
     <v>VERISIGN, INC.</v>
-    <v>212.14</v>
-    <v>31.286999999999999</v>
-    <v>211.66</v>
-    <v>208.12</v>
-    <v>207.44</v>
-    <v>103133800</v>
+    <v>195.39</v>
+    <v>28.5701</v>
+    <v>194.53</v>
+    <v>200.35</v>
+    <v>102100000</v>
     <v>VRSN</v>
     <v>VERISIGN, INC. (XNAS:VRSN)</v>
-    <v>634160</v>
-    <v>488298</v>
+    <v>529880</v>
+    <v>537025</v>
     <v>1995</v>
   </rv>
   <rv s="2">
@@ -2901,8 +2897,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2923,7 +2917,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2940,7 +2933,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="45">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2951,16 +2944,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -3026,19 +3016,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Delayed 15 minutes</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -3083,9 +3067,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -3093,9 +3074,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -3457,10 +3435,10 @@
   <dimension ref="A1:AJ119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="Y99" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AC15" sqref="AC15"/>
+      <selection pane="bottomRight" activeCell="AJ125" sqref="AJ125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3777,103 +3755,103 @@
         <v>93</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="63">
+      <c r="C4" s="62">
         <f>(C3/B3)-1</f>
         <v>3.1382978723404253</v>
       </c>
-      <c r="D4" s="63">
+      <c r="D4" s="62">
         <f>(D3/C3)-1</f>
         <v>1.1793316195372752</v>
       </c>
-      <c r="E4" s="63">
+      <c r="E4" s="62">
         <f>(E3/D3)-1</f>
         <v>4.6002406341417386</v>
       </c>
-      <c r="F4" s="63">
+      <c r="F4" s="62">
         <f t="shared" ref="F4:AF4" si="0">(F3/E3)-1</f>
         <v>1.0716816284232653</v>
       </c>
-      <c r="G4" s="63">
+      <c r="G4" s="62">
         <f t="shared" si="0"/>
         <v>0.24208287411902019</v>
       </c>
-      <c r="H4" s="63">
+      <c r="H4" s="62">
         <f t="shared" si="0"/>
         <v>-0.13660667218917089</v>
       </c>
-      <c r="I4" s="63">
+      <c r="I4" s="62">
         <f t="shared" si="0"/>
         <v>0.10587515880088749</v>
       </c>
-      <c r="J4" s="63">
+      <c r="J4" s="62">
         <f t="shared" si="0"/>
         <v>0.37981662387318837</v>
       </c>
-      <c r="K4" s="63">
+      <c r="K4" s="62">
         <f t="shared" si="0"/>
         <v>-2.1276873352743197E-2</v>
       </c>
-      <c r="L4" s="63">
+      <c r="L4" s="62">
         <f t="shared" si="0"/>
         <v>-5.0125408744903233E-2</v>
       </c>
-      <c r="M4" s="63">
+      <c r="M4" s="62">
         <f t="shared" si="0"/>
         <v>-0.35725317769495069</v>
       </c>
-      <c r="N4" s="63">
+      <c r="N4" s="62">
         <f t="shared" si="0"/>
         <v>7.1624719907251055E-2</v>
       </c>
-      <c r="O4" s="63">
+      <c r="O4" s="62">
         <f t="shared" si="0"/>
         <v>-0.3396415164090707</v>
       </c>
-      <c r="P4" s="63">
+      <c r="P4" s="62">
         <f t="shared" si="0"/>
         <v>0.13429761173590693</v>
       </c>
-      <c r="Q4" s="63">
+      <c r="Q4" s="62">
         <f t="shared" si="0"/>
         <v>0.1316281033915474</v>
       </c>
-      <c r="R4" s="63">
+      <c r="R4" s="62">
         <f t="shared" si="0"/>
         <v>0.10473424665061026</v>
       </c>
-      <c r="S4" s="63">
+      <c r="S4" s="62">
         <f t="shared" si="0"/>
         <v>4.6659005872009551E-2</v>
       </c>
-      <c r="T4" s="63">
+      <c r="T4" s="62">
         <f t="shared" si="0"/>
         <v>4.8755738196664344E-2</v>
       </c>
-      <c r="U4" s="63">
+      <c r="U4" s="62">
         <f t="shared" si="0"/>
         <v>7.8160900010006085E-2</v>
       </c>
-      <c r="V4" s="63">
+      <c r="V4" s="62">
         <f t="shared" si="0"/>
         <v>2.007412226058003E-2</v>
       </c>
-      <c r="W4" s="63">
+      <c r="W4" s="62">
         <f t="shared" si="0"/>
         <v>4.2806809745128183E-2</v>
       </c>
-      <c r="X4" s="63">
+      <c r="X4" s="62">
         <f t="shared" si="0"/>
         <v>1.3738622137684064E-2</v>
       </c>
-      <c r="Y4" s="63">
+      <c r="Y4" s="62">
         <f t="shared" si="0"/>
         <v>2.7110544216306209E-2</v>
       </c>
-      <c r="Z4" s="63">
+      <c r="Z4" s="62">
         <f t="shared" si="0"/>
         <v>4.9424055295750779E-2</v>
       </c>
-      <c r="AA4" s="63">
+      <c r="AA4" s="62">
         <f t="shared" si="0"/>
         <v>7.3309550639662158E-2</v>
       </c>
@@ -4079,20 +4057,20 @@
       <c r="AA6" s="10">
         <v>1224200000</v>
       </c>
-      <c r="AB6" s="34">
+      <c r="AB6" s="33">
         <f>AB3*AB7</f>
         <v>1292876000</v>
       </c>
-      <c r="AG6" s="68" t="s">
+      <c r="AG6" s="67" t="s">
         <v>112</v>
       </c>
-      <c r="AH6" s="69" t="s">
+      <c r="AH6" s="68" t="s">
         <v>113</v>
       </c>
-      <c r="AI6" s="69" t="s">
+      <c r="AI6" s="68" t="s">
         <v>114</v>
       </c>
-      <c r="AJ6" s="69" t="s">
+      <c r="AJ6" s="68" t="s">
         <v>115</v>
       </c>
     </row>
@@ -5068,17 +5046,17 @@
         <f>(AA35+Z35+Y35+X35+W35)/5</f>
         <v>-2.7498803063314627E-2</v>
       </c>
-      <c r="AH16" s="30">
+      <c r="AH16" s="29">
         <f>AI102/AA3</f>
-        <v>15.31987507895291</v>
-      </c>
-      <c r="AI16" s="30">
+        <v>14.355909186609587</v>
+      </c>
+      <c r="AI16" s="29">
         <f>AI102/AA28</f>
-        <v>32.397284060552096</v>
-      </c>
-      <c r="AJ16" s="31">
+        <v>30.358763728109231</v>
+      </c>
+      <c r="AJ16" s="30">
         <f>AI102/AA107</f>
-        <v>27.160992907801418</v>
+        <v>25.45195346522334</v>
       </c>
     </row>
     <row r="17" spans="1:36" ht="19" x14ac:dyDescent="0.25">
@@ -5341,36 +5319,36 @@
       <c r="AA19" s="10">
         <v>1002400000</v>
       </c>
-      <c r="AB19" s="34">
+      <c r="AB19" s="33">
         <v>1094000000</v>
       </c>
-      <c r="AC19" s="34">
+      <c r="AC19" s="33">
         <v>1190000000</v>
       </c>
-      <c r="AD19" s="34">
+      <c r="AD19" s="33">
         <v>1267000000</v>
       </c>
-      <c r="AE19" s="34">
+      <c r="AE19" s="33">
         <v>1266000000</v>
       </c>
-      <c r="AF19" s="34">
+      <c r="AF19" s="33">
         <v>1347000000</v>
       </c>
       <c r="AG19" s="26">
         <f>AA40-AA56-AA61</f>
         <v>-809100000</v>
       </c>
-      <c r="AH19" s="30">
+      <c r="AH19" s="29">
         <f>AI102/AB3</f>
-        <v>14.601531772575251</v>
-      </c>
-      <c r="AI19" s="30">
+        <v>13.682765886287626</v>
+      </c>
+      <c r="AI19" s="29">
         <f>AI102/AB28</f>
-        <v>29.619118046132972</v>
-      </c>
-      <c r="AJ19" s="31">
+        <v>27.755407055630936</v>
+      </c>
+      <c r="AJ19" s="30">
         <f>AI102/AB105</f>
-        <v>25.879641989015372</v>
+        <v>34672702749.433105</v>
       </c>
     </row>
     <row r="20" spans="1:36" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -5581,34 +5559,34 @@
       <c r="AA21" s="2">
         <v>0.70350000000000001</v>
       </c>
-      <c r="AB21" s="35">
+      <c r="AB21" s="34">
         <f>AB19/AB3</f>
         <v>0.73177257525083617</v>
       </c>
-      <c r="AC21" s="35">
+      <c r="AC21" s="34">
         <f t="shared" ref="AC21:AF21" si="4">AC19/AC3</f>
         <v>0.73275862068965514</v>
       </c>
-      <c r="AD21" s="35">
+      <c r="AD21" s="34">
         <f t="shared" si="4"/>
         <v>0.73364215402431965</v>
       </c>
-      <c r="AE21" s="35">
+      <c r="AE21" s="34">
         <f t="shared" si="4"/>
         <v>0.7064732142857143</v>
       </c>
-      <c r="AF21" s="35">
+      <c r="AF21" s="34">
         <f t="shared" si="4"/>
         <v>0.71307570142932764</v>
       </c>
-      <c r="AH21" s="67" t="s">
-        <v>167</v>
+      <c r="AH21" s="66" t="s">
+        <v>166</v>
       </c>
       <c r="AI21" s="18" t="s">
         <v>161</v>
       </c>
       <c r="AJ21" s="19" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="22" spans="1:36" ht="19" x14ac:dyDescent="0.25">
@@ -5697,13 +5675,13 @@
         <f>SUM(AB29:AF29)/5</f>
         <v>8.0551709672079364E-2</v>
       </c>
-      <c r="AI22" s="32">
+      <c r="AI22" s="31">
         <f>(-1*AA98)/AI102</f>
         <v>0</v>
       </c>
-      <c r="AJ22" s="33">
+      <c r="AJ22" s="32">
         <f>AB107/AI102</f>
-        <v>4.0404429095036991E-2</v>
+        <v>4.3117492478270764E-2</v>
       </c>
     </row>
     <row r="23" spans="1:36" ht="19" x14ac:dyDescent="0.25">
@@ -6203,19 +6181,19 @@
       <c r="AA28" s="11">
         <v>673800000</v>
       </c>
-      <c r="AB28" s="36">
+      <c r="AB28" s="35">
         <v>737000000</v>
       </c>
-      <c r="AC28" s="36">
+      <c r="AC28" s="35">
         <v>850000000</v>
       </c>
-      <c r="AD28" s="36">
+      <c r="AD28" s="35">
         <v>899000000</v>
       </c>
-      <c r="AE28" s="36">
+      <c r="AE28" s="35">
         <v>928000000</v>
       </c>
-      <c r="AF28" s="36">
+      <c r="AF28" s="35">
         <v>989000000</v>
       </c>
     </row>
@@ -6427,23 +6405,23 @@
       <c r="AA30" s="2">
         <v>0.47289999999999999</v>
       </c>
-      <c r="AB30" s="37">
+      <c r="AB30" s="36">
         <f>AB28/AB3</f>
         <v>0.49297658862876254</v>
       </c>
-      <c r="AC30" s="37">
+      <c r="AC30" s="36">
         <f t="shared" ref="AC30:AF30" si="6">AC28/AC3</f>
         <v>0.52339901477832518</v>
       </c>
-      <c r="AD30" s="37">
+      <c r="AD30" s="36">
         <f t="shared" si="6"/>
         <v>0.52055587724377528</v>
       </c>
-      <c r="AE30" s="37">
+      <c r="AE30" s="36">
         <f t="shared" si="6"/>
         <v>0.5178571428571429</v>
       </c>
-      <c r="AF30" s="37">
+      <c r="AF30" s="36">
         <f t="shared" si="6"/>
         <v>0.52355743779777664</v>
       </c>
@@ -6530,19 +6508,19 @@
       <c r="AA31" s="12">
         <v>6.24</v>
       </c>
-      <c r="AB31" s="38">
+      <c r="AB31" s="37">
         <v>7.15</v>
       </c>
-      <c r="AC31" s="38">
+      <c r="AC31" s="37">
         <v>8.24</v>
       </c>
-      <c r="AD31" s="38">
+      <c r="AD31" s="37">
         <v>8.7200000000000006</v>
       </c>
-      <c r="AE31" s="38">
+      <c r="AE31" s="37">
         <v>9</v>
       </c>
-      <c r="AF31" s="38">
+      <c r="AF31" s="37">
         <v>9.59</v>
       </c>
     </row>
@@ -10993,10 +10971,10 @@
       <c r="AA84" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AH84" s="71" t="s">
+      <c r="AH84" s="70" t="s">
         <v>125</v>
       </c>
-      <c r="AI84" s="72"/>
+      <c r="AI84" s="71"/>
     </row>
     <row r="85" spans="1:35" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -11080,10 +11058,10 @@
       <c r="AA85" s="1">
         <v>46300000</v>
       </c>
-      <c r="AH85" s="73" t="s">
+      <c r="AH85" s="72" t="s">
         <v>126</v>
       </c>
-      <c r="AI85" s="73"/>
+      <c r="AI85" s="72"/>
     </row>
     <row r="86" spans="1:35" ht="20" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
@@ -11167,10 +11145,10 @@
       <c r="AA86" s="1">
         <v>-3900000</v>
       </c>
-      <c r="AH86" s="39" t="s">
+      <c r="AH86" s="38" t="s">
         <v>127</v>
       </c>
-      <c r="AI86" s="40">
+      <c r="AI86" s="39">
         <f>AA17</f>
         <v>75300000</v>
       </c>
@@ -11257,10 +11235,10 @@
       <c r="AA87" s="10">
         <v>831100000</v>
       </c>
-      <c r="AH87" s="39" t="s">
+      <c r="AH87" s="38" t="s">
         <v>128</v>
       </c>
-      <c r="AI87" s="40">
+      <c r="AI87" s="39">
         <f>AA56</f>
         <v>0</v>
       </c>
@@ -11347,10 +11325,10 @@
       <c r="AA88" s="1">
         <v>-27400000</v>
       </c>
-      <c r="AH88" s="39" t="s">
+      <c r="AH88" s="38" t="s">
         <v>129</v>
       </c>
-      <c r="AI88" s="40">
+      <c r="AI88" s="39">
         <f>AA61</f>
         <v>1789500000</v>
       </c>
@@ -11463,10 +11441,10 @@
         <f t="shared" si="9"/>
         <v>1.9229419608393573E-2</v>
       </c>
-      <c r="AH89" s="41" t="s">
+      <c r="AH89" s="40" t="s">
         <v>130</v>
       </c>
-      <c r="AI89" s="42">
+      <c r="AI89" s="41">
         <f>AI86/(AI87+AI88)</f>
         <v>4.2078792958927073E-2</v>
       </c>
@@ -11553,10 +11531,10 @@
       <c r="AA90" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AH90" s="39" t="s">
+      <c r="AH90" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="AI90" s="40">
+      <c r="AI90" s="39">
         <f>AA27</f>
         <v>206400000</v>
       </c>
@@ -11643,10 +11621,10 @@
       <c r="AA91" s="1">
         <v>-1338400000</v>
       </c>
-      <c r="AH91" s="39" t="s">
+      <c r="AH91" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="AI91" s="40">
+      <c r="AI91" s="39">
         <f>AA25</f>
         <v>880200000</v>
       </c>
@@ -11733,10 +11711,10 @@
       <c r="AA92" s="1">
         <v>1721500000</v>
       </c>
-      <c r="AH92" s="41" t="s">
+      <c r="AH92" s="40" t="s">
         <v>131</v>
       </c>
-      <c r="AI92" s="42">
+      <c r="AI92" s="41">
         <f>AI90/AI91</f>
         <v>0.23449216087252897</v>
       </c>
@@ -11823,10 +11801,10 @@
       <c r="AA93" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AH93" s="41" t="s">
+      <c r="AH93" s="40" t="s">
         <v>132</v>
       </c>
-      <c r="AI93" s="42">
+      <c r="AI93" s="41">
         <f>AI89*(1-AI92)</f>
         <v>3.2211645871080503E-2</v>
       </c>
@@ -11913,10 +11891,10 @@
       <c r="AA94" s="10">
         <v>355700000</v>
       </c>
-      <c r="AH94" s="73" t="s">
+      <c r="AH94" s="72" t="s">
         <v>133</v>
       </c>
-      <c r="AI94" s="73"/>
+      <c r="AI94" s="72"/>
     </row>
     <row r="95" spans="1:35" ht="20" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
@@ -12000,12 +11978,12 @@
       <c r="AA95" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AH95" s="39" t="s">
+      <c r="AH95" s="38" t="s">
         <v>134</v>
       </c>
-      <c r="AI95" s="66">
+      <c r="AI95" s="65">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.8399999999999999E-2</v>
+        <v>4.8750000000000002E-2</v>
       </c>
     </row>
     <row r="96" spans="1:35" ht="20" x14ac:dyDescent="0.25">
@@ -12090,12 +12068,12 @@
       <c r="AA96" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AH96" s="44" t="s">
+      <c r="AH96" s="43" t="s">
         <v>135</v>
       </c>
-      <c r="AI96" s="45" cm="1">
+      <c r="AI96" s="44" cm="1">
         <f t="array" ref="AI96">_FV(A1,"Beta")</f>
-        <v>0.93330000000000002</v>
+        <v>0.93069999999999997</v>
       </c>
     </row>
     <row r="97" spans="1:35" ht="20" x14ac:dyDescent="0.25">
@@ -12180,10 +12158,10 @@
       <c r="AA97" s="1">
         <v>-1048100000</v>
       </c>
-      <c r="AH97" s="39" t="s">
+      <c r="AH97" s="38" t="s">
         <v>136</v>
       </c>
-      <c r="AI97" s="43">
+      <c r="AI97" s="42">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -12269,12 +12247,12 @@
       <c r="AA98" s="1">
         <v>0</v>
       </c>
-      <c r="AH98" s="41" t="s">
+      <c r="AH98" s="40" t="s">
         <v>137</v>
       </c>
-      <c r="AI98" s="42">
+      <c r="AI98" s="41">
         <f>(AI95)+((AI96)*(AI97-AI95))</f>
-        <v>8.162548E-2</v>
+        <v>8.155717500000001E-2</v>
       </c>
     </row>
     <row r="99" spans="1:35" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -12359,10 +12337,10 @@
       <c r="AA99" s="1">
         <v>12300000</v>
       </c>
-      <c r="AH99" s="73" t="s">
+      <c r="AH99" s="72" t="s">
         <v>138</v>
       </c>
-      <c r="AI99" s="73"/>
+      <c r="AI99" s="72"/>
     </row>
     <row r="100" spans="1:35" ht="20" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
@@ -12446,10 +12424,10 @@
       <c r="AA100" s="10">
         <v>-1035800000</v>
       </c>
-      <c r="AH100" s="39" t="s">
+      <c r="AH100" s="38" t="s">
         <v>139</v>
       </c>
-      <c r="AI100" s="40">
+      <c r="AI100" s="39">
         <f>AI87+AI88</f>
         <v>1789500000</v>
       </c>
@@ -12536,12 +12514,12 @@
       <c r="AA101" s="1">
         <v>-800000</v>
       </c>
-      <c r="AH101" s="41" t="s">
+      <c r="AH101" s="40" t="s">
         <v>140</v>
       </c>
-      <c r="AI101" s="42">
+      <c r="AI101" s="41">
         <f>AI100/AI104</f>
-        <v>7.5765947366482359E-2</v>
+        <v>8.0444194003794517E-2</v>
       </c>
     </row>
     <row r="102" spans="1:35" ht="20" x14ac:dyDescent="0.25">
@@ -12626,12 +12604,12 @@
       <c r="AA102" s="10">
         <v>150200000</v>
       </c>
-      <c r="AH102" s="44" t="s">
+      <c r="AH102" s="43" t="s">
         <v>141</v>
       </c>
-      <c r="AI102" s="46" cm="1">
+      <c r="AI102" s="45" cm="1">
         <f t="array" ref="AI102">_FV(A1,"Market cap",TRUE)</f>
-        <v>21829290000</v>
+        <v>20455735000</v>
       </c>
     </row>
     <row r="103" spans="1:35" ht="20" x14ac:dyDescent="0.25">
@@ -12716,12 +12694,12 @@
       <c r="AA103" s="1">
         <v>228800000</v>
       </c>
-      <c r="AH103" s="41" t="s">
+      <c r="AH103" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="AI103" s="42">
+      <c r="AI103" s="41">
         <f>AI102/AI104</f>
-        <v>0.92423405263351766</v>
+        <v>0.91955580599620546</v>
       </c>
     </row>
     <row r="104" spans="1:35" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -12806,19 +12784,19 @@
       <c r="AA104" s="11">
         <v>379000000</v>
       </c>
-      <c r="AB104" s="75" t="s">
-        <v>164</v>
-      </c>
-      <c r="AC104" s="75"/>
-      <c r="AD104" s="75"/>
-      <c r="AE104" s="75"/>
-      <c r="AF104" s="75"/>
-      <c r="AH104" s="41" t="s">
+      <c r="AB104" s="74" t="s">
+        <v>115</v>
+      </c>
+      <c r="AC104" s="74"/>
+      <c r="AD104" s="74"/>
+      <c r="AE104" s="74"/>
+      <c r="AF104" s="74"/>
+      <c r="AH104" s="40" t="s">
         <v>143</v>
       </c>
-      <c r="AI104" s="47">
+      <c r="AI104" s="46">
         <f>AI100+AI102</f>
-        <v>23618790000</v>
+        <v>22245235000</v>
       </c>
     </row>
     <row r="105" spans="1:35" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -12929,30 +12907,33 @@
         <f t="shared" si="10"/>
         <v>797150443.08111787</v>
       </c>
-      <c r="AB105" s="27">
-        <f>AA105*(1+$AI$107)</f>
-        <v>843492734.91748667</v>
-      </c>
-      <c r="AC105" s="27">
-        <f>AB105*(1+$AI$107)</f>
-        <v>892529133.03114283</v>
-      </c>
-      <c r="AD105" s="27">
-        <f>AC105*(1+$AI$107)</f>
-        <v>944416259.12433064</v>
-      </c>
-      <c r="AE105" s="27">
-        <f>AD105*(1+$AI$107)</f>
-        <v>999319840.09229326</v>
-      </c>
-      <c r="AF105" s="27">
-        <f>AE105*(1+$AI$107)</f>
-        <v>1057415237.3531061</v>
-      </c>
-      <c r="AH105" s="73" t="s">
+      <c r="AB105" s="75">
+        <f>AB107/AB3</f>
+        <v>0.58996655518394647</v>
+      </c>
+      <c r="AC105" s="75">
+        <f>AC107/AC3</f>
+        <v>0.62253694581280783</v>
+      </c>
+      <c r="AD105" s="75">
+        <f>AD107/AD3</f>
+        <v>0.60567458019687315</v>
+      </c>
+      <c r="AE105" s="75">
+        <f>AE107/AE3</f>
+        <v>0.5652901785714286</v>
+      </c>
+      <c r="AF105" s="75">
+        <f>AF107/AF3</f>
+        <v>0.58231868713605084</v>
+      </c>
+      <c r="AG105" s="76" t="s">
+        <v>167</v>
+      </c>
+      <c r="AH105" s="72" t="s">
         <v>144</v>
       </c>
-      <c r="AI105" s="73"/>
+      <c r="AI105" s="72"/>
     </row>
     <row r="106" spans="1:35" ht="20" x14ac:dyDescent="0.25">
       <c r="A106" s="14" t="s">
@@ -13059,40 +13040,40 @@
         <f t="shared" si="11"/>
         <v>6.5746917926746251E-2</v>
       </c>
-      <c r="AB106" s="65">
+      <c r="AB106" s="64">
         <f>(AB107/AA107)-1</f>
         <v>9.7424412094065049E-2</v>
       </c>
-      <c r="AC106" s="65">
+      <c r="AC106" s="64">
         <f>(AC107/AB107)-1</f>
         <v>0.1462585034013606</v>
       </c>
-      <c r="AD106" s="65">
+      <c r="AD106" s="64">
         <f>(AD107/AC107)-1</f>
         <v>3.4619188921859445E-2</v>
       </c>
-      <c r="AE106" s="65">
+      <c r="AE106" s="64">
         <f>(AE107/AD107)-1</f>
         <v>-3.1548757170172137E-2</v>
       </c>
-      <c r="AF106" s="65">
+      <c r="AF106" s="64">
         <f>(AF107/AE107)-1</f>
         <v>8.5883514313919163E-2</v>
       </c>
-      <c r="AG106" s="70">
+      <c r="AG106" s="69">
         <f>SUM(AB106:AF106)/5</f>
         <v>6.6527372312206429E-2</v>
       </c>
-      <c r="AH106" s="48" t="s">
+      <c r="AH106" s="47" t="s">
         <v>107</v>
       </c>
-      <c r="AI106" s="49">
+      <c r="AI106" s="48">
         <f>(AI101*AI93)+(AI103*AI98)</f>
-        <v>7.7881594044212188E-2</v>
+        <v>7.7587613681533302E-2</v>
       </c>
     </row>
     <row r="107" spans="1:35" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="61" t="s">
+      <c r="A107" s="60" t="s">
         <v>163</v>
       </c>
       <c r="B107" s="1">
@@ -13173,166 +13154,166 @@
       <c r="AA107" s="1">
         <v>803700000</v>
       </c>
-      <c r="AB107" s="62">
+      <c r="AB107" s="61">
         <v>882000000</v>
       </c>
-      <c r="AC107" s="62">
+      <c r="AC107" s="61">
         <v>1011000000</v>
       </c>
-      <c r="AD107" s="62">
+      <c r="AD107" s="61">
         <v>1046000000</v>
       </c>
-      <c r="AE107" s="62">
+      <c r="AE107" s="61">
         <v>1013000000</v>
       </c>
-      <c r="AF107" s="62">
+      <c r="AF107" s="61">
         <v>1100000000</v>
       </c>
-      <c r="AG107" s="28" t="s">
-        <v>165</v>
-      </c>
-      <c r="AH107" s="50" t="s">
+      <c r="AG107" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="AH107" s="49" t="s">
         <v>145</v>
       </c>
-      <c r="AI107" s="51">
+      <c r="AI107" s="50">
         <f>(SUM(AB4:AF4)/5)</f>
         <v>5.8134938315091755E-2</v>
       </c>
     </row>
     <row r="108" spans="1:35" ht="19" x14ac:dyDescent="0.25">
-      <c r="AB108" s="28"/>
-      <c r="AC108" s="28"/>
-      <c r="AD108" s="28"/>
-      <c r="AE108" s="28"/>
-      <c r="AF108" s="64">
+      <c r="AB108" s="27"/>
+      <c r="AC108" s="27"/>
+      <c r="AD108" s="27"/>
+      <c r="AE108" s="27"/>
+      <c r="AF108" s="63">
         <f>AF107*(1+AI108)/(AI109-AI108)</f>
-        <v>21321218098.254421</v>
-      </c>
-      <c r="AG108" s="29" t="s">
+        <v>21440410033.207756</v>
+      </c>
+      <c r="AG108" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="AH108" s="52" t="s">
+      <c r="AH108" s="51" t="s">
         <v>147</v>
       </c>
-      <c r="AI108" s="53">
+      <c r="AI108" s="52">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="109" spans="1:35" ht="19" x14ac:dyDescent="0.25">
-      <c r="AB109" s="64">
+      <c r="AB109" s="63">
         <f>AB108+AB107</f>
         <v>882000000</v>
       </c>
-      <c r="AC109" s="64">
+      <c r="AC109" s="63">
         <f>AC108+AC107</f>
         <v>1011000000</v>
       </c>
-      <c r="AD109" s="64">
+      <c r="AD109" s="63">
         <f>AD108+AD107</f>
         <v>1046000000</v>
       </c>
-      <c r="AE109" s="64">
+      <c r="AE109" s="63">
         <f>AE108+AE107</f>
         <v>1013000000</v>
       </c>
-      <c r="AF109" s="64">
+      <c r="AF109" s="63">
         <f>AF108+AF107</f>
-        <v>22421218098.254421</v>
-      </c>
-      <c r="AG109" s="29" t="s">
+        <v>22540410033.207756</v>
+      </c>
+      <c r="AG109" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="AH109" s="54" t="s">
+      <c r="AH109" s="53" t="s">
         <v>148</v>
       </c>
-      <c r="AI109" s="51">
+      <c r="AI109" s="50">
         <f>AI106</f>
-        <v>7.7881594044212188E-2</v>
+        <v>7.7587613681533302E-2</v>
       </c>
     </row>
     <row r="110" spans="1:35" ht="19" x14ac:dyDescent="0.25">
-      <c r="AB110" s="74" t="s">
+      <c r="AB110" s="73" t="s">
         <v>149</v>
       </c>
-      <c r="AC110" s="74"/>
+      <c r="AC110" s="73"/>
     </row>
     <row r="111" spans="1:35" ht="20" x14ac:dyDescent="0.25">
-      <c r="AB111" s="55" t="s">
+      <c r="AB111" s="54" t="s">
         <v>150</v>
       </c>
-      <c r="AC111" s="46">
+      <c r="AC111" s="45">
         <f>NPV(AI109,AB109,AC109,AD109,AE109,AF109)</f>
-        <v>18684207060.975525</v>
+        <v>18789472144.744797</v>
       </c>
     </row>
     <row r="112" spans="1:35" ht="20" x14ac:dyDescent="0.25">
-      <c r="AB112" s="55" t="s">
+      <c r="AB112" s="54" t="s">
         <v>151</v>
       </c>
-      <c r="AC112" s="46">
+      <c r="AC112" s="45">
         <f>AA40</f>
         <v>980400000</v>
       </c>
     </row>
     <row r="113" spans="28:29" ht="20" x14ac:dyDescent="0.25">
-      <c r="AB113" s="55" t="s">
+      <c r="AB113" s="54" t="s">
         <v>139</v>
       </c>
-      <c r="AC113" s="46">
+      <c r="AC113" s="45">
         <f>AI100</f>
         <v>1789500000</v>
       </c>
     </row>
     <row r="114" spans="28:29" ht="20" x14ac:dyDescent="0.25">
-      <c r="AB114" s="55" t="s">
+      <c r="AB114" s="54" t="s">
         <v>152</v>
       </c>
-      <c r="AC114" s="46">
+      <c r="AC114" s="45">
         <f>AC111+AC112-AC113</f>
-        <v>17875107060.975525</v>
+        <v>17980372144.744797</v>
       </c>
     </row>
     <row r="115" spans="28:29" ht="20" x14ac:dyDescent="0.25">
-      <c r="AB115" s="55" t="s">
+      <c r="AB115" s="54" t="s">
         <v>157</v>
       </c>
-      <c r="AC115" s="55">
+      <c r="AC115" s="54">
         <f>AA34*(1+(AG16*5))</f>
         <v>93150646.3458101</v>
       </c>
     </row>
     <row r="116" spans="28:29" ht="20" x14ac:dyDescent="0.25">
-      <c r="AB116" s="56" t="s">
+      <c r="AB116" s="55" t="s">
         <v>153</v>
       </c>
-      <c r="AC116" s="57">
+      <c r="AC116" s="56">
         <f>AC114/AC115</f>
-        <v>191.89461117227711</v>
+        <v>193.02466327495912</v>
       </c>
     </row>
     <row r="117" spans="28:29" ht="20" x14ac:dyDescent="0.25">
-      <c r="AB117" s="55" t="s">
+      <c r="AB117" s="54" t="s">
         <v>154</v>
       </c>
-      <c r="AC117" s="58" cm="1">
+      <c r="AC117" s="57" cm="1">
         <f t="array" ref="AC117">_FV(A1,"Price")</f>
-        <v>208.12</v>
+        <v>200.35</v>
       </c>
     </row>
     <row r="118" spans="28:29" ht="20" x14ac:dyDescent="0.25">
-      <c r="AB118" s="56" t="s">
+      <c r="AB118" s="55" t="s">
         <v>155</v>
       </c>
-      <c r="AC118" s="59">
+      <c r="AC118" s="58">
         <f>AC116/AC117-1</f>
-        <v>-7.796169915300255E-2</v>
+        <v>-3.6562698902125601E-2</v>
       </c>
     </row>
     <row r="119" spans="28:29" ht="20" x14ac:dyDescent="0.25">
-      <c r="AB119" s="56" t="s">
+      <c r="AB119" s="55" t="s">
         <v>156</v>
       </c>
-      <c r="AC119" s="60" t="str">
+      <c r="AC119" s="59" t="str">
         <f>IF(AC116&gt;AC117,"BUY","SELL")</f>
         <v>SELL</v>
       </c>

--- a/Technology/Software/VeriSign.xlsx
+++ b/Technology/Software/VeriSign.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{246E0E17-B56B-9843-8D24-5D79DF28547E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05A2F49B-7C31-1D4A-9473-8D95D8AFFE63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4140" yWindow="500" windowWidth="28800" windowHeight="16580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -1027,6 +1027,12 @@
     <xf numFmtId="9" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1040,12 +1046,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="11" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2699,7 +2699,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.8750000000000002E-2</v>
+            <v>4.5710000000000001E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2837,10 +2837,12 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>229.72</v>
-    <v>175.2</v>
-    <v>0.93069999999999997</v>
-    <v>5.82</v>
-    <v>2.9918E-2</v>
+    <v>177.9</v>
+    <v>0.92730000000000001</v>
+    <v>1.1599999999999999</v>
+    <v>5.6899999999999997E-3</v>
+    <v>0</v>
+    <v>0</v>
     <v>USD</v>
     <v>VeriSign, Inc. is a global provider of domain name registry services and Internet infrastructure. The Company enables the security, stability, and resiliency of Internet infrastructure and services, including providing root zone maintainer services, operating two global Internet root servers, and providing registration services and authoritative resolution for the .com and .net top-level domains (TLDs), which support the majority of global e-commerce. The Company operates the authoritative directory of and/or the back-end systems for all .com, .net, .cc, .gov, .edu and .name domain names, among others. Its services allow individuals and organizations to establish their online identities, while providing the secure, always-on access they need to communicate and transact reliably with large-scale online audiences. The Company also provides internationalized domain name (IDN) services that enable Internet users to access domain names in characters representing their local language.</v>
     <v>914</v>
@@ -2848,24 +2850,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>ATTN: GENERAL COUNSEL, 12061 BLUEMONT WAY, RESTON, VA, 20190 US</v>
-    <v>201.82</v>
+    <v>205.44</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45232.905274096876</v>
+    <v>45238.885488344531</v>
     <v>0</v>
-    <v>195.39</v>
-    <v>20455735000</v>
+    <v>203.33</v>
+    <v>20932542000</v>
     <v>VERISIGN, INC.</v>
     <v>VERISIGN, INC.</v>
-    <v>195.39</v>
-    <v>28.5701</v>
-    <v>194.53</v>
-    <v>200.35</v>
+    <v>204.17</v>
+    <v>29.070599999999999</v>
+    <v>203.86</v>
+    <v>205.02</v>
+    <v>205.02</v>
     <v>102100000</v>
     <v>VRSN</v>
     <v>VERISIGN, INC. (XNAS:VRSN)</v>
-    <v>529880</v>
-    <v>537025</v>
+    <v>373348</v>
+    <v>544713</v>
     <v>1995</v>
   </rv>
   <rv s="2">
@@ -2897,6 +2900,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2917,6 +2922,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2933,7 +2939,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2944,13 +2950,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -3016,13 +3025,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Delayed 15 minutes</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -3067,6 +3082,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -3074,6 +3092,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -3435,10 +3456,10 @@
   <dimension ref="A1:AJ119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="Y99" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="W2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AJ125" sqref="AJ125"/>
+      <selection pane="bottomRight" activeCell="AD13" sqref="AD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5048,15 +5069,15 @@
       </c>
       <c r="AH16" s="29">
         <f>AI102/AA3</f>
-        <v>14.355909186609587</v>
+        <v>14.690534072566496</v>
       </c>
       <c r="AI16" s="29">
         <f>AI102/AA28</f>
-        <v>30.358763728109231</v>
+        <v>31.066402493321462</v>
       </c>
       <c r="AJ16" s="30">
         <f>AI102/AA107</f>
-        <v>25.45195346522334</v>
+        <v>26.04521836506159</v>
       </c>
     </row>
     <row r="17" spans="1:36" ht="19" x14ac:dyDescent="0.25">
@@ -5340,15 +5361,15 @@
       </c>
       <c r="AH19" s="29">
         <f>AI102/AB3</f>
-        <v>13.682765886287626</v>
+        <v>14.001700334448161</v>
       </c>
       <c r="AI19" s="29">
         <f>AI102/AB28</f>
-        <v>27.755407055630936</v>
+        <v>28.402363636363635</v>
       </c>
       <c r="AJ19" s="30">
-        <f>AI102/AB105</f>
-        <v>34672702749.433105</v>
+        <f>AI102/AB107</f>
+        <v>23.733040816326529</v>
       </c>
     </row>
     <row r="20" spans="1:36" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -5681,7 +5702,7 @@
       </c>
       <c r="AJ22" s="32">
         <f>AB107/AI102</f>
-        <v>4.3117492478270764E-2</v>
+        <v>4.2135350785394342E-2</v>
       </c>
     </row>
     <row r="23" spans="1:36" ht="19" x14ac:dyDescent="0.25">
@@ -10971,10 +10992,10 @@
       <c r="AA84" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AH84" s="70" t="s">
+      <c r="AH84" s="72" t="s">
         <v>125</v>
       </c>
-      <c r="AI84" s="71"/>
+      <c r="AI84" s="73"/>
     </row>
     <row r="85" spans="1:35" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -11058,10 +11079,10 @@
       <c r="AA85" s="1">
         <v>46300000</v>
       </c>
-      <c r="AH85" s="72" t="s">
+      <c r="AH85" s="74" t="s">
         <v>126</v>
       </c>
-      <c r="AI85" s="72"/>
+      <c r="AI85" s="74"/>
     </row>
     <row r="86" spans="1:35" ht="20" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
@@ -11891,10 +11912,10 @@
       <c r="AA94" s="10">
         <v>355700000</v>
       </c>
-      <c r="AH94" s="72" t="s">
+      <c r="AH94" s="74" t="s">
         <v>133</v>
       </c>
-      <c r="AI94" s="72"/>
+      <c r="AI94" s="74"/>
     </row>
     <row r="95" spans="1:35" ht="20" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
@@ -11983,7 +12004,7 @@
       </c>
       <c r="AI95" s="65">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.8750000000000002E-2</v>
+        <v>4.5710000000000001E-2</v>
       </c>
     </row>
     <row r="96" spans="1:35" ht="20" x14ac:dyDescent="0.25">
@@ -12073,7 +12094,7 @@
       </c>
       <c r="AI96" s="44" cm="1">
         <f t="array" ref="AI96">_FV(A1,"Beta")</f>
-        <v>0.93069999999999997</v>
+        <v>0.92730000000000001</v>
       </c>
     </row>
     <row r="97" spans="1:35" ht="20" x14ac:dyDescent="0.25">
@@ -12252,7 +12273,7 @@
       </c>
       <c r="AI98" s="41">
         <f>(AI95)+((AI96)*(AI97-AI95))</f>
-        <v>8.155717500000001E-2</v>
+        <v>8.121631700000001E-2</v>
       </c>
     </row>
     <row r="99" spans="1:35" ht="20" customHeight="1" x14ac:dyDescent="0.25">
@@ -12337,10 +12358,10 @@
       <c r="AA99" s="1">
         <v>12300000</v>
       </c>
-      <c r="AH99" s="72" t="s">
+      <c r="AH99" s="74" t="s">
         <v>138</v>
       </c>
-      <c r="AI99" s="72"/>
+      <c r="AI99" s="74"/>
     </row>
     <row r="100" spans="1:35" ht="20" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
@@ -12519,7 +12540,7 @@
       </c>
       <c r="AI101" s="41">
         <f>AI100/AI104</f>
-        <v>8.0444194003794517E-2</v>
+        <v>7.875612587988351E-2</v>
       </c>
     </row>
     <row r="102" spans="1:35" ht="20" x14ac:dyDescent="0.25">
@@ -12609,7 +12630,7 @@
       </c>
       <c r="AI102" s="45" cm="1">
         <f t="array" ref="AI102">_FV(A1,"Market cap",TRUE)</f>
-        <v>20455735000</v>
+        <v>20932542000</v>
       </c>
     </row>
     <row r="103" spans="1:35" ht="20" x14ac:dyDescent="0.25">
@@ -12699,7 +12720,7 @@
       </c>
       <c r="AI103" s="41">
         <f>AI102/AI104</f>
-        <v>0.91955580599620546</v>
+        <v>0.92124387412011655</v>
       </c>
     </row>
     <row r="104" spans="1:35" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -12784,19 +12805,19 @@
       <c r="AA104" s="11">
         <v>379000000</v>
       </c>
-      <c r="AB104" s="74" t="s">
+      <c r="AB104" s="76" t="s">
         <v>115</v>
       </c>
-      <c r="AC104" s="74"/>
-      <c r="AD104" s="74"/>
-      <c r="AE104" s="74"/>
-      <c r="AF104" s="74"/>
+      <c r="AC104" s="76"/>
+      <c r="AD104" s="76"/>
+      <c r="AE104" s="76"/>
+      <c r="AF104" s="76"/>
       <c r="AH104" s="40" t="s">
         <v>143</v>
       </c>
       <c r="AI104" s="46">
         <f>AI100+AI102</f>
-        <v>22245235000</v>
+        <v>22722042000</v>
       </c>
     </row>
     <row r="105" spans="1:35" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -12907,33 +12928,33 @@
         <f t="shared" si="10"/>
         <v>797150443.08111787</v>
       </c>
-      <c r="AB105" s="75">
+      <c r="AB105" s="70">
         <f>AB107/AB3</f>
         <v>0.58996655518394647</v>
       </c>
-      <c r="AC105" s="75">
+      <c r="AC105" s="70">
         <f>AC107/AC3</f>
         <v>0.62253694581280783</v>
       </c>
-      <c r="AD105" s="75">
+      <c r="AD105" s="70">
         <f>AD107/AD3</f>
         <v>0.60567458019687315</v>
       </c>
-      <c r="AE105" s="75">
+      <c r="AE105" s="70">
         <f>AE107/AE3</f>
         <v>0.5652901785714286</v>
       </c>
-      <c r="AF105" s="75">
+      <c r="AF105" s="70">
         <f>AF107/AF3</f>
         <v>0.58231868713605084</v>
       </c>
-      <c r="AG105" s="76" t="s">
+      <c r="AG105" s="71" t="s">
         <v>167</v>
       </c>
-      <c r="AH105" s="72" t="s">
+      <c r="AH105" s="74" t="s">
         <v>144</v>
       </c>
-      <c r="AI105" s="72"/>
+      <c r="AI105" s="74"/>
     </row>
     <row r="106" spans="1:35" ht="20" x14ac:dyDescent="0.25">
       <c r="A106" s="14" t="s">
@@ -13069,7 +13090,7 @@
       </c>
       <c r="AI106" s="48">
         <f>(AI101*AI93)+(AI103*AI98)</f>
-        <v>7.7587613681533302E-2</v>
+        <v>7.7356898951868536E-2</v>
       </c>
     </row>
     <row r="107" spans="1:35" ht="19" x14ac:dyDescent="0.25">
@@ -13187,7 +13208,7 @@
       <c r="AE108" s="27"/>
       <c r="AF108" s="63">
         <f>AF107*(1+AI108)/(AI109-AI108)</f>
-        <v>21440410033.207756</v>
+        <v>21534888860.329674</v>
       </c>
       <c r="AG108" s="28" t="s">
         <v>146</v>
@@ -13218,7 +13239,7 @@
       </c>
       <c r="AF109" s="63">
         <f>AF108+AF107</f>
-        <v>22540410033.207756</v>
+        <v>22634888860.329674</v>
       </c>
       <c r="AG109" s="28" t="s">
         <v>143</v>
@@ -13228,14 +13249,14 @@
       </c>
       <c r="AI109" s="50">
         <f>AI106</f>
-        <v>7.7587613681533302E-2</v>
+        <v>7.7356898951868536E-2</v>
       </c>
     </row>
     <row r="110" spans="1:35" ht="19" x14ac:dyDescent="0.25">
-      <c r="AB110" s="73" t="s">
+      <c r="AB110" s="75" t="s">
         <v>149</v>
       </c>
-      <c r="AC110" s="73"/>
+      <c r="AC110" s="75"/>
     </row>
     <row r="111" spans="1:35" ht="20" x14ac:dyDescent="0.25">
       <c r="AB111" s="54" t="s">
@@ -13243,7 +13264,7 @@
       </c>
       <c r="AC111" s="45">
         <f>NPV(AI109,AB109,AC109,AD109,AE109,AF109)</f>
-        <v>18789472144.744797</v>
+        <v>18872912290.311577</v>
       </c>
     </row>
     <row r="112" spans="1:35" ht="20" x14ac:dyDescent="0.25">
@@ -13270,7 +13291,7 @@
       </c>
       <c r="AC114" s="45">
         <f>AC111+AC112-AC113</f>
-        <v>17980372144.744797</v>
+        <v>18063812290.311577</v>
       </c>
     </row>
     <row r="115" spans="28:29" ht="20" x14ac:dyDescent="0.25">
@@ -13288,7 +13309,7 @@
       </c>
       <c r="AC116" s="56">
         <f>AC114/AC115</f>
-        <v>193.02466327495912</v>
+        <v>193.92041814988528</v>
       </c>
     </row>
     <row r="117" spans="28:29" ht="20" x14ac:dyDescent="0.25">
@@ -13297,7 +13318,7 @@
       </c>
       <c r="AC117" s="57" cm="1">
         <f t="array" ref="AC117">_FV(A1,"Price")</f>
-        <v>200.35</v>
+        <v>205.02</v>
       </c>
     </row>
     <row r="118" spans="28:29" ht="20" x14ac:dyDescent="0.25">
@@ -13306,7 +13327,7 @@
       </c>
       <c r="AC118" s="58">
         <f>AC116/AC117-1</f>
-        <v>-3.6562698902125601E-2</v>
+        <v>-5.4139019852281423E-2</v>
       </c>
     </row>
     <row r="119" spans="28:29" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Software/VeriSign.xlsx
+++ b/Technology/Software/VeriSign.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1CF11B3-E620-8E42-81DE-486C8C964EBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9314CA87-3C37-A147-8A26-9EF0075EF70A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1776,13 +1776,13 @@
       <sheetName val="Other HF Buys"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
@@ -1790,15 +1790,15 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -15242,8 +15242,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3C1F068-4F9A-354E-9394-13D0274F94D7}">
   <dimension ref="A1:R110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/Technology/Software/VeriSign.xlsx
+++ b/Technology/Software/VeriSign.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9314CA87-3C37-A147-8A26-9EF0075EF70A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43ABE193-2931-CC47-964C-7820A6E01076}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1767,6 +1767,8 @@
       <sheetName val="US Treasury Bonds"/>
       <sheetName val="High Growth"/>
       <sheetName val="GARP"/>
+      <sheetName val="Top Consumer Stocks"/>
+      <sheetName val="Dividend Portfolio"/>
       <sheetName val="Watchlist"/>
       <sheetName val="Small + Speculative"/>
       <sheetName val="Highest Quality"/>
@@ -1786,7 +1788,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.2709999999999998E-2</v>
+            <v>4.1210000000000004E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1799,6 +1801,8 @@
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1926,9 +1930,9 @@
     <v>Powered by Refinitiv</v>
     <v>229.72</v>
     <v>188.44</v>
-    <v>0.94440000000000002</v>
-    <v>5.57</v>
-    <v>2.6248999999999998E-2</v>
+    <v>0.94359999999999999</v>
+    <v>-1.62</v>
+    <v>-7.5490000000000002E-3</v>
     <v>0</v>
     <v>0</v>
     <v>USD</v>
@@ -1938,25 +1942,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>ATTN: GENERAL COUNSEL, 12061 BLUEMONT WAY, RESTON, VA, 20190 US</v>
-    <v>219</v>
+    <v>215.27</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45261.948569953121</v>
+    <v>45268.89028649297</v>
     <v>0</v>
-    <v>210.72</v>
-    <v>22234320000</v>
+    <v>212.11</v>
+    <v>21744237000</v>
     <v>VERISIGN, INC.</v>
     <v>VERISIGN, INC.</v>
-    <v>211.84</v>
-    <v>30.259899999999998</v>
-    <v>212.2</v>
-    <v>217.77</v>
-    <v>217.77</v>
+    <v>214.1</v>
+    <v>30.6007</v>
+    <v>214.59</v>
+    <v>212.97</v>
+    <v>212.97</v>
     <v>102100000</v>
     <v>VRSN</v>
     <v>VERISIGN, INC. (XNAS:VRSN)</v>
-    <v>731338</v>
-    <v>629764</v>
+    <v>477958</v>
+    <v>570793</v>
     <v>1995</v>
   </rv>
   <rv s="2">
@@ -15242,8 +15246,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3C1F068-4F9A-354E-9394-13D0274F94D7}">
   <dimension ref="A1:R110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15296,7 +15300,7 @@
     <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="35" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>22234320000</v>
+        <v>21744237000</v>
       </c>
       <c r="B3" s="36" t="s">
         <v>202</v>
@@ -15324,7 +15328,7 @@
       </c>
       <c r="I3" s="40">
         <f>J15*(1+I7)/(I6-I7)</f>
-        <v>17722476148.188473</v>
+        <v>17632592406.565018</v>
       </c>
       <c r="J3" s="41" t="s">
         <v>206</v>
@@ -15376,14 +15380,14 @@
       </c>
       <c r="I4" s="50">
         <f>NPV(I6,F15,G15,H15,I15,(J15+I3))</f>
-        <v>15402754960.234035</v>
+        <v>15323450372.629726</v>
       </c>
       <c r="J4" s="48" t="s">
         <v>213</v>
       </c>
       <c r="K4" s="51" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>2.6248999999999998E-2</v>
+        <v>-7.5490000000000002E-3</v>
       </c>
       <c r="L4" s="52" t="s">
         <v>214</v>
@@ -15428,14 +15432,14 @@
       </c>
       <c r="I5" s="50">
         <f>I4+G5-G6</f>
-        <v>14551054960.234035</v>
+        <v>14471750372.629726</v>
       </c>
       <c r="J5" s="48" t="s">
         <v>220</v>
       </c>
       <c r="K5" s="54" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>217.77</v>
+        <v>212.97</v>
       </c>
       <c r="L5" s="55" t="s">
         <v>221</v>
@@ -15455,7 +15459,7 @@
     <row r="6" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="58">
         <f>O20/F10</f>
-        <v>14.892377762893503</v>
+        <v>14.564123911587409</v>
       </c>
       <c r="B6" s="46" t="s">
         <v>223</v>
@@ -15483,14 +15487,14 @@
       </c>
       <c r="I6" s="51">
         <f>N25</f>
-        <v>9.2089947818693244E-2</v>
+        <v>9.2431944922478221E-2</v>
       </c>
       <c r="J6" s="48" t="s">
         <v>226</v>
       </c>
       <c r="K6" s="59">
         <f>I5/G4</f>
-        <v>168.90933096065979</v>
+        <v>167.98875957453262</v>
       </c>
       <c r="L6" s="60" t="s">
         <v>227</v>
@@ -15510,14 +15514,14 @@
     <row r="7" spans="1:18" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="61">
         <f>O20/F12</f>
-        <v>29.725026737967916</v>
+        <v>29.069835561497325</v>
       </c>
       <c r="B7" s="62" t="s">
         <v>229</v>
       </c>
       <c r="C7" s="63">
         <f>F15/A3</f>
-        <v>3.9713380035908449E-2</v>
+        <v>4.0608460991296225E-2</v>
       </c>
       <c r="D7" s="62" t="s">
         <v>230</v>
@@ -15544,7 +15548,7 @@
       </c>
       <c r="K7" s="69">
         <f>K6/K5-1</f>
-        <v>-0.22436822812756685</v>
+        <v>-0.21120928029988906</v>
       </c>
       <c r="L7" s="70" t="s">
         <v>233</v>
@@ -15871,7 +15875,7 @@
       </c>
       <c r="O14" s="89">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.2709999999999998E-2</v>
+        <v>4.1210000000000004E-2</v>
       </c>
       <c r="P14" s="44"/>
       <c r="Q14" s="44"/>
@@ -16023,7 +16027,7 @@
       </c>
       <c r="O17" s="99">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>9.762570000000001E-2</v>
+        <v>9.8120700000000005E-2</v>
       </c>
       <c r="P17" s="44"/>
       <c r="Q17" s="44"/>
@@ -16106,7 +16110,7 @@
       </c>
       <c r="O20" s="105">
         <f>A3</f>
-        <v>22234320000</v>
+        <v>21744237000</v>
       </c>
       <c r="P20" s="44"/>
       <c r="Q20" s="44"/>
@@ -16136,7 +16140,7 @@
       </c>
       <c r="O21" s="105">
         <f>O19+O20</f>
-        <v>24029520000</v>
+        <v>23539437000</v>
       </c>
       <c r="P21" s="44"/>
       <c r="Q21" s="44"/>
@@ -16164,7 +16168,7 @@
       </c>
       <c r="O22" s="107">
         <f>(O19/O21)</f>
-        <v>7.470810902589814E-2</v>
+        <v>7.6263506217247257E-2</v>
       </c>
       <c r="P22" s="44"/>
       <c r="Q22" s="44"/>
@@ -16189,7 +16193,7 @@
       </c>
       <c r="O23" s="108">
         <f>O20/O21</f>
-        <v>0.9252918909741018</v>
+        <v>0.9237364937827528</v>
       </c>
       <c r="P23" s="44"/>
       <c r="Q23" s="44"/>
@@ -16233,7 +16237,7 @@
       <c r="M25" s="72"/>
       <c r="N25" s="112">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>9.2089947818693244E-2</v>
+        <v>9.2431944922478221E-2</v>
       </c>
       <c r="O25" s="113"/>
       <c r="P25" s="44"/>
